--- a/report/CornData.xlsx
+++ b/report/CornData.xlsx
@@ -161,12 +161,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+加征关税至25%</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="208">
   <si>
     <t>周初库存</t>
   </si>
@@ -366,10 +392,6 @@
   </si>
   <si>
     <t>散船利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -890,6 +912,26 @@
     <t>洮南锦州港汽运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>两港费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散船运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高粱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口玉米完税成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -987,7 +1029,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1244,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1459,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1964,6 +2012,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,6 +2199,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2184,6 +2286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2270,7 +2373,7 @@
               <c:f>[0]!PortWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42722</c:v>
                 </c:pt>
@@ -2305,7 +2408,7 @@
                   <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42835</c:v>
+                  <c:v>42832</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42839</c:v>
@@ -2519,6 +2622,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>43350</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,7 +2634,7 @@
               <c:f>[0]!NorthCarryout</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>346</c:v>
                 </c:pt>
@@ -2776,6 +2882,9 @@
                   <c:v>357.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>342.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2790,8 +2899,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1264381312"/>
-        <c:axId val="1264381856"/>
+        <c:axId val="334902528"/>
+        <c:axId val="334913952"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2849,7 +2958,7 @@
               <c:f>[0]!PortWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42722</c:v>
                 </c:pt>
@@ -2884,7 +2993,7 @@
                   <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42835</c:v>
+                  <c:v>42832</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42839</c:v>
@@ -3098,6 +3207,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>43350</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3219,7 @@
               <c:f>[0]!NorthCarryoutChange</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="1">
                   <c:v>-24.699999999999989</c:v>
                 </c:pt>
@@ -3352,7 +3464,10 @@
                   <c:v>-8.5999999999999659</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-357.70000000000005</c:v>
+                  <c:v>-15.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-342.00000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,11 +3482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1264390016"/>
-        <c:axId val="1264386208"/>
+        <c:axId val="334903072"/>
+        <c:axId val="334901440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1264381312"/>
+        <c:axId val="334902528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264381856"/>
+        <c:crossAx val="334913952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3422,7 +3537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1264381856"/>
+        <c:axId val="334913952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -3474,12 +3589,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264381312"/>
+        <c:crossAx val="334902528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1264386208"/>
+        <c:axId val="334901440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,12 +3631,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264390016"/>
+        <c:crossAx val="334903072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1264390016"/>
+        <c:axId val="334903072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1264386208"/>
+        <c:crossAx val="334901440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,6 +3663,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3668,6 +3784,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4575,8 +4692,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1264383488"/>
-        <c:axId val="1264394912"/>
+        <c:axId val="334900352"/>
+        <c:axId val="334904704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5001,11 +5118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1264386752"/>
-        <c:axId val="1264384032"/>
+        <c:axId val="334909600"/>
+        <c:axId val="334911776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1264383488"/>
+        <c:axId val="334900352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +5162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264394912"/>
+        <c:crossAx val="334904704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1264394912"/>
+        <c:axId val="334904704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,12 +5218,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264383488"/>
+        <c:crossAx val="334900352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1264384032"/>
+        <c:axId val="334911776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -5141,12 +5258,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264386752"/>
+        <c:crossAx val="334909600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1264386752"/>
+        <c:axId val="334909600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,7 +5273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1264384032"/>
+        <c:crossAx val="334911776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5173,6 +5290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5298,6 +5416,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5773,8 +5892,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1264388928"/>
-        <c:axId val="1264389472"/>
+        <c:axId val="334915040"/>
+        <c:axId val="334910144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6199,11 +6318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1417517952"/>
-        <c:axId val="1264129792"/>
+        <c:axId val="334912864"/>
+        <c:axId val="334905792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1264388928"/>
+        <c:axId val="334915040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264389472"/>
+        <c:crossAx val="334910144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6251,7 +6370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1264389472"/>
+        <c:axId val="334910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,12 +6418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1264388928"/>
+        <c:crossAx val="334915040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1264129792"/>
+        <c:axId val="334905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -6339,12 +6458,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417517952"/>
+        <c:crossAx val="334912864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1417517952"/>
+        <c:axId val="334912864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6354,7 +6473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1264129792"/>
+        <c:crossAx val="334905792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6370,6 +6489,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6487,6 +6607,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7394,8 +7515,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1417519584"/>
-        <c:axId val="1417509248"/>
+        <c:axId val="334906336"/>
+        <c:axId val="251888080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7820,11 +7941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1417514688"/>
-        <c:axId val="1417508160"/>
+        <c:axId val="410375824"/>
+        <c:axId val="410373104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1417519584"/>
+        <c:axId val="334906336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,7 +7985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417509248"/>
+        <c:crossAx val="251888080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7872,7 +7993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1417509248"/>
+        <c:axId val="251888080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7920,12 +8041,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417519584"/>
+        <c:crossAx val="334906336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1417508160"/>
+        <c:axId val="410373104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7959,12 +8080,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417514688"/>
+        <c:crossAx val="410375824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1417514688"/>
+        <c:axId val="410375824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7974,7 +8095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1417508160"/>
+        <c:crossAx val="410373104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7990,6 +8111,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8099,6 +8221,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8454,8 +8577,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1417511424"/>
-        <c:axId val="1417509792"/>
+        <c:axId val="410372560"/>
+        <c:axId val="410373648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8880,11 +9003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1417511968"/>
-        <c:axId val="1417518496"/>
+        <c:axId val="410381264"/>
+        <c:axId val="410376368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1417511424"/>
+        <c:axId val="410372560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8924,7 +9047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417509792"/>
+        <c:crossAx val="410373648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8932,7 +9055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1417509792"/>
+        <c:axId val="410373648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8980,12 +9103,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417511424"/>
+        <c:crossAx val="410372560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1417518496"/>
+        <c:axId val="410376368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9019,12 +9142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417511968"/>
+        <c:crossAx val="410381264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1417511968"/>
+        <c:axId val="410381264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9034,7 +9157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1417518496"/>
+        <c:crossAx val="410376368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9050,6 +9173,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11974,9 +12098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>318412</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56700</xdr:rowOff>
+      <xdr:colOff>322500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19668</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11986,7 +12110,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2066925" y="1940718"/>
-          <a:ext cx="10795912" cy="7202832"/>
+          <a:ext cx="10800000" cy="6480000"/>
           <a:chOff x="2066925" y="1940718"/>
           <a:chExt cx="10795912" cy="7202832"/>
         </a:xfrm>
@@ -12350,13 +12474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1506"/>
+  <dimension ref="A1:W1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H1491" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1507" sqref="T1507"/>
+      <selection pane="bottomRight" activeCell="E1509" sqref="E1509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12365,7 +12489,7 @@
     <col min="2" max="4" width="11.625" style="160" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="161" customWidth="1"/>
     <col min="6" max="6" width="9" style="162"/>
-    <col min="7" max="7" width="9" style="163"/>
+    <col min="7" max="7" width="12.25" style="163" customWidth="1"/>
     <col min="8" max="8" width="9" style="164"/>
     <col min="9" max="9" width="9" style="162"/>
     <col min="10" max="10" width="9" style="163"/>
@@ -12385,70 +12509,70 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B1" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="D1" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="160" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="164" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="163" t="s">
+      <c r="J1" s="163" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="K1" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="162" t="s">
+      <c r="L1" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="163" t="s">
+      <c r="M1" s="164" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="164" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="164" t="s">
+      <c r="P1" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="162" t="s">
+      <c r="Q1" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="163" t="s">
-        <v>203</v>
-      </c>
-      <c r="P1" s="164" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="162" t="s">
-        <v>112</v>
-      </c>
       <c r="R1" s="165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S1" s="164" t="s">
         <v>36</v>
       </c>
       <c r="T1" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="164" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="162" t="s">
+      <c r="W1" s="162" t="s">
         <v>114</v>
-      </c>
-      <c r="W1" s="162" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -26365,7 +26489,7 @@
         <v>1600</v>
       </c>
       <c r="M1492" s="164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P1492" s="164">
         <v>1550</v>
@@ -26733,6 +26857,116 @@
         <v>1720</v>
       </c>
     </row>
+    <row r="1507" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1507" s="168">
+        <v>43354</v>
+      </c>
+      <c r="B1507" s="169">
+        <v>1770</v>
+      </c>
+      <c r="C1507" s="169">
+        <v>1750</v>
+      </c>
+      <c r="D1507" s="160">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1508" s="168">
+        <v>43355</v>
+      </c>
+      <c r="B1508" s="169">
+        <v>1770</v>
+      </c>
+      <c r="C1508" s="169">
+        <v>1750</v>
+      </c>
+      <c r="D1508" s="160">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1509" s="168">
+        <v>43356</v>
+      </c>
+      <c r="B1509" s="169">
+        <v>1770</v>
+      </c>
+      <c r="C1509" s="169">
+        <v>1750</v>
+      </c>
+      <c r="D1509" s="160">
+        <v>1920</v>
+      </c>
+      <c r="E1509" s="161">
+        <v>62</v>
+      </c>
+      <c r="G1509" s="163">
+        <v>155</v>
+      </c>
+      <c r="H1509" s="164">
+        <v>1580</v>
+      </c>
+      <c r="J1509" s="163">
+        <v>160</v>
+      </c>
+      <c r="K1509" s="164">
+        <v>1600</v>
+      </c>
+      <c r="O1509" s="163">
+        <v>110</v>
+      </c>
+      <c r="P1509" s="164">
+        <v>1550</v>
+      </c>
+      <c r="R1509" s="165">
+        <v>120</v>
+      </c>
+      <c r="S1509" s="164">
+        <v>1610</v>
+      </c>
+      <c r="U1509" s="164">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1510" s="168">
+        <v>43357</v>
+      </c>
+      <c r="B1510" s="169">
+        <v>1770</v>
+      </c>
+      <c r="C1510" s="169">
+        <v>1750</v>
+      </c>
+      <c r="D1510" s="160">
+        <v>1920</v>
+      </c>
+      <c r="H1510" s="164">
+        <v>1580</v>
+      </c>
+      <c r="K1510" s="164">
+        <v>1600</v>
+      </c>
+      <c r="N1510" s="162">
+        <v>1640</v>
+      </c>
+      <c r="P1510" s="164">
+        <v>1550</v>
+      </c>
+      <c r="S1510" s="164">
+        <v>1610</v>
+      </c>
+      <c r="U1510" s="164">
+        <v>1630</v>
+      </c>
+      <c r="W1510" s="162">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1511" s="168"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26744,8 +26978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -26766,40 +27000,40 @@
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="151">
         <f ca="1">TODAY()</f>
-        <v>43353</v>
+        <v>43360</v>
       </c>
       <c r="B1" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="D1" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="E1" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="F1" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="G1" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="H1" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="I1" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="152" t="s">
-        <v>115</v>
-      </c>
       <c r="K1" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="132" t="s">
+      <c r="M1" s="132" t="s">
         <v>137</v>
-      </c>
-      <c r="M1" s="132" t="s">
-        <v>138</v>
       </c>
       <c r="N1" s="131">
         <v>43343</v>
@@ -26808,21 +27042,21 @@
         <v>43336</v>
       </c>
       <c r="P1" s="132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R1" s="131">
         <v>43343</v>
       </c>
       <c r="S1" s="132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="130" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="134">
         <f>LOOKUP(2,1/(价格!F:F&lt;&gt;0),价格!F:F)</f>
@@ -26838,7 +27072,7 @@
       </c>
       <c r="E2" s="134">
         <f>LOOKUP(2,1/(价格!N:N&lt;&gt;0),价格!N:N)</f>
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="F2" s="134">
         <f>LOOKUP(2,1/(价格!Q:Q&lt;&gt;0),价格!Q:Q)</f>
@@ -26854,10 +27088,10 @@
       </c>
       <c r="I2" s="134">
         <f>LOOKUP(2,1/(价格!W:W&lt;&gt;0),价格!W:W)</f>
-        <v>1720</v>
-      </c>
-      <c r="K2" s="189" t="s">
-        <v>139</v>
+        <v>1740</v>
+      </c>
+      <c r="K2" s="197" t="s">
+        <v>138</v>
       </c>
       <c r="L2" s="140" t="s">
         <v>49</v>
@@ -26872,40 +27106,40 @@
       <c r="O2" s="142">
         <v>9</v>
       </c>
-      <c r="P2" s="190" t="s">
-        <v>154</v>
+      <c r="P2" s="198" t="s">
+        <v>153</v>
       </c>
       <c r="Q2" s="134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R2" s="134"/>
       <c r="S2" s="134"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="D3" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="E3" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="F3" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="G3" s="146" t="s">
         <v>132</v>
-      </c>
-      <c r="G3" s="146" t="s">
-        <v>133</v>
       </c>
       <c r="H3" s="147"/>
       <c r="I3" s="148"/>
-      <c r="K3" s="189"/>
+      <c r="K3" s="197"/>
       <c r="L3" s="140" t="s">
         <v>33</v>
       </c>
@@ -26919,16 +27153,16 @@
       <c r="O3" s="142">
         <v>22</v>
       </c>
-      <c r="P3" s="190"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R3" s="134"/>
       <c r="S3" s="134"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="146">
         <f>LOOKUP(2,1/(价格!H:H&lt;&gt;0),价格!H:H)</f>
@@ -26956,7 +27190,7 @@
       </c>
       <c r="H4" s="149"/>
       <c r="I4" s="150"/>
-      <c r="K4" s="189"/>
+      <c r="K4" s="197"/>
       <c r="L4" s="140" t="s">
         <v>34</v>
       </c>
@@ -26970,20 +27204,20 @@
       <c r="O4" s="142">
         <v>8</v>
       </c>
-      <c r="P4" s="190"/>
+      <c r="P4" s="198"/>
       <c r="Q4" s="134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R4" s="134"/>
       <c r="S4" s="134"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="135">
         <f>LOOKUP(2,1/(价格!G:G&lt;&gt;0),价格!G:G)</f>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="156">
         <f>LOOKUP(2,1/(价格!J:J&lt;&gt;0),价格!J:J)</f>
@@ -27011,8 +27245,8 @@
       <c r="I5" s="135">
         <v>70</v>
       </c>
-      <c r="K5" s="189" t="s">
-        <v>140</v>
+      <c r="K5" s="197" t="s">
+        <v>139</v>
       </c>
       <c r="L5" s="140" t="s">
         <v>35</v>
@@ -27027,20 +27261,20 @@
       <c r="O5" s="142">
         <v>12</v>
       </c>
-      <c r="P5" s="190"/>
+      <c r="P5" s="198"/>
       <c r="Q5" s="135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R5" s="135"/>
       <c r="S5" s="135"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="135">
         <f>B2+B5</f>
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="C6" s="144">
         <f t="shared" ref="C6:I6" si="1">C2+C5</f>
@@ -27052,7 +27286,7 @@
       </c>
       <c r="E6" s="144">
         <f t="shared" si="1"/>
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="F6" s="144">
         <f t="shared" si="1"/>
@@ -27068,9 +27302,9 @@
       </c>
       <c r="I6" s="144">
         <f t="shared" si="1"/>
-        <v>1790</v>
-      </c>
-      <c r="K6" s="189"/>
+        <v>1810</v>
+      </c>
+      <c r="K6" s="197"/>
       <c r="L6" s="140" t="s">
         <v>36</v>
       </c>
@@ -27084,16 +27318,16 @@
       <c r="O6" s="142">
         <v>10</v>
       </c>
-      <c r="P6" s="190"/>
+      <c r="P6" s="198"/>
       <c r="Q6" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R6" s="135"/>
       <c r="S6" s="135"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="135">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
@@ -27127,7 +27361,7 @@
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
         <v>1770</v>
       </c>
-      <c r="K7" s="189"/>
+      <c r="K7" s="197"/>
       <c r="L7" s="140" t="s">
         <v>37</v>
       </c>
@@ -27141,22 +27375,22 @@
       <c r="O7" s="142">
         <v>12</v>
       </c>
-      <c r="P7" s="189" t="s">
-        <v>158</v>
+      <c r="P7" s="197" t="s">
+        <v>157</v>
       </c>
       <c r="Q7" s="135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R7" s="135"/>
       <c r="S7" s="135"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="136">
         <f>B7-B6</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8" s="136">
         <f t="shared" ref="C8:I8" si="2">C7-C6</f>
@@ -27168,7 +27402,7 @@
       </c>
       <c r="E8" s="136">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" s="136">
         <f t="shared" si="2"/>
@@ -27184,13 +27418,13 @@
       </c>
       <c r="I8" s="136">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="K8" s="135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L8" s="135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M8" s="167">
         <f t="shared" si="0"/>
@@ -27202,16 +27436,16 @@
       <c r="O8" s="142">
         <v>13</v>
       </c>
-      <c r="P8" s="189"/>
+      <c r="P8" s="197"/>
       <c r="Q8" s="135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R8" s="135"/>
       <c r="S8" s="135"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K9" s="189" t="s">
-        <v>143</v>
+      <c r="K9" s="197" t="s">
+        <v>142</v>
       </c>
       <c r="L9" s="140" t="s">
         <v>39</v>
@@ -27226,19 +27460,19 @@
       <c r="O9" s="142">
         <v>11</v>
       </c>
-      <c r="P9" s="189"/>
+      <c r="P9" s="197"/>
       <c r="Q9" s="135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R9" s="135"/>
       <c r="S9" s="135"/>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="132" t="s">
         <v>171</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>172</v>
       </c>
       <c r="C10" s="132" t="s">
         <v>18</v>
@@ -27247,11 +27481,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="153"/>
       <c r="G10" s="153"/>
-      <c r="K10" s="189"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="140" t="s">
         <v>40</v>
       </c>
@@ -27265,18 +27499,18 @@
       <c r="O10" s="142">
         <v>10</v>
       </c>
-      <c r="P10" s="189" t="s">
-        <v>163</v>
+      <c r="P10" s="197" t="s">
+        <v>162</v>
       </c>
       <c r="Q10" s="135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R10" s="135"/>
       <c r="S10" s="135"/>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="143">
         <v>1455</v>
@@ -27292,7 +27526,7 @@
       </c>
       <c r="F11" s="153"/>
       <c r="G11" s="153"/>
-      <c r="K11" s="189"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="140" t="s">
         <v>41</v>
       </c>
@@ -27306,16 +27540,16 @@
       <c r="O11" s="142">
         <v>9</v>
       </c>
-      <c r="P11" s="189"/>
+      <c r="P11" s="197"/>
       <c r="Q11" s="135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R11" s="135"/>
       <c r="S11" s="135"/>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="143">
         <v>100</v>
@@ -27331,8 +27565,8 @@
       </c>
       <c r="F12" s="153"/>
       <c r="G12" s="153"/>
-      <c r="K12" s="189" t="s">
-        <v>144</v>
+      <c r="K12" s="197" t="s">
+        <v>143</v>
       </c>
       <c r="L12" s="140" t="s">
         <v>42</v>
@@ -27347,16 +27581,16 @@
       <c r="O12" s="142">
         <v>9</v>
       </c>
-      <c r="P12" s="189"/>
+      <c r="P12" s="197"/>
       <c r="Q12" s="135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R12" s="135"/>
       <c r="S12" s="135"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="143">
         <f>C5</f>
@@ -27375,7 +27609,7 @@
       </c>
       <c r="F13" s="153"/>
       <c r="G13" s="153"/>
-      <c r="K13" s="189"/>
+      <c r="K13" s="197"/>
       <c r="L13" s="140" t="s">
         <v>43</v>
       </c>
@@ -27389,16 +27623,16 @@
       <c r="O13" s="142">
         <v>10</v>
       </c>
-      <c r="P13" s="189"/>
+      <c r="P13" s="197"/>
       <c r="Q13" s="135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R13" s="135"/>
       <c r="S13" s="135"/>
     </row>
     <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="143">
         <f>B11+B12+B13</f>
@@ -27418,7 +27652,7 @@
       </c>
       <c r="F14" s="153"/>
       <c r="G14" s="153"/>
-      <c r="K14" s="189"/>
+      <c r="K14" s="197"/>
       <c r="L14" s="140" t="s">
         <v>44</v>
       </c>
@@ -27432,16 +27666,16 @@
       <c r="O14" s="142">
         <v>10</v>
       </c>
-      <c r="P14" s="189"/>
+      <c r="P14" s="197"/>
       <c r="Q14" s="135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R14" s="135"/>
       <c r="S14" s="135"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="143">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
@@ -27461,7 +27695,7 @@
       </c>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
-      <c r="K15" s="189"/>
+      <c r="K15" s="197"/>
       <c r="L15" s="140" t="s">
         <v>45</v>
       </c>
@@ -27475,16 +27709,16 @@
       <c r="O15" s="142">
         <v>9</v>
       </c>
-      <c r="P15" s="189"/>
+      <c r="P15" s="197"/>
       <c r="Q15" s="135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R15" s="135"/>
       <c r="S15" s="135"/>
     </row>
     <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="136">
         <f>B15-B14</f>
@@ -27504,7 +27738,7 @@
       </c>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
-      <c r="K16" s="189"/>
+      <c r="K16" s="197"/>
       <c r="L16" s="140" t="s">
         <v>46</v>
       </c>
@@ -27518,9 +27752,9 @@
       <c r="O16" s="142">
         <v>10</v>
       </c>
-      <c r="P16" s="189"/>
+      <c r="P16" s="197"/>
       <c r="Q16" s="135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R16" s="135"/>
       <c r="S16" s="135"/>
@@ -27534,7 +27768,7 @@
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
       <c r="K17" s="135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" s="135" t="s">
         <v>47</v>
@@ -27549,11 +27783,11 @@
       <c r="O17" s="142">
         <v>8</v>
       </c>
-      <c r="P17" s="189" t="s">
-        <v>167</v>
+      <c r="P17" s="197" t="s">
+        <v>166</v>
       </c>
       <c r="Q17" s="135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R17" s="135"/>
       <c r="S17" s="135"/>
@@ -27566,45 +27800,45 @@
       <c r="E18" s="153"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
-      <c r="P18" s="189"/>
+      <c r="P18" s="197"/>
       <c r="Q18" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R18" s="135"/>
       <c r="S18" s="135"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="188"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="154"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
       <c r="E19" s="153"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
-      <c r="P19" s="189"/>
+      <c r="P19" s="197"/>
       <c r="Q19" s="135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R19" s="135"/>
       <c r="S19" s="135"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="188"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="154"/>
       <c r="C20" s="153"/>
       <c r="D20" s="153"/>
       <c r="E20" s="153"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
-      <c r="P20" s="189"/>
+      <c r="P20" s="197"/>
       <c r="Q20" s="135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R20" s="135"/>
       <c r="S20" s="135"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="188"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="154"/>
       <c r="C21" s="153"/>
       <c r="D21" s="153"/>
@@ -27613,7 +27847,7 @@
       <c r="G21" s="153"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="188"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="154"/>
       <c r="C22" s="153"/>
       <c r="D22" s="153"/>
@@ -27622,7 +27856,7 @@
       <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="188"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="154"/>
       <c r="C23" s="153"/>
       <c r="D23" s="153"/>
@@ -27631,7 +27865,7 @@
       <c r="G23" s="153"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="188"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="154"/>
       <c r="C24" s="153"/>
       <c r="D24" s="153"/>
@@ -27640,7 +27874,7 @@
       <c r="G24" s="153"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="188"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="154"/>
       <c r="C25" s="153"/>
       <c r="D25" s="153"/>
@@ -27649,7 +27883,7 @@
       <c r="G25" s="153"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="188"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="154"/>
       <c r="C26" s="153"/>
       <c r="D26" s="153"/>
@@ -27698,8 +27932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27718,41 +27952,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="200" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="193" t="s">
+      <c r="E1" s="201"/>
+      <c r="F1" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195" t="s">
+      <c r="I1" s="203"/>
+      <c r="J1" s="204" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="195"/>
-      <c r="J1" s="196" t="s">
+      <c r="K1" s="204"/>
+      <c r="L1" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="196"/>
-      <c r="L1" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="197"/>
-      <c r="N1" s="191" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="199" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="175" t="s">
         <v>5</v>
@@ -27761,7 +27995,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="176" t="s">
         <v>6</v>
@@ -27779,31 +28013,31 @@
         <v>6</v>
       </c>
       <c r="J2" s="178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="178" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M2" s="181" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="182" t="s">
+      <c r="O2" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="182" t="s">
+      <c r="P2" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="182" t="s">
+      <c r="Q2" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="182" t="s">
+      <c r="R2" s="182" t="s">
         <v>195</v>
-      </c>
-      <c r="R2" s="182" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -27879,13 +28113,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="bottomRight" activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27909,77 +28143,82 @@
     <col min="25" max="27" width="9" style="36"/>
     <col min="28" max="28" width="9" style="137"/>
     <col min="29" max="29" width="9" style="37"/>
-    <col min="30" max="31" width="9" style="127"/>
-    <col min="32" max="32" width="9" style="29"/>
-    <col min="33" max="34" width="9" style="30"/>
-    <col min="35" max="35" width="9" style="31"/>
-    <col min="36" max="36" width="9" style="32"/>
-    <col min="37" max="38" width="9" style="33"/>
-    <col min="39" max="39" width="9" style="34"/>
-    <col min="40" max="16384" width="9" style="100"/>
+    <col min="30" max="30" width="9" style="127"/>
+    <col min="31" max="31" width="9" style="188"/>
+    <col min="32" max="32" width="9" style="192"/>
+    <col min="33" max="33" width="9" style="251"/>
+    <col min="34" max="35" width="9" style="252"/>
+    <col min="36" max="36" width="9" style="29"/>
+    <col min="37" max="38" width="9" style="30"/>
+    <col min="39" max="39" width="9" style="31"/>
+    <col min="40" max="40" width="9" style="32"/>
+    <col min="41" max="42" width="9" style="33"/>
+    <col min="43" max="43" width="9" style="34"/>
+    <col min="44" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A1" s="210"/>
-      <c r="B1" s="217" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A1" s="218"/>
+      <c r="B1" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="211" t="s">
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="214" t="s">
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="204" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="207" t="s">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="220" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="221"/>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="223" t="s">
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="198" t="s">
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="232"/>
+      <c r="AJ1" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="201" t="s">
+      <c r="AK1" s="207"/>
+      <c r="AL1" s="207"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A2" s="210"/>
+      <c r="AO1" s="210"/>
+      <c r="AP1" s="210"/>
+      <c r="AQ1" s="211"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A2" s="218"/>
       <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
@@ -28059,43 +28298,55 @@
         <v>4</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC2" s="28" t="s">
         <v>51</v>
       </c>
       <c r="AD2" s="95" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="AE2" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF2" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="253" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH2" s="254" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI2" s="254" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AN2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AK2" s="51" t="s">
+      <c r="AO2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AP2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="52" t="s">
+      <c r="AQ2" s="52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59">
         <v>42722</v>
       </c>
@@ -28173,16 +28424,20 @@
       <c r="AC3" s="58"/>
       <c r="AD3" s="96"/>
       <c r="AE3" s="96"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="106"/>
-    </row>
-    <row r="4" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="255"/>
+      <c r="AH3" s="256"/>
+      <c r="AI3" s="256"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="106"/>
+    </row>
+    <row r="4" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59">
         <v>42729</v>
       </c>
@@ -28272,16 +28527,20 @@
       <c r="AC4" s="79"/>
       <c r="AD4" s="97"/>
       <c r="AE4" s="97"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="106"/>
-    </row>
-    <row r="5" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AF4" s="191"/>
+      <c r="AG4" s="257"/>
+      <c r="AH4" s="258"/>
+      <c r="AI4" s="258"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="106"/>
+    </row>
+    <row r="5" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="59">
         <v>42736</v>
       </c>
@@ -28370,16 +28629,20 @@
       <c r="AC5" s="79"/>
       <c r="AD5" s="97"/>
       <c r="AE5" s="97"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="106"/>
-    </row>
-    <row r="6" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="257"/>
+      <c r="AH5" s="258"/>
+      <c r="AI5" s="258"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="106"/>
+    </row>
+    <row r="6" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="59">
         <v>42743</v>
       </c>
@@ -28460,16 +28723,20 @@
       <c r="AC6" s="79"/>
       <c r="AD6" s="97"/>
       <c r="AE6" s="97"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="106"/>
-    </row>
-    <row r="7" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="257"/>
+      <c r="AH6" s="258"/>
+      <c r="AI6" s="258"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="106"/>
+    </row>
+    <row r="7" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="59">
         <v>42750</v>
       </c>
@@ -28558,16 +28825,20 @@
       <c r="AC7" s="79"/>
       <c r="AD7" s="97"/>
       <c r="AE7" s="97"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="104"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="106"/>
-    </row>
-    <row r="8" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AF7" s="191"/>
+      <c r="AG7" s="257"/>
+      <c r="AH7" s="258"/>
+      <c r="AI7" s="258"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="106"/>
+    </row>
+    <row r="8" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="59">
         <v>42772</v>
       </c>
@@ -28664,20 +28935,30 @@
       <c r="AD8" s="97">
         <v>180</v>
       </c>
-      <c r="AE8" s="97">
-        <f t="shared" ref="AE8:AE74" si="6">AC8-AD8-F8</f>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="191">
+        <f t="shared" ref="AF8:AF71" si="6">AC8-AD8-F8-AE8</f>
         <v>20</v>
       </c>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="106"/>
-    </row>
-    <row r="9" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="257">
+        <v>1690</v>
+      </c>
+      <c r="AH8" s="258">
+        <v>1620</v>
+      </c>
+      <c r="AI8" s="258">
+        <v>1540</v>
+      </c>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="106"/>
+    </row>
+    <row r="9" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="59">
         <v>42779</v>
       </c>
@@ -28774,20 +29055,30 @@
       <c r="AD9" s="97">
         <v>180</v>
       </c>
-      <c r="AE9" s="97">
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="106"/>
-    </row>
-    <row r="10" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG9" s="257">
+        <v>1717</v>
+      </c>
+      <c r="AH9" s="258">
+        <v>1620</v>
+      </c>
+      <c r="AI9" s="258">
+        <v>1540</v>
+      </c>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="106"/>
+    </row>
+    <row r="10" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="59">
         <v>42786</v>
       </c>
@@ -28884,20 +29175,30 @@
       <c r="AD10" s="97">
         <v>180</v>
       </c>
-      <c r="AE10" s="97">
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="106"/>
-    </row>
-    <row r="11" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="257">
+        <v>1697</v>
+      </c>
+      <c r="AH10" s="258">
+        <v>1620</v>
+      </c>
+      <c r="AI10" s="258">
+        <v>1540</v>
+      </c>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="106"/>
+    </row>
+    <row r="11" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="59">
         <v>42797</v>
       </c>
@@ -28994,20 +29295,30 @@
       <c r="AD11" s="97">
         <v>160</v>
       </c>
-      <c r="AE11" s="97">
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="101"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="106"/>
-    </row>
-    <row r="12" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG11" s="257">
+        <v>1735</v>
+      </c>
+      <c r="AH11" s="258">
+        <v>1650</v>
+      </c>
+      <c r="AI11" s="258">
+        <v>1550</v>
+      </c>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="106"/>
+    </row>
+    <row r="12" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="59">
         <v>42808</v>
       </c>
@@ -29104,20 +29415,30 @@
       <c r="AD12" s="97">
         <v>180</v>
       </c>
-      <c r="AE12" s="97">
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="191">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="106"/>
-    </row>
-    <row r="13" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG12" s="257">
+        <v>1688</v>
+      </c>
+      <c r="AH12" s="258">
+        <v>1650</v>
+      </c>
+      <c r="AI12" s="258">
+        <v>1550</v>
+      </c>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="106"/>
+    </row>
+    <row r="13" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="59">
         <v>42821</v>
       </c>
@@ -29214,22 +29535,32 @@
       <c r="AD13" s="97">
         <v>170</v>
       </c>
-      <c r="AE13" s="97">
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="106"/>
-    </row>
-    <row r="14" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG13" s="257">
+        <v>1682</v>
+      </c>
+      <c r="AH13" s="258">
+        <v>1670</v>
+      </c>
+      <c r="AI13" s="258">
+        <v>1570</v>
+      </c>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="106"/>
+    </row>
+    <row r="14" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="59">
-        <v>42835</v>
+        <v>42832</v>
       </c>
       <c r="B14" s="60">
         <v>124</v>
@@ -29324,20 +29655,30 @@
       <c r="AD14" s="97">
         <v>170</v>
       </c>
-      <c r="AE14" s="97">
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="191">
         <f t="shared" si="6"/>
         <v>-60</v>
       </c>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="106"/>
-    </row>
-    <row r="15" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG14" s="257">
+        <v>1702</v>
+      </c>
+      <c r="AH14" s="258">
+        <v>1670</v>
+      </c>
+      <c r="AI14" s="258">
+        <v>1570</v>
+      </c>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="106"/>
+    </row>
+    <row r="15" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="59">
         <v>42839</v>
       </c>
@@ -29434,20 +29775,30 @@
       <c r="AD15" s="97">
         <v>170</v>
       </c>
-      <c r="AE15" s="97">
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="106"/>
-    </row>
-    <row r="16" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG15" s="257">
+        <v>1742</v>
+      </c>
+      <c r="AH15" s="258">
+        <v>1670</v>
+      </c>
+      <c r="AI15" s="258">
+        <v>1570</v>
+      </c>
+      <c r="AJ15" s="101"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="106"/>
+    </row>
+    <row r="16" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="59">
         <v>42846</v>
       </c>
@@ -29544,20 +29895,30 @@
       <c r="AD16" s="97">
         <v>150</v>
       </c>
-      <c r="AE16" s="97">
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
-      <c r="AM16" s="106"/>
-    </row>
-    <row r="17" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG16" s="257">
+        <v>1702</v>
+      </c>
+      <c r="AH16" s="258">
+        <v>1690</v>
+      </c>
+      <c r="AI16" s="258">
+        <v>1580</v>
+      </c>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="106"/>
+    </row>
+    <row r="17" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="59">
         <v>42853</v>
       </c>
@@ -29654,20 +30015,30 @@
       <c r="AD17" s="97">
         <v>150</v>
       </c>
-      <c r="AE17" s="97">
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="106"/>
-    </row>
-    <row r="18" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG17" s="257">
+        <v>1721</v>
+      </c>
+      <c r="AH17" s="258">
+        <v>1690</v>
+      </c>
+      <c r="AI17" s="258">
+        <v>1590</v>
+      </c>
+      <c r="AJ17" s="101"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="106"/>
+    </row>
+    <row r="18" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="59">
         <v>42860</v>
       </c>
@@ -29764,20 +30135,30 @@
       <c r="AD18" s="97">
         <v>150</v>
       </c>
-      <c r="AE18" s="97">
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="191">
         <f t="shared" si="6"/>
         <v>-15</v>
       </c>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="106"/>
-    </row>
-    <row r="19" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG18" s="257">
+        <v>1711</v>
+      </c>
+      <c r="AH18" s="258">
+        <v>1690</v>
+      </c>
+      <c r="AI18" s="258">
+        <v>1590</v>
+      </c>
+      <c r="AJ18" s="101"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="106"/>
+    </row>
+    <row r="19" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="59">
         <v>42867</v>
       </c>
@@ -29874,20 +30255,30 @@
       <c r="AD19" s="97">
         <v>140</v>
       </c>
-      <c r="AE19" s="97">
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="102"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="106"/>
-    </row>
-    <row r="20" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG19" s="257">
+        <v>1728</v>
+      </c>
+      <c r="AH19" s="258">
+        <v>1700</v>
+      </c>
+      <c r="AI19" s="258">
+        <v>1600</v>
+      </c>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="106"/>
+    </row>
+    <row r="20" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="59">
         <v>42874</v>
       </c>
@@ -29984,20 +30375,30 @@
       <c r="AD20" s="97">
         <v>140</v>
       </c>
-      <c r="AE20" s="97">
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="191">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="102"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="106"/>
-    </row>
-    <row r="21" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG20" s="257">
+        <v>1715</v>
+      </c>
+      <c r="AH20" s="258">
+        <v>1760</v>
+      </c>
+      <c r="AI20" s="258">
+        <v>1640</v>
+      </c>
+      <c r="AJ20" s="101"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="106"/>
+    </row>
+    <row r="21" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="59">
         <v>42881</v>
       </c>
@@ -30094,20 +30495,30 @@
       <c r="AD21" s="97">
         <v>140</v>
       </c>
-      <c r="AE21" s="97">
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
-      <c r="AM21" s="106"/>
-    </row>
-    <row r="22" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG21" s="257">
+        <v>1722</v>
+      </c>
+      <c r="AH21" s="258">
+        <v>1760</v>
+      </c>
+      <c r="AI21" s="258">
+        <v>1630</v>
+      </c>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="102"/>
+      <c r="AL21" s="102"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="106"/>
+    </row>
+    <row r="22" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="59">
         <v>42888</v>
       </c>
@@ -30204,20 +30615,30 @@
       <c r="AD22" s="97">
         <v>140</v>
       </c>
-      <c r="AE22" s="97">
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="191">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="105"/>
-      <c r="AM22" s="106"/>
-    </row>
-    <row r="23" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG22" s="257">
+        <v>1712</v>
+      </c>
+      <c r="AH22" s="258">
+        <v>1750</v>
+      </c>
+      <c r="AI22" s="258">
+        <v>1630</v>
+      </c>
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="102"/>
+      <c r="AL22" s="102"/>
+      <c r="AM22" s="103"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="106"/>
+    </row>
+    <row r="23" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="59">
         <v>42895</v>
       </c>
@@ -30314,20 +30735,30 @@
       <c r="AD23" s="97">
         <v>140</v>
       </c>
-      <c r="AE23" s="97">
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="191">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="102"/>
-      <c r="AH23" s="102"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="105"/>
-      <c r="AM23" s="106"/>
-    </row>
-    <row r="24" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG23" s="257">
+        <v>1756</v>
+      </c>
+      <c r="AH23" s="258">
+        <v>1750</v>
+      </c>
+      <c r="AI23" s="258">
+        <v>1620</v>
+      </c>
+      <c r="AJ23" s="101"/>
+      <c r="AK23" s="102"/>
+      <c r="AL23" s="102"/>
+      <c r="AM23" s="103"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="106"/>
+    </row>
+    <row r="24" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="59">
         <v>42902</v>
       </c>
@@ -30424,20 +30855,30 @@
       <c r="AD24" s="97">
         <v>140</v>
       </c>
-      <c r="AE24" s="97">
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="191">
         <f t="shared" si="6"/>
         <v>-60</v>
       </c>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="104"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="105"/>
-      <c r="AM24" s="106"/>
-    </row>
-    <row r="25" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG24" s="257">
+        <v>1734</v>
+      </c>
+      <c r="AH24" s="258">
+        <v>1750</v>
+      </c>
+      <c r="AI24" s="258">
+        <v>1610</v>
+      </c>
+      <c r="AJ24" s="101"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="103"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="106"/>
+    </row>
+    <row r="25" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="59">
         <v>42909</v>
       </c>
@@ -30534,20 +30975,30 @@
       <c r="AD25" s="97">
         <v>140</v>
       </c>
-      <c r="AE25" s="97">
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="191">
         <f t="shared" si="6"/>
         <v>-70</v>
       </c>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="104"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="106"/>
-    </row>
-    <row r="26" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG25" s="257">
+        <v>1707</v>
+      </c>
+      <c r="AH25" s="258">
+        <v>1720</v>
+      </c>
+      <c r="AI25" s="258">
+        <v>1610</v>
+      </c>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="102"/>
+      <c r="AM25" s="103"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="106"/>
+    </row>
+    <row r="26" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="59">
         <v>42916</v>
       </c>
@@ -30644,20 +31095,30 @@
       <c r="AD26" s="97">
         <v>140</v>
       </c>
-      <c r="AE26" s="97">
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="104"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="106"/>
-    </row>
-    <row r="27" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG26" s="257">
+        <v>1692</v>
+      </c>
+      <c r="AH26" s="258">
+        <v>1740</v>
+      </c>
+      <c r="AI26" s="258">
+        <v>1640</v>
+      </c>
+      <c r="AJ26" s="101"/>
+      <c r="AK26" s="102"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="106"/>
+    </row>
+    <row r="27" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="59">
         <v>42923</v>
       </c>
@@ -30754,20 +31215,30 @@
       <c r="AD27" s="97">
         <v>140</v>
       </c>
-      <c r="AE27" s="97">
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="102"/>
-      <c r="AH27" s="102"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="106"/>
-    </row>
-    <row r="28" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG27" s="257">
+        <v>1771</v>
+      </c>
+      <c r="AH27" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI27" s="258">
+        <v>1670</v>
+      </c>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="106"/>
+    </row>
+    <row r="28" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="59">
         <v>42930</v>
       </c>
@@ -30864,20 +31335,30 @@
       <c r="AD28" s="97">
         <v>150</v>
       </c>
-      <c r="AE28" s="97">
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="102"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
-      <c r="AM28" s="106"/>
-    </row>
-    <row r="29" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG28" s="257">
+        <v>1717</v>
+      </c>
+      <c r="AH28" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI28" s="258">
+        <v>1720</v>
+      </c>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="102"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="103"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="106"/>
+    </row>
+    <row r="29" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="59">
         <v>42937</v>
       </c>
@@ -30974,20 +31455,30 @@
       <c r="AD29" s="97">
         <v>150</v>
       </c>
-      <c r="AE29" s="97">
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="102"/>
-      <c r="AH29" s="102"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="104"/>
-      <c r="AK29" s="105"/>
-      <c r="AL29" s="105"/>
-      <c r="AM29" s="106"/>
-    </row>
-    <row r="30" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG29" s="257">
+        <v>1760</v>
+      </c>
+      <c r="AH29" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI29" s="258">
+        <v>1740</v>
+      </c>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="106"/>
+    </row>
+    <row r="30" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="59">
         <v>42944</v>
       </c>
@@ -31084,20 +31575,30 @@
       <c r="AD30" s="97">
         <v>150</v>
       </c>
-      <c r="AE30" s="97">
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="102"/>
-      <c r="AH30" s="102"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="105"/>
-      <c r="AL30" s="105"/>
-      <c r="AM30" s="106"/>
-    </row>
-    <row r="31" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG30" s="257">
+        <v>1709</v>
+      </c>
+      <c r="AH30" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI30" s="258">
+        <v>1760</v>
+      </c>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="103"/>
+      <c r="AN30" s="104"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="106"/>
+    </row>
+    <row r="31" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="59">
         <v>42951</v>
       </c>
@@ -31194,28 +31695,38 @@
       <c r="AD31" s="97">
         <v>150</v>
       </c>
-      <c r="AE31" s="97">
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="191">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="AF31" s="101">
+      <c r="AG31" s="257">
+        <v>1670</v>
+      </c>
+      <c r="AH31" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI31" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ31" s="101">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AG31" s="102">
+      <c r="AK31" s="102">
         <v>6.7</v>
       </c>
-      <c r="AH31" s="102">
+      <c r="AL31" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI31" s="103">
+      <c r="AM31" s="103">
         <v>13.3</v>
       </c>
-      <c r="AJ31" s="104"/>
-      <c r="AK31" s="105"/>
-      <c r="AL31" s="105"/>
-      <c r="AM31" s="106"/>
-    </row>
-    <row r="32" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="106"/>
+    </row>
+    <row r="32" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="59">
         <v>42958</v>
       </c>
@@ -31312,28 +31823,38 @@
       <c r="AD32" s="97">
         <v>150</v>
       </c>
-      <c r="AE32" s="97">
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="191">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="AF32" s="101">
+      <c r="AG32" s="257">
+        <v>1625</v>
+      </c>
+      <c r="AH32" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI32" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AJ32" s="101">
         <v>13.3</v>
       </c>
-      <c r="AG32" s="102">
+      <c r="AK32" s="102">
         <v>0</v>
       </c>
-      <c r="AH32" s="102">
+      <c r="AL32" s="102">
         <v>4.8</v>
       </c>
-      <c r="AI32" s="103">
+      <c r="AM32" s="103">
         <v>8.5</v>
       </c>
-      <c r="AJ32" s="104"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="106"/>
-    </row>
-    <row r="33" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="106"/>
+    </row>
+    <row r="33" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="59">
         <v>42965</v>
       </c>
@@ -31430,28 +31951,38 @@
       <c r="AD33" s="97">
         <v>150</v>
       </c>
-      <c r="AE33" s="97">
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF33" s="101">
+      <c r="AG33" s="257">
+        <v>1607</v>
+      </c>
+      <c r="AH33" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI33" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ33" s="101">
         <v>8.5</v>
       </c>
-      <c r="AG33" s="102">
+      <c r="AK33" s="102">
         <v>1.3</v>
       </c>
-      <c r="AH33" s="102">
+      <c r="AL33" s="102">
         <v>2.8</v>
       </c>
-      <c r="AI33" s="103">
+      <c r="AM33" s="103">
         <v>7</v>
       </c>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="106"/>
-    </row>
-    <row r="34" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="106"/>
+    </row>
+    <row r="34" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59">
         <v>42972</v>
       </c>
@@ -31548,28 +32079,38 @@
       <c r="AD34" s="97">
         <v>150</v>
       </c>
-      <c r="AE34" s="97">
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="101">
+      <c r="AG34" s="257">
+        <v>1643</v>
+      </c>
+      <c r="AH34" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI34" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ34" s="101">
         <v>7</v>
       </c>
-      <c r="AG34" s="102">
+      <c r="AK34" s="102">
         <v>0</v>
       </c>
-      <c r="AH34" s="102">
+      <c r="AL34" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI34" s="103">
+      <c r="AM34" s="103">
         <v>5.3</v>
       </c>
-      <c r="AJ34" s="104"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="106"/>
-    </row>
-    <row r="35" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="106"/>
+    </row>
+    <row r="35" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59">
         <v>42979</v>
       </c>
@@ -31666,28 +32207,38 @@
       <c r="AD35" s="97">
         <v>150</v>
       </c>
-      <c r="AE35" s="97">
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="191">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="AF35" s="101">
+      <c r="AG35" s="257">
+        <v>1631</v>
+      </c>
+      <c r="AH35" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AI35" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ35" s="101">
         <v>5.3</v>
       </c>
-      <c r="AG35" s="102">
+      <c r="AK35" s="102">
         <v>3.2</v>
       </c>
-      <c r="AH35" s="102">
+      <c r="AL35" s="102">
         <v>1.5</v>
       </c>
-      <c r="AI35" s="103">
+      <c r="AM35" s="103">
         <v>7</v>
       </c>
-      <c r="AJ35" s="104"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="106"/>
-    </row>
-    <row r="36" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="106"/>
+    </row>
+    <row r="36" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59">
         <v>42986</v>
       </c>
@@ -31784,28 +32335,38 @@
       <c r="AD36" s="97">
         <v>150</v>
       </c>
-      <c r="AE36" s="97">
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF36" s="101">
+      <c r="AG36" s="257">
+        <v>1604</v>
+      </c>
+      <c r="AH36" s="258">
+        <v>1800</v>
+      </c>
+      <c r="AI36" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ36" s="101">
         <v>7</v>
       </c>
-      <c r="AG36" s="102">
+      <c r="AK36" s="102">
         <v>1.3</v>
       </c>
-      <c r="AH36" s="102">
+      <c r="AL36" s="102">
         <v>0.5</v>
       </c>
-      <c r="AI36" s="103">
+      <c r="AM36" s="103">
         <v>7.8</v>
       </c>
-      <c r="AJ36" s="104"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="106"/>
-    </row>
-    <row r="37" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="106"/>
+    </row>
+    <row r="37" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="59">
         <v>42993</v>
       </c>
@@ -31902,28 +32463,38 @@
       <c r="AD37" s="97">
         <v>150</v>
       </c>
-      <c r="AE37" s="97">
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF37" s="101">
+      <c r="AG37" s="257">
+        <v>1611</v>
+      </c>
+      <c r="AH37" s="258">
+        <v>1800</v>
+      </c>
+      <c r="AI37" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ37" s="101">
         <v>7.8</v>
       </c>
-      <c r="AG37" s="102">
+      <c r="AK37" s="102">
         <v>2</v>
       </c>
-      <c r="AH37" s="102">
+      <c r="AL37" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI37" s="103">
+      <c r="AM37" s="103">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AJ37" s="104"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="106"/>
-    </row>
-    <row r="38" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN37" s="104"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="106"/>
+    </row>
+    <row r="38" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="59">
         <v>43000</v>
       </c>
@@ -32020,28 +32591,38 @@
       <c r="AD38" s="97">
         <v>150</v>
       </c>
-      <c r="AE38" s="97">
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="191">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="AF38" s="101">
+      <c r="AG38" s="257">
+        <v>1616</v>
+      </c>
+      <c r="AH38" s="258">
+        <v>1800</v>
+      </c>
+      <c r="AI38" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ38" s="101">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AG38" s="102">
+      <c r="AK38" s="102">
         <v>3</v>
       </c>
-      <c r="AH38" s="102">
+      <c r="AL38" s="102">
         <v>2.5</v>
       </c>
-      <c r="AI38" s="103">
+      <c r="AM38" s="103">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AJ38" s="104"/>
-      <c r="AK38" s="105"/>
-      <c r="AL38" s="105"/>
-      <c r="AM38" s="106"/>
-    </row>
-    <row r="39" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN38" s="104"/>
+      <c r="AO38" s="105"/>
+      <c r="AP38" s="105"/>
+      <c r="AQ38" s="106"/>
+    </row>
+    <row r="39" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="59">
         <v>43021</v>
       </c>
@@ -32138,28 +32719,38 @@
       <c r="AD39" s="97">
         <v>150</v>
       </c>
-      <c r="AE39" s="97">
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="191">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="AF39" s="101">
+      <c r="AG39" s="257">
+        <v>1612</v>
+      </c>
+      <c r="AH39" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AI39" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ39" s="101">
         <v>6.5</v>
       </c>
-      <c r="AG39" s="102">
+      <c r="AK39" s="102">
         <v>0.5</v>
       </c>
-      <c r="AH39" s="102">
+      <c r="AL39" s="102">
         <v>2.4</v>
       </c>
-      <c r="AI39" s="103">
+      <c r="AM39" s="103">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ39" s="104"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
-      <c r="AM39" s="106"/>
-    </row>
-    <row r="40" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN39" s="104"/>
+      <c r="AO39" s="105"/>
+      <c r="AP39" s="105"/>
+      <c r="AQ39" s="106"/>
+    </row>
+    <row r="40" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="59">
         <v>43028</v>
       </c>
@@ -32256,28 +32847,38 @@
       <c r="AD40" s="97">
         <v>150</v>
       </c>
-      <c r="AE40" s="97">
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="191">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="AF40" s="101">
+      <c r="AG40" s="257">
+        <v>1633</v>
+      </c>
+      <c r="AH40" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AI40" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ40" s="101">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AG40" s="102">
+      <c r="AK40" s="102">
         <v>1.6</v>
       </c>
-      <c r="AH40" s="102">
+      <c r="AL40" s="102">
         <v>2.5</v>
       </c>
-      <c r="AI40" s="103">
+      <c r="AM40" s="103">
         <v>3.7</v>
       </c>
-      <c r="AJ40" s="104"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="105"/>
-      <c r="AM40" s="106"/>
-    </row>
-    <row r="41" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN40" s="104"/>
+      <c r="AO40" s="105"/>
+      <c r="AP40" s="105"/>
+      <c r="AQ40" s="106"/>
+    </row>
+    <row r="41" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="59">
         <v>43035</v>
       </c>
@@ -32374,28 +32975,38 @@
       <c r="AD41" s="97">
         <v>160</v>
       </c>
-      <c r="AE41" s="97">
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="191">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="AF41" s="101">
+      <c r="AG41" s="257">
+        <v>1654</v>
+      </c>
+      <c r="AH41" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AI41" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ41" s="101">
         <v>3.7</v>
       </c>
-      <c r="AG41" s="102">
+      <c r="AK41" s="102">
         <v>0</v>
       </c>
-      <c r="AH41" s="102">
+      <c r="AL41" s="102">
         <v>2.1</v>
       </c>
-      <c r="AI41" s="103">
+      <c r="AM41" s="103">
         <v>1.6</v>
       </c>
-      <c r="AJ41" s="104"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
-      <c r="AM41" s="106"/>
-    </row>
-    <row r="42" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN41" s="104"/>
+      <c r="AO41" s="105"/>
+      <c r="AP41" s="105"/>
+      <c r="AQ41" s="106"/>
+    </row>
+    <row r="42" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="59">
         <v>43042</v>
       </c>
@@ -32492,28 +33103,38 @@
       <c r="AD42" s="97">
         <v>160</v>
       </c>
-      <c r="AE42" s="97">
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="191">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="AF42" s="101">
+      <c r="AG42" s="257">
+        <v>1644</v>
+      </c>
+      <c r="AH42" s="258">
+        <v>1800</v>
+      </c>
+      <c r="AI42" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ42" s="101">
         <v>1.6</v>
       </c>
-      <c r="AG42" s="102">
+      <c r="AK42" s="102">
         <v>4.2</v>
       </c>
-      <c r="AH42" s="102">
+      <c r="AL42" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI42" s="103">
+      <c r="AM42" s="103">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AJ42" s="104"/>
-      <c r="AK42" s="105"/>
-      <c r="AL42" s="105"/>
-      <c r="AM42" s="106"/>
-    </row>
-    <row r="43" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="105"/>
+      <c r="AP42" s="105"/>
+      <c r="AQ42" s="106"/>
+    </row>
+    <row r="43" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="59">
         <v>43049</v>
       </c>
@@ -32610,28 +33231,38 @@
       <c r="AD43" s="97">
         <v>160</v>
       </c>
-      <c r="AE43" s="97">
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="191">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AF43" s="101">
+      <c r="AG43" s="257">
+        <v>1623</v>
+      </c>
+      <c r="AH43" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AI43" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ43" s="101">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AG43" s="102">
+      <c r="AK43" s="102">
         <v>1.3</v>
       </c>
-      <c r="AH43" s="102">
+      <c r="AL43" s="102">
         <v>3.7</v>
       </c>
-      <c r="AI43" s="103">
+      <c r="AM43" s="103">
         <v>1.7</v>
       </c>
-      <c r="AJ43" s="104"/>
-      <c r="AK43" s="105"/>
-      <c r="AL43" s="105"/>
-      <c r="AM43" s="106"/>
-    </row>
-    <row r="44" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="105"/>
+      <c r="AP43" s="105"/>
+      <c r="AQ43" s="106"/>
+    </row>
+    <row r="44" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="59">
         <v>43056</v>
       </c>
@@ -32728,28 +33359,38 @@
       <c r="AD44" s="97">
         <v>170</v>
       </c>
-      <c r="AE44" s="97">
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="191">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AF44" s="101">
+      <c r="AG44" s="257">
+        <v>1569</v>
+      </c>
+      <c r="AH44" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AI44" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ44" s="101">
         <v>1.7</v>
       </c>
-      <c r="AG44" s="102">
+      <c r="AK44" s="102">
         <v>10.5</v>
       </c>
-      <c r="AH44" s="102">
+      <c r="AL44" s="102">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI44" s="103">
+      <c r="AM44" s="103">
         <v>7.6</v>
       </c>
-      <c r="AJ44" s="104"/>
-      <c r="AK44" s="105"/>
-      <c r="AL44" s="105"/>
-      <c r="AM44" s="106"/>
-    </row>
-    <row r="45" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN44" s="104"/>
+      <c r="AO44" s="105"/>
+      <c r="AP44" s="105"/>
+      <c r="AQ44" s="106"/>
+    </row>
+    <row r="45" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="59">
         <v>43063</v>
       </c>
@@ -32846,28 +33487,38 @@
       <c r="AD45" s="97">
         <v>170</v>
       </c>
-      <c r="AE45" s="97">
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="191">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AF45" s="101">
+      <c r="AG45" s="257">
+        <v>1589</v>
+      </c>
+      <c r="AH45" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AI45" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ45" s="101">
         <v>7.6</v>
       </c>
-      <c r="AG45" s="102">
+      <c r="AK45" s="102">
         <v>7.5</v>
       </c>
-      <c r="AH45" s="102">
+      <c r="AL45" s="102">
         <v>5.8</v>
       </c>
-      <c r="AI45" s="103">
+      <c r="AM45" s="103">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AJ45" s="104"/>
-      <c r="AK45" s="105"/>
-      <c r="AL45" s="105"/>
-      <c r="AM45" s="106"/>
-    </row>
-    <row r="46" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="105"/>
+      <c r="AP45" s="105"/>
+      <c r="AQ45" s="106"/>
+    </row>
+    <row r="46" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="59">
         <v>43070</v>
       </c>
@@ -32964,28 +33615,38 @@
       <c r="AD46" s="97">
         <v>170</v>
       </c>
-      <c r="AE46" s="97">
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="191">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="AF46" s="101">
+      <c r="AG46" s="257">
+        <v>1565</v>
+      </c>
+      <c r="AH46" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AI46" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ46" s="101">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AG46" s="102">
+      <c r="AK46" s="102">
         <v>1.4</v>
       </c>
-      <c r="AH46" s="102">
+      <c r="AL46" s="102">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI46" s="103">
+      <c r="AM46" s="103">
         <v>6.6</v>
       </c>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="105"/>
-      <c r="AL46" s="105"/>
-      <c r="AM46" s="106"/>
-    </row>
-    <row r="47" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="105"/>
+      <c r="AP46" s="105"/>
+      <c r="AQ46" s="106"/>
+    </row>
+    <row r="47" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="59">
         <v>43077</v>
       </c>
@@ -33082,28 +33743,38 @@
       <c r="AD47" s="97">
         <v>170</v>
       </c>
-      <c r="AE47" s="97">
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="101">
+      <c r="AG47" s="257">
+        <v>1590</v>
+      </c>
+      <c r="AH47" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AI47" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ47" s="101">
         <v>6.6</v>
       </c>
-      <c r="AG47" s="102">
+      <c r="AK47" s="102">
         <v>5.2</v>
       </c>
-      <c r="AH47" s="102">
+      <c r="AL47" s="102">
         <v>3.3</v>
       </c>
-      <c r="AI47" s="103">
+      <c r="AM47" s="103">
         <v>8.5</v>
       </c>
-      <c r="AJ47" s="104"/>
-      <c r="AK47" s="105"/>
-      <c r="AL47" s="105"/>
-      <c r="AM47" s="106"/>
-    </row>
-    <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN47" s="104"/>
+      <c r="AO47" s="105"/>
+      <c r="AP47" s="105"/>
+      <c r="AQ47" s="106"/>
+    </row>
+    <row r="48" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="59">
         <v>43084</v>
       </c>
@@ -33200,28 +33871,38 @@
       <c r="AD48" s="97">
         <v>180</v>
       </c>
-      <c r="AE48" s="97">
+      <c r="AE48" s="97"/>
+      <c r="AF48" s="191">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="AF48" s="101">
+      <c r="AG48" s="257">
+        <v>1578</v>
+      </c>
+      <c r="AH48" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AI48" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ48" s="101">
         <v>8.5</v>
       </c>
-      <c r="AG48" s="102">
+      <c r="AK48" s="102">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH48" s="102">
+      <c r="AL48" s="102">
         <v>6.2</v>
       </c>
-      <c r="AI48" s="103">
+      <c r="AM48" s="103">
         <v>7.4</v>
       </c>
-      <c r="AJ48" s="104"/>
-      <c r="AK48" s="105"/>
-      <c r="AL48" s="105"/>
-      <c r="AM48" s="106"/>
-    </row>
-    <row r="49" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN48" s="104"/>
+      <c r="AO48" s="105"/>
+      <c r="AP48" s="105"/>
+      <c r="AQ48" s="106"/>
+    </row>
+    <row r="49" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="59">
         <v>43091</v>
       </c>
@@ -33318,28 +33999,38 @@
       <c r="AD49" s="97">
         <v>180</v>
       </c>
-      <c r="AE49" s="97">
+      <c r="AE49" s="97"/>
+      <c r="AF49" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF49" s="101">
+      <c r="AG49" s="257">
+        <v>1594</v>
+      </c>
+      <c r="AH49" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AI49" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ49" s="101">
         <v>7.4</v>
       </c>
-      <c r="AG49" s="102">
+      <c r="AK49" s="102">
         <v>6.7</v>
       </c>
-      <c r="AH49" s="102">
+      <c r="AL49" s="102">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI49" s="103">
+      <c r="AM49" s="103">
         <v>9.5</v>
       </c>
-      <c r="AJ49" s="104"/>
-      <c r="AK49" s="105"/>
-      <c r="AL49" s="105"/>
-      <c r="AM49" s="106"/>
-    </row>
-    <row r="50" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN49" s="104"/>
+      <c r="AO49" s="105"/>
+      <c r="AP49" s="105"/>
+      <c r="AQ49" s="106"/>
+    </row>
+    <row r="50" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="59">
         <v>43098</v>
       </c>
@@ -33436,28 +34127,38 @@
       <c r="AD50" s="97">
         <v>180</v>
       </c>
-      <c r="AE50" s="97">
+      <c r="AE50" s="97"/>
+      <c r="AF50" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF50" s="101">
+      <c r="AG50" s="257">
+        <v>1586</v>
+      </c>
+      <c r="AH50" s="258">
+        <v>1870</v>
+      </c>
+      <c r="AI50" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ50" s="101">
         <v>9.5</v>
       </c>
-      <c r="AG50" s="102">
+      <c r="AK50" s="102">
         <v>6.8</v>
       </c>
-      <c r="AH50" s="102">
+      <c r="AL50" s="102">
         <v>5.5</v>
       </c>
-      <c r="AI50" s="103">
+      <c r="AM50" s="103">
         <v>10.8</v>
       </c>
-      <c r="AJ50" s="104"/>
-      <c r="AK50" s="105"/>
-      <c r="AL50" s="105"/>
-      <c r="AM50" s="106"/>
-    </row>
-    <row r="51" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN50" s="104"/>
+      <c r="AO50" s="105"/>
+      <c r="AP50" s="105"/>
+      <c r="AQ50" s="106"/>
+    </row>
+    <row r="51" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="59">
         <v>43105</v>
       </c>
@@ -33554,28 +34255,38 @@
       <c r="AD51" s="97">
         <v>170</v>
       </c>
-      <c r="AE51" s="97">
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="191">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="AF51" s="101">
+      <c r="AG51" s="257">
+        <v>1573</v>
+      </c>
+      <c r="AH51" s="258">
+        <v>1880</v>
+      </c>
+      <c r="AI51" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ51" s="101">
         <v>10.8</v>
       </c>
-      <c r="AG51" s="102">
+      <c r="AK51" s="102">
         <v>6.5</v>
       </c>
-      <c r="AH51" s="102">
+      <c r="AL51" s="102">
         <v>3.9</v>
       </c>
-      <c r="AI51" s="103">
+      <c r="AM51" s="103">
         <v>13.4</v>
       </c>
-      <c r="AJ51" s="104"/>
-      <c r="AK51" s="105"/>
-      <c r="AL51" s="105"/>
-      <c r="AM51" s="106"/>
-    </row>
-    <row r="52" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN51" s="104"/>
+      <c r="AO51" s="105"/>
+      <c r="AP51" s="105"/>
+      <c r="AQ51" s="106"/>
+    </row>
+    <row r="52" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="59">
         <v>43112</v>
       </c>
@@ -33672,28 +34383,38 @@
       <c r="AD52" s="97">
         <v>160</v>
       </c>
-      <c r="AE52" s="97">
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF52" s="101">
+      <c r="AG52" s="257">
+        <v>1567</v>
+      </c>
+      <c r="AH52" s="258">
+        <v>1890</v>
+      </c>
+      <c r="AI52" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ52" s="101">
         <v>13.4</v>
       </c>
-      <c r="AG52" s="102">
+      <c r="AK52" s="102">
         <v>1.4</v>
       </c>
-      <c r="AH52" s="102">
+      <c r="AL52" s="102">
         <v>2.7</v>
       </c>
-      <c r="AI52" s="103">
+      <c r="AM52" s="103">
         <v>12.1</v>
       </c>
-      <c r="AJ52" s="104"/>
-      <c r="AK52" s="105"/>
-      <c r="AL52" s="105"/>
-      <c r="AM52" s="106"/>
-    </row>
-    <row r="53" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN52" s="104"/>
+      <c r="AO52" s="105"/>
+      <c r="AP52" s="105"/>
+      <c r="AQ52" s="106"/>
+    </row>
+    <row r="53" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="59">
         <v>43119</v>
       </c>
@@ -33790,28 +34511,38 @@
       <c r="AD53" s="97">
         <v>160</v>
       </c>
-      <c r="AE53" s="97">
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF53" s="101">
+      <c r="AG53" s="257">
+        <v>1558</v>
+      </c>
+      <c r="AH53" s="258">
+        <v>1880</v>
+      </c>
+      <c r="AI53" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ53" s="101">
         <v>12.1</v>
       </c>
-      <c r="AG53" s="102">
+      <c r="AK53" s="102">
         <v>6.7</v>
       </c>
-      <c r="AH53" s="102">
+      <c r="AL53" s="102">
         <v>4.2</v>
       </c>
-      <c r="AI53" s="103">
+      <c r="AM53" s="103">
         <v>14.6</v>
       </c>
-      <c r="AJ53" s="104"/>
-      <c r="AK53" s="105"/>
-      <c r="AL53" s="105"/>
-      <c r="AM53" s="106"/>
-    </row>
-    <row r="54" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN53" s="104"/>
+      <c r="AO53" s="105"/>
+      <c r="AP53" s="105"/>
+      <c r="AQ53" s="106"/>
+    </row>
+    <row r="54" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="59">
         <v>43126</v>
       </c>
@@ -33908,28 +34639,38 @@
       <c r="AD54" s="97">
         <v>160</v>
       </c>
-      <c r="AE54" s="97">
+      <c r="AE54" s="97"/>
+      <c r="AF54" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF54" s="101">
+      <c r="AG54" s="257">
+        <v>1552</v>
+      </c>
+      <c r="AH54" s="258">
+        <v>1880</v>
+      </c>
+      <c r="AI54" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ54" s="101">
         <v>14.6</v>
       </c>
-      <c r="AG54" s="102">
+      <c r="AK54" s="102">
         <v>0</v>
       </c>
-      <c r="AH54" s="102">
+      <c r="AL54" s="102">
         <v>3.2</v>
       </c>
-      <c r="AI54" s="103">
+      <c r="AM54" s="103">
         <v>11.4</v>
       </c>
-      <c r="AJ54" s="104"/>
-      <c r="AK54" s="105"/>
-      <c r="AL54" s="105"/>
-      <c r="AM54" s="106"/>
-    </row>
-    <row r="55" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN54" s="104"/>
+      <c r="AO54" s="105"/>
+      <c r="AP54" s="105"/>
+      <c r="AQ54" s="106"/>
+    </row>
+    <row r="55" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="59">
         <v>43133</v>
       </c>
@@ -34026,28 +34767,38 @@
       <c r="AD55" s="97">
         <v>160</v>
       </c>
-      <c r="AE55" s="97">
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="191">
         <f t="shared" si="6"/>
         <v>-60</v>
       </c>
-      <c r="AF55" s="101">
+      <c r="AG55" s="257">
+        <v>1558</v>
+      </c>
+      <c r="AH55" s="258">
+        <v>1870</v>
+      </c>
+      <c r="AI55" s="258">
+        <v>1770</v>
+      </c>
+      <c r="AJ55" s="101">
         <v>11.4</v>
       </c>
-      <c r="AG55" s="102">
+      <c r="AK55" s="102">
         <v>0</v>
       </c>
-      <c r="AH55" s="102">
+      <c r="AL55" s="102">
         <v>3.2</v>
       </c>
-      <c r="AI55" s="103">
+      <c r="AM55" s="103">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AJ55" s="104"/>
-      <c r="AK55" s="105"/>
-      <c r="AL55" s="105"/>
-      <c r="AM55" s="106"/>
-    </row>
-    <row r="56" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN55" s="104"/>
+      <c r="AO55" s="105"/>
+      <c r="AP55" s="105"/>
+      <c r="AQ55" s="106"/>
+    </row>
+    <row r="56" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="59">
         <v>43140</v>
       </c>
@@ -34152,28 +34903,38 @@
       <c r="AD56" s="97">
         <v>160</v>
       </c>
-      <c r="AE56" s="97">
+      <c r="AE56" s="97"/>
+      <c r="AF56" s="191">
         <f t="shared" si="6"/>
         <v>-20</v>
       </c>
-      <c r="AF56" s="101">
+      <c r="AG56" s="257">
+        <v>1582</v>
+      </c>
+      <c r="AH56" s="258">
+        <v>1890</v>
+      </c>
+      <c r="AI56" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AJ56" s="101">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AG56" s="102">
+      <c r="AK56" s="102">
         <v>0</v>
       </c>
-      <c r="AH56" s="102">
+      <c r="AL56" s="102">
         <v>4.2</v>
       </c>
-      <c r="AI56" s="103">
+      <c r="AM56" s="103">
         <v>4</v>
       </c>
-      <c r="AJ56" s="104"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="106"/>
-    </row>
-    <row r="57" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN56" s="104"/>
+      <c r="AO56" s="105"/>
+      <c r="AP56" s="105"/>
+      <c r="AQ56" s="106"/>
+    </row>
+    <row r="57" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="59">
         <v>43147</v>
       </c>
@@ -34278,28 +35039,38 @@
       <c r="AD57" s="97">
         <v>160</v>
       </c>
-      <c r="AE57" s="97">
+      <c r="AE57" s="97"/>
+      <c r="AF57" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF57" s="101">
+      <c r="AG57" s="257">
+        <v>1586</v>
+      </c>
+      <c r="AH57" s="258">
+        <v>1890</v>
+      </c>
+      <c r="AI57" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AJ57" s="101">
         <v>4</v>
       </c>
-      <c r="AG57" s="102">
+      <c r="AK57" s="102">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH57" s="102">
+      <c r="AL57" s="102">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI57" s="103">
+      <c r="AM57" s="103">
         <v>6.8</v>
       </c>
-      <c r="AJ57" s="104"/>
-      <c r="AK57" s="105"/>
-      <c r="AL57" s="105"/>
-      <c r="AM57" s="106"/>
-    </row>
-    <row r="58" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN57" s="104"/>
+      <c r="AO57" s="105"/>
+      <c r="AP57" s="105"/>
+      <c r="AQ57" s="106"/>
+    </row>
+    <row r="58" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="59">
         <v>43154</v>
       </c>
@@ -34404,28 +35175,38 @@
       <c r="AD58" s="97">
         <v>160</v>
       </c>
-      <c r="AE58" s="97">
+      <c r="AE58" s="97"/>
+      <c r="AF58" s="191">
         <f t="shared" si="6"/>
         <v>-70</v>
       </c>
-      <c r="AF58" s="101">
+      <c r="AG58" s="257">
+        <v>1591</v>
+      </c>
+      <c r="AH58" s="258">
+        <v>1910</v>
+      </c>
+      <c r="AI58" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AJ58" s="101">
         <v>6.8</v>
       </c>
-      <c r="AG58" s="102">
+      <c r="AK58" s="102">
         <v>3.3</v>
       </c>
-      <c r="AH58" s="102">
+      <c r="AL58" s="102">
         <v>0.4</v>
       </c>
-      <c r="AI58" s="103">
+      <c r="AM58" s="103">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AJ58" s="104"/>
-      <c r="AK58" s="105"/>
-      <c r="AL58" s="105"/>
-      <c r="AM58" s="106"/>
-    </row>
-    <row r="59" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AN58" s="104"/>
+      <c r="AO58" s="105"/>
+      <c r="AP58" s="105"/>
+      <c r="AQ58" s="106"/>
+    </row>
+    <row r="59" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="59">
         <v>43161</v>
       </c>
@@ -34522,36 +35303,46 @@
       <c r="AD59" s="97">
         <v>160</v>
       </c>
-      <c r="AE59" s="97">
+      <c r="AE59" s="97"/>
+      <c r="AF59" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF59" s="101">
+      <c r="AG59" s="257">
+        <v>1650</v>
+      </c>
+      <c r="AH59" s="258">
+        <v>1940</v>
+      </c>
+      <c r="AI59" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AJ59" s="101">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AG59" s="102">
+      <c r="AK59" s="102">
         <v>0</v>
       </c>
-      <c r="AH59" s="102">
+      <c r="AL59" s="102">
         <v>2</v>
       </c>
-      <c r="AI59" s="103">
+      <c r="AM59" s="103">
         <v>7.7</v>
       </c>
-      <c r="AJ59" s="104">
+      <c r="AN59" s="104">
         <v>26.5</v>
       </c>
-      <c r="AK59" s="105">
+      <c r="AO59" s="105">
         <v>0</v>
       </c>
-      <c r="AL59" s="105">
+      <c r="AP59" s="105">
         <v>6.5</v>
       </c>
-      <c r="AM59" s="106">
+      <c r="AQ59" s="106">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="59">
         <v>43168</v>
       </c>
@@ -34648,36 +35439,46 @@
       <c r="AD60" s="97">
         <v>160</v>
       </c>
-      <c r="AE60" s="97">
+      <c r="AE60" s="97"/>
+      <c r="AF60" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF60" s="101">
+      <c r="AG60" s="257">
+        <v>1674</v>
+      </c>
+      <c r="AH60" s="258">
+        <v>1950</v>
+      </c>
+      <c r="AI60" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AJ60" s="101">
         <v>7.7</v>
       </c>
-      <c r="AG60" s="102">
+      <c r="AK60" s="102">
         <v>3.1</v>
       </c>
-      <c r="AH60" s="102">
+      <c r="AL60" s="102">
         <v>3</v>
       </c>
-      <c r="AI60" s="103">
+      <c r="AM60" s="103">
         <v>7.8</v>
       </c>
-      <c r="AJ60" s="104">
+      <c r="AN60" s="104">
         <v>20</v>
       </c>
-      <c r="AK60" s="105">
+      <c r="AO60" s="105">
         <v>0</v>
       </c>
-      <c r="AL60" s="105">
+      <c r="AP60" s="105">
         <v>6.3</v>
       </c>
-      <c r="AM60" s="106">
+      <c r="AQ60" s="106">
         <v>13.7</v>
       </c>
     </row>
-    <row r="61" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="59">
         <v>43175</v>
       </c>
@@ -34774,36 +35575,46 @@
       <c r="AD61" s="97">
         <v>160</v>
       </c>
-      <c r="AE61" s="97">
+      <c r="AE61" s="97"/>
+      <c r="AF61" s="191">
         <f t="shared" si="6"/>
         <v>-10</v>
       </c>
-      <c r="AF61" s="101">
+      <c r="AG61" s="257">
+        <v>1653</v>
+      </c>
+      <c r="AH61" s="258">
+        <v>1950</v>
+      </c>
+      <c r="AI61" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AJ61" s="101">
         <v>7.8</v>
       </c>
-      <c r="AG61" s="102">
+      <c r="AK61" s="102">
         <v>5</v>
       </c>
-      <c r="AH61" s="102">
+      <c r="AL61" s="102">
         <v>4</v>
       </c>
-      <c r="AI61" s="103">
+      <c r="AM61" s="103">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AJ61" s="104">
+      <c r="AN61" s="104">
         <v>13.7</v>
       </c>
-      <c r="AK61" s="105">
+      <c r="AO61" s="105">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AL61" s="105">
+      <c r="AP61" s="105">
         <v>6</v>
       </c>
-      <c r="AM61" s="106">
+      <c r="AQ61" s="106">
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="59">
         <v>43182</v>
       </c>
@@ -34900,36 +35711,46 @@
       <c r="AD62" s="97">
         <v>160</v>
       </c>
-      <c r="AE62" s="97">
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF62" s="101">
+      <c r="AG62" s="257">
+        <v>1617</v>
+      </c>
+      <c r="AH62" s="258">
+        <v>1940</v>
+      </c>
+      <c r="AI62" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AJ62" s="101">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AG62" s="102">
+      <c r="AK62" s="102">
         <v>1.4</v>
       </c>
-      <c r="AH62" s="102">
+      <c r="AL62" s="102">
         <v>3.3</v>
       </c>
-      <c r="AI62" s="103">
+      <c r="AM62" s="103">
         <v>6.9</v>
       </c>
-      <c r="AJ62" s="104">
+      <c r="AN62" s="104">
         <v>12.600000000000001</v>
       </c>
-      <c r="AK62" s="105">
+      <c r="AO62" s="105">
         <v>7.8</v>
       </c>
-      <c r="AL62" s="105">
+      <c r="AP62" s="105">
         <v>9.8999999999999986</v>
       </c>
-      <c r="AM62" s="106">
+      <c r="AQ62" s="106">
         <v>10.5</v>
       </c>
     </row>
-    <row r="63" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="59">
         <v>43189</v>
       </c>
@@ -35026,36 +35847,46 @@
       <c r="AD63" s="97">
         <v>160</v>
       </c>
-      <c r="AE63" s="97">
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF63" s="101">
+      <c r="AG63" s="257">
+        <v>1644</v>
+      </c>
+      <c r="AH63" s="258">
+        <v>1960</v>
+      </c>
+      <c r="AI63" s="258">
+        <v>1840</v>
+      </c>
+      <c r="AJ63" s="101">
         <v>6.9</v>
       </c>
-      <c r="AG63" s="102">
+      <c r="AK63" s="102">
         <v>2.1</v>
       </c>
-      <c r="AH63" s="102">
+      <c r="AL63" s="102">
         <v>2.6</v>
       </c>
-      <c r="AI63" s="103">
+      <c r="AM63" s="103">
         <v>6.4</v>
       </c>
-      <c r="AJ63" s="104">
+      <c r="AN63" s="104">
         <v>10.5</v>
       </c>
-      <c r="AK63" s="105">
+      <c r="AO63" s="105">
         <v>2.1</v>
       </c>
-      <c r="AL63" s="105">
+      <c r="AP63" s="105">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AM63" s="106">
+      <c r="AQ63" s="106">
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="59">
         <v>43196</v>
       </c>
@@ -35152,36 +35983,46 @@
       <c r="AD64" s="97">
         <v>160</v>
       </c>
-      <c r="AE64" s="97">
+      <c r="AE64" s="97"/>
+      <c r="AF64" s="191">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF64" s="101">
+      <c r="AG64" s="257">
+        <v>1633</v>
+      </c>
+      <c r="AH64" s="258">
+        <v>1950</v>
+      </c>
+      <c r="AI64" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AJ64" s="101">
         <v>6.4</v>
       </c>
-      <c r="AG64" s="102">
+      <c r="AK64" s="102">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AH64" s="102">
+      <c r="AL64" s="102">
         <v>2.5</v>
       </c>
-      <c r="AI64" s="103">
+      <c r="AM64" s="103">
         <v>9</v>
       </c>
-      <c r="AJ64" s="104">
+      <c r="AN64" s="104">
         <v>7.6999999999999993</v>
       </c>
-      <c r="AK64" s="105">
+      <c r="AO64" s="105">
         <v>6.5</v>
       </c>
-      <c r="AL64" s="105">
+      <c r="AP64" s="105">
         <v>1.5999999999999999</v>
       </c>
-      <c r="AM64" s="106">
+      <c r="AQ64" s="106">
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="59">
         <v>43203</v>
       </c>
@@ -35278,36 +36119,46 @@
       <c r="AD65" s="97">
         <v>160</v>
       </c>
-      <c r="AE65" s="97">
+      <c r="AE65" s="97"/>
+      <c r="AF65" s="191">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="AF65" s="101">
+      <c r="AG65" s="257">
+        <v>1633</v>
+      </c>
+      <c r="AH65" s="258">
+        <v>1930</v>
+      </c>
+      <c r="AI65" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AJ65" s="101">
         <v>9</v>
       </c>
-      <c r="AG65" s="102">
+      <c r="AK65" s="102">
         <v>0</v>
       </c>
-      <c r="AH65" s="102">
+      <c r="AL65" s="102">
         <v>2</v>
       </c>
-      <c r="AI65" s="103">
+      <c r="AM65" s="103">
         <v>7</v>
       </c>
-      <c r="AJ65" s="104">
+      <c r="AN65" s="104">
         <v>12.600000000000001</v>
       </c>
-      <c r="AK65" s="105">
+      <c r="AO65" s="105">
         <v>2.8</v>
       </c>
-      <c r="AL65" s="105">
+      <c r="AP65" s="105">
         <v>4.5</v>
       </c>
-      <c r="AM65" s="106">
+      <c r="AQ65" s="106">
         <v>10.9</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="59">
         <v>43210</v>
       </c>
@@ -35404,36 +36255,46 @@
       <c r="AD66" s="97">
         <v>160</v>
       </c>
-      <c r="AE66" s="97">
+      <c r="AE66" s="97"/>
+      <c r="AF66" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF66" s="101">
+      <c r="AG66" s="257">
+        <v>1612</v>
+      </c>
+      <c r="AH66" s="258">
+        <v>1960</v>
+      </c>
+      <c r="AI66" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AJ66" s="101">
         <v>7</v>
       </c>
-      <c r="AG66" s="102">
+      <c r="AK66" s="102">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH66" s="102">
+      <c r="AL66" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI66" s="103">
+      <c r="AM66" s="103">
         <v>7.5</v>
       </c>
-      <c r="AJ66" s="104">
+      <c r="AN66" s="104">
         <v>10.9</v>
       </c>
-      <c r="AK66" s="105">
+      <c r="AO66" s="105">
         <v>6.6999999999999993</v>
       </c>
-      <c r="AL66" s="105">
+      <c r="AP66" s="105">
         <v>3.4000000000000004</v>
       </c>
-      <c r="AM66" s="106">
+      <c r="AQ66" s="106">
         <v>14.2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="59">
         <v>43224</v>
       </c>
@@ -35530,36 +36391,46 @@
       <c r="AD67" s="97">
         <v>160</v>
       </c>
-      <c r="AE67" s="97">
+      <c r="AE67" s="97"/>
+      <c r="AF67" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF67" s="101">
+      <c r="AG67" s="257">
+        <v>1645</v>
+      </c>
+      <c r="AH67" s="258">
+        <v>2000</v>
+      </c>
+      <c r="AI67" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AJ67" s="101">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AG67" s="102">
+      <c r="AK67" s="102">
         <v>6.4</v>
       </c>
-      <c r="AH67" s="102">
+      <c r="AL67" s="102">
         <v>3</v>
       </c>
-      <c r="AI67" s="103">
+      <c r="AM67" s="103">
         <v>8.5</v>
       </c>
-      <c r="AJ67" s="104">
+      <c r="AN67" s="104">
         <v>13.8</v>
       </c>
-      <c r="AK67" s="105">
+      <c r="AO67" s="105">
         <v>0</v>
       </c>
-      <c r="AL67" s="105">
+      <c r="AP67" s="105">
         <v>3.4000000000000004</v>
       </c>
-      <c r="AM67" s="106">
+      <c r="AQ67" s="106">
         <v>10.4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="59">
         <v>43231</v>
       </c>
@@ -35656,36 +36527,46 @@
       <c r="AD68" s="97">
         <v>160</v>
       </c>
-      <c r="AE68" s="97">
+      <c r="AE68" s="97"/>
+      <c r="AF68" s="191">
         <f t="shared" si="6"/>
         <v>-65</v>
       </c>
-      <c r="AF68" s="101">
+      <c r="AG68" s="257">
+        <v>1623</v>
+      </c>
+      <c r="AH68" s="258">
+        <v>1990</v>
+      </c>
+      <c r="AI68" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AJ68" s="101">
         <v>8.5</v>
       </c>
-      <c r="AG68" s="102">
+      <c r="AK68" s="102">
         <v>0</v>
       </c>
-      <c r="AH68" s="102">
+      <c r="AL68" s="102">
         <v>2.4</v>
       </c>
-      <c r="AI68" s="103">
+      <c r="AM68" s="103">
         <v>6.1</v>
       </c>
-      <c r="AJ68" s="104">
+      <c r="AN68" s="104">
         <v>10.4</v>
       </c>
-      <c r="AK68" s="105">
+      <c r="AO68" s="105">
         <v>0</v>
       </c>
-      <c r="AL68" s="105">
+      <c r="AP68" s="105">
         <v>4.3000000000000007</v>
       </c>
-      <c r="AM68" s="106">
+      <c r="AQ68" s="106">
         <v>6.1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="59">
         <v>43238</v>
       </c>
@@ -35782,36 +36663,46 @@
       <c r="AD69" s="97">
         <v>160</v>
       </c>
-      <c r="AE69" s="97">
+      <c r="AE69" s="97"/>
+      <c r="AF69" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF69" s="101">
+      <c r="AG69" s="257">
+        <v>1631</v>
+      </c>
+      <c r="AH69" s="258">
+        <v>1930</v>
+      </c>
+      <c r="AI69" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AJ69" s="101">
         <v>6.1</v>
       </c>
-      <c r="AG69" s="102">
+      <c r="AK69" s="102">
         <v>0</v>
       </c>
-      <c r="AH69" s="102">
+      <c r="AL69" s="102">
         <v>2.4</v>
       </c>
-      <c r="AI69" s="103">
+      <c r="AM69" s="103">
         <v>3.7</v>
       </c>
-      <c r="AJ69" s="104">
+      <c r="AN69" s="104">
         <v>6.1</v>
       </c>
-      <c r="AK69" s="105">
+      <c r="AO69" s="105">
         <v>0</v>
       </c>
-      <c r="AL69" s="105">
+      <c r="AP69" s="105">
         <v>1.9</v>
       </c>
-      <c r="AM69" s="106">
+      <c r="AQ69" s="106">
         <v>4.2</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="59">
         <v>43245</v>
       </c>
@@ -35899,7 +36790,7 @@
         <v>61.5</v>
       </c>
       <c r="AB70" s="78">
-        <f t="shared" ref="AB70:AB85" si="15">AA70-AA69</f>
+        <f t="shared" ref="AB70:AB86" si="15">AA70-AA69</f>
         <v>10.100000000000001</v>
       </c>
       <c r="AC70" s="79">
@@ -35908,36 +36799,46 @@
       <c r="AD70" s="97">
         <v>160</v>
       </c>
-      <c r="AE70" s="97">
+      <c r="AE70" s="97"/>
+      <c r="AF70" s="191">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
-      <c r="AF70" s="101">
+      <c r="AG70" s="257">
+        <v>1656</v>
+      </c>
+      <c r="AH70" s="258">
+        <v>1880</v>
+      </c>
+      <c r="AI70" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AJ70" s="101">
         <v>3.7</v>
       </c>
-      <c r="AG70" s="102">
+      <c r="AK70" s="102">
         <v>5</v>
       </c>
-      <c r="AH70" s="102">
+      <c r="AL70" s="102">
         <v>1.5</v>
       </c>
-      <c r="AI70" s="103">
+      <c r="AM70" s="103">
         <v>7.2</v>
       </c>
-      <c r="AJ70" s="104">
+      <c r="AN70" s="104">
         <v>4.2</v>
       </c>
-      <c r="AK70" s="105">
+      <c r="AO70" s="105">
         <v>17.7</v>
       </c>
-      <c r="AL70" s="105">
+      <c r="AP70" s="105">
         <v>5</v>
       </c>
-      <c r="AM70" s="106">
+      <c r="AQ70" s="106">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="59">
         <v>43252</v>
       </c>
@@ -36034,36 +36935,46 @@
       <c r="AD71" s="97">
         <v>160</v>
       </c>
-      <c r="AE71" s="97">
+      <c r="AE71" s="97"/>
+      <c r="AF71" s="191">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="AF71" s="101">
+      <c r="AG71" s="257">
+        <v>1634</v>
+      </c>
+      <c r="AH71" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AI71" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AJ71" s="101">
         <v>7.2</v>
       </c>
-      <c r="AG71" s="102">
+      <c r="AK71" s="102">
         <v>0</v>
       </c>
-      <c r="AH71" s="102">
+      <c r="AL71" s="102">
         <v>1.3</v>
       </c>
-      <c r="AI71" s="103">
+      <c r="AM71" s="103">
         <v>5.9</v>
       </c>
-      <c r="AJ71" s="104">
+      <c r="AN71" s="104">
         <v>16.899999999999999</v>
       </c>
-      <c r="AK71" s="105">
+      <c r="AO71" s="105">
         <v>4.2</v>
       </c>
-      <c r="AL71" s="105">
+      <c r="AP71" s="105">
         <v>5.9</v>
       </c>
-      <c r="AM71" s="106">
+      <c r="AQ71" s="106">
         <v>15.2</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="59">
         <v>43259</v>
       </c>
@@ -36160,36 +37071,46 @@
       <c r="AD72" s="97">
         <v>160</v>
       </c>
-      <c r="AE72" s="97">
-        <f t="shared" si="6"/>
+      <c r="AE72" s="97"/>
+      <c r="AF72" s="191">
+        <f t="shared" ref="AF72:AF80" si="21">AC72-AD72-F72-AE72</f>
         <v>-60</v>
       </c>
-      <c r="AF72" s="101">
+      <c r="AG72" s="257">
+        <v>1583</v>
+      </c>
+      <c r="AH72" s="258">
+        <v>1810</v>
+      </c>
+      <c r="AI72" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ72" s="101">
         <v>5.9</v>
       </c>
-      <c r="AG72" s="102">
+      <c r="AK72" s="102">
         <v>0.5</v>
       </c>
-      <c r="AH72" s="102">
+      <c r="AL72" s="102">
         <v>0.4</v>
       </c>
-      <c r="AI72" s="103">
+      <c r="AM72" s="103">
         <v>6</v>
       </c>
-      <c r="AJ72" s="104">
+      <c r="AN72" s="104">
         <v>15.2</v>
       </c>
-      <c r="AK72" s="105">
+      <c r="AO72" s="105">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AL72" s="105">
+      <c r="AP72" s="105">
         <v>5.2</v>
       </c>
-      <c r="AM72" s="106">
+      <c r="AQ72" s="106">
         <v>12.2</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="59">
         <v>43266</v>
       </c>
@@ -36287,36 +37208,46 @@
       <c r="AD73" s="97">
         <v>160</v>
       </c>
-      <c r="AE73" s="97">
-        <f t="shared" si="6"/>
+      <c r="AE73" s="97"/>
+      <c r="AF73" s="191">
+        <f t="shared" si="21"/>
         <v>-60</v>
       </c>
-      <c r="AF73" s="101">
+      <c r="AG73" s="257">
+        <v>1553</v>
+      </c>
+      <c r="AH73" s="258">
+        <v>1800</v>
+      </c>
+      <c r="AI73" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ73" s="101">
         <v>6</v>
       </c>
-      <c r="AG73" s="102">
+      <c r="AK73" s="102">
         <v>2.4</v>
       </c>
-      <c r="AH73" s="102">
+      <c r="AL73" s="102">
         <v>1</v>
       </c>
-      <c r="AI73" s="103">
+      <c r="AM73" s="103">
         <v>7.4</v>
       </c>
-      <c r="AJ73" s="104">
+      <c r="AN73" s="104">
         <v>12.2</v>
       </c>
-      <c r="AK73" s="105">
+      <c r="AO73" s="105">
         <v>1.6</v>
       </c>
-      <c r="AL73" s="105">
+      <c r="AP73" s="105">
         <v>4</v>
       </c>
-      <c r="AM73" s="106">
+      <c r="AQ73" s="106">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="59">
         <v>43273</v>
       </c>
@@ -36413,36 +37344,46 @@
       <c r="AD74" s="97">
         <v>150</v>
       </c>
-      <c r="AE74" s="97">
-        <f t="shared" si="6"/>
+      <c r="AE74" s="97"/>
+      <c r="AF74" s="191">
+        <f t="shared" si="21"/>
         <v>-60</v>
       </c>
-      <c r="AF74" s="101">
+      <c r="AG74" s="257">
+        <v>1547</v>
+      </c>
+      <c r="AH74" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AI74" s="258">
+        <v>1780</v>
+      </c>
+      <c r="AJ74" s="101">
         <v>7.4</v>
       </c>
-      <c r="AG74" s="102">
+      <c r="AK74" s="102">
         <v>1.5</v>
       </c>
-      <c r="AH74" s="102">
+      <c r="AL74" s="102">
         <v>1.2</v>
       </c>
-      <c r="AI74" s="103">
+      <c r="AM74" s="103">
         <v>7.7</v>
       </c>
-      <c r="AJ74" s="104">
+      <c r="AN74" s="104">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AK74" s="105">
+      <c r="AO74" s="105">
         <v>4.8000000000000007</v>
       </c>
-      <c r="AL74" s="105">
+      <c r="AP74" s="105">
         <v>3.8</v>
       </c>
-      <c r="AM74" s="106">
+      <c r="AQ74" s="106">
         <v>10.8</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="59">
         <v>43280</v>
       </c>
@@ -36539,36 +37480,46 @@
       <c r="AD75" s="97">
         <v>150</v>
       </c>
-      <c r="AE75" s="97">
-        <f t="shared" ref="AE75:AE82" si="21">AC75-AD75-F75</f>
+      <c r="AE75" s="97"/>
+      <c r="AF75" s="191">
+        <f t="shared" si="21"/>
         <v>-60</v>
       </c>
-      <c r="AF75" s="101">
+      <c r="AG75" s="257">
+        <v>1543</v>
+      </c>
+      <c r="AH75" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AI75" s="258">
+        <v>1790</v>
+      </c>
+      <c r="AJ75" s="101">
         <v>7.7</v>
       </c>
-      <c r="AG75" s="102">
+      <c r="AK75" s="102">
         <v>0</v>
       </c>
-      <c r="AH75" s="102">
+      <c r="AL75" s="102">
         <v>0.7</v>
       </c>
-      <c r="AI75" s="103">
+      <c r="AM75" s="103">
         <v>7</v>
       </c>
-      <c r="AJ75" s="104">
+      <c r="AN75" s="104">
         <v>10.8</v>
       </c>
-      <c r="AK75" s="105">
+      <c r="AO75" s="105">
         <v>8.4</v>
       </c>
-      <c r="AL75" s="105">
+      <c r="AP75" s="105">
         <v>5.6</v>
       </c>
-      <c r="AM75" s="106">
+      <c r="AQ75" s="106">
         <v>13.6</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="59">
         <v>43287</v>
       </c>
@@ -36665,36 +37616,46 @@
       <c r="AD76" s="97">
         <v>150</v>
       </c>
-      <c r="AE76" s="97">
+      <c r="AE76" s="97"/>
+      <c r="AF76" s="191">
         <f t="shared" si="21"/>
         <v>-20</v>
       </c>
-      <c r="AF76" s="101">
+      <c r="AG76" s="257">
+        <v>1575</v>
+      </c>
+      <c r="AH76" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AI76" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AJ76" s="101">
         <v>7</v>
       </c>
-      <c r="AG76" s="102">
+      <c r="AK76" s="102">
         <v>0</v>
       </c>
-      <c r="AH76" s="102">
+      <c r="AL76" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI76" s="103">
+      <c r="AM76" s="103">
         <v>5.9</v>
       </c>
-      <c r="AJ76" s="104">
+      <c r="AN76" s="104">
         <v>13.6</v>
       </c>
-      <c r="AK76" s="105">
+      <c r="AO76" s="105">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AL76" s="105">
+      <c r="AP76" s="105">
         <v>5.3</v>
       </c>
-      <c r="AM76" s="106">
+      <c r="AQ76" s="106">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="59">
         <v>43294</v>
       </c>
@@ -36791,36 +37752,46 @@
       <c r="AD77" s="97">
         <v>150</v>
       </c>
-      <c r="AE77" s="97">
+      <c r="AE77" s="97"/>
+      <c r="AF77" s="191">
         <f t="shared" si="21"/>
         <v>-20</v>
       </c>
-      <c r="AF77" s="101">
+      <c r="AG77" s="257">
+        <v>1565</v>
+      </c>
+      <c r="AH77" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AI77" s="258">
+        <v>1820</v>
+      </c>
+      <c r="AJ77" s="101">
         <v>5.9</v>
       </c>
-      <c r="AG77" s="102">
+      <c r="AK77" s="102">
         <v>0</v>
       </c>
-      <c r="AH77" s="102">
+      <c r="AL77" s="102">
         <v>0.8</v>
       </c>
-      <c r="AI77" s="103">
+      <c r="AM77" s="103">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AJ77" s="104">
+      <c r="AN77" s="104">
         <v>18.100000000000001</v>
       </c>
-      <c r="AK77" s="105">
+      <c r="AO77" s="105">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AL77" s="105">
+      <c r="AP77" s="105">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AM77" s="106">
+      <c r="AQ77" s="106">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="59">
         <v>43301</v>
       </c>
@@ -36917,36 +37888,46 @@
       <c r="AD78" s="97">
         <v>150</v>
       </c>
-      <c r="AE78" s="97">
+      <c r="AE78" s="97"/>
+      <c r="AF78" s="191">
         <f t="shared" si="21"/>
         <v>-20</v>
       </c>
-      <c r="AF78" s="101">
+      <c r="AG78" s="257">
+        <v>1993</v>
+      </c>
+      <c r="AH78" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AI78" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AJ78" s="101">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AG78" s="102">
+      <c r="AK78" s="102">
         <v>0</v>
       </c>
-      <c r="AH78" s="102">
+      <c r="AL78" s="102">
         <v>0.8</v>
       </c>
-      <c r="AI78" s="103">
+      <c r="AM78" s="103">
         <v>4.3</v>
       </c>
-      <c r="AJ78" s="104">
+      <c r="AN78" s="104">
         <v>18.100000000000001</v>
       </c>
-      <c r="AK78" s="105">
+      <c r="AO78" s="105">
         <v>4.8000000000000007</v>
       </c>
-      <c r="AL78" s="105">
+      <c r="AP78" s="105">
         <v>7.6</v>
       </c>
-      <c r="AM78" s="106">
+      <c r="AQ78" s="106">
         <v>15.3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="59">
         <v>43308</v>
       </c>
@@ -37043,36 +38024,46 @@
       <c r="AD79" s="97">
         <v>150</v>
       </c>
-      <c r="AE79" s="97">
+      <c r="AE79" s="97"/>
+      <c r="AF79" s="191">
         <f t="shared" si="21"/>
         <v>-25</v>
       </c>
-      <c r="AF79" s="101">
+      <c r="AG79" s="257">
+        <v>2038</v>
+      </c>
+      <c r="AH79" s="258">
+        <v>1860</v>
+      </c>
+      <c r="AI79" s="258">
+        <v>1830</v>
+      </c>
+      <c r="AJ79" s="101">
         <v>4.3</v>
       </c>
-      <c r="AG79" s="102">
+      <c r="AK79" s="102">
         <v>7.4</v>
       </c>
-      <c r="AH79" s="102">
+      <c r="AL79" s="102">
         <v>1.9</v>
       </c>
-      <c r="AI79" s="103">
+      <c r="AM79" s="103">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AJ79" s="104">
+      <c r="AN79" s="104">
         <v>15.3</v>
       </c>
-      <c r="AK79" s="105">
+      <c r="AO79" s="105">
         <v>0</v>
       </c>
-      <c r="AL79" s="105">
+      <c r="AP79" s="105">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AM79" s="106">
+      <c r="AQ79" s="106">
         <v>11.2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="59">
         <v>43315</v>
       </c>
@@ -37169,36 +38160,46 @@
       <c r="AD80" s="97">
         <v>150</v>
       </c>
-      <c r="AE80" s="97">
+      <c r="AE80" s="97"/>
+      <c r="AF80" s="191">
         <f t="shared" si="21"/>
         <v>-25</v>
       </c>
-      <c r="AF80" s="101">
+      <c r="AG80" s="257">
+        <v>2069</v>
+      </c>
+      <c r="AH80" s="258">
+        <v>1900</v>
+      </c>
+      <c r="AI80" s="258">
+        <v>1840</v>
+      </c>
+      <c r="AJ80" s="101">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AG80" s="102">
+      <c r="AK80" s="102">
         <v>0</v>
       </c>
-      <c r="AH80" s="102">
+      <c r="AL80" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI80" s="103">
+      <c r="AM80" s="103">
         <v>8.1</v>
       </c>
-      <c r="AJ80" s="104">
+      <c r="AN80" s="104">
         <v>11.2</v>
       </c>
-      <c r="AK80" s="105">
+      <c r="AO80" s="105">
         <v>17.3</v>
       </c>
-      <c r="AL80" s="105">
+      <c r="AP80" s="105">
         <v>6.3</v>
       </c>
-      <c r="AM80" s="106">
+      <c r="AQ80" s="106">
         <v>22.2</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="59">
         <v>43322</v>
       </c>
@@ -37295,36 +38296,46 @@
       <c r="AD81" s="97">
         <v>150</v>
       </c>
-      <c r="AE81" s="97">
-        <f t="shared" si="21"/>
+      <c r="AE81" s="97"/>
+      <c r="AF81" s="191">
+        <f t="shared" ref="AF81:AF84" si="22">AC81-AD81-F81-AE81</f>
         <v>-25</v>
       </c>
-      <c r="AF81" s="101">
+      <c r="AG81" s="257">
+        <v>2079</v>
+      </c>
+      <c r="AH81" s="258">
+        <v>1950</v>
+      </c>
+      <c r="AI81" s="258">
+        <v>1840</v>
+      </c>
+      <c r="AJ81" s="101">
         <v>8.1</v>
       </c>
-      <c r="AG81" s="102">
+      <c r="AK81" s="102">
         <v>2.8</v>
       </c>
-      <c r="AH81" s="102">
+      <c r="AL81" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AI81" s="103">
+      <c r="AM81" s="103">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AJ81" s="104">
+      <c r="AN81" s="104">
         <v>22.2</v>
       </c>
-      <c r="AK81" s="105">
+      <c r="AO81" s="105">
         <v>13.5</v>
       </c>
-      <c r="AL81" s="105">
+      <c r="AP81" s="105">
         <v>6.4</v>
       </c>
-      <c r="AM81" s="106">
+      <c r="AQ81" s="106">
         <v>29.3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="59">
         <v>43329</v>
       </c>
@@ -37419,39 +38430,49 @@
         <v>1850</v>
       </c>
       <c r="AD82" s="97">
-        <f t="shared" ref="AD82:AD83" si="22">90+60</f>
+        <f t="shared" ref="AD82:AD83" si="23">90+60</f>
         <v>150</v>
       </c>
-      <c r="AE82" s="97">
-        <f t="shared" si="21"/>
+      <c r="AE82" s="97"/>
+      <c r="AF82" s="191">
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
-      <c r="AF82" s="101">
+      <c r="AG82" s="257">
+        <v>2079</v>
+      </c>
+      <c r="AH82" s="258">
+        <v>2020</v>
+      </c>
+      <c r="AI82" s="258">
+        <v>1850</v>
+      </c>
+      <c r="AJ82" s="101">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AG82" s="102">
+      <c r="AK82" s="102">
         <v>1.2</v>
       </c>
-      <c r="AH82" s="102">
+      <c r="AL82" s="102">
         <v>1.3</v>
       </c>
-      <c r="AI82" s="103">
+      <c r="AM82" s="103">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AJ82" s="104">
+      <c r="AN82" s="104">
         <v>29.3</v>
       </c>
-      <c r="AK82" s="105">
+      <c r="AO82" s="105">
         <v>2</v>
       </c>
-      <c r="AL82" s="105">
+      <c r="AP82" s="105">
         <v>7.6</v>
       </c>
-      <c r="AM82" s="106">
+      <c r="AQ82" s="106">
         <v>23.7</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="59">
         <v>43336</v>
       </c>
@@ -37546,40 +38567,50 @@
         <v>1870</v>
       </c>
       <c r="AD83" s="97">
+        <f t="shared" si="23"/>
+        <v>150</v>
+      </c>
+      <c r="AE83" s="97"/>
+      <c r="AF83" s="191">
         <f t="shared" si="22"/>
-        <v>150</v>
-      </c>
-      <c r="AE83" s="97">
-        <f>AC83-AD83-F83</f>
         <v>-30</v>
       </c>
-      <c r="AF83" s="101">
+      <c r="AG83" s="257">
+        <v>2005</v>
+      </c>
+      <c r="AH83" s="258">
+        <v>2020</v>
+      </c>
+      <c r="AI83" s="258">
+        <v>1890</v>
+      </c>
+      <c r="AJ83" s="101">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AG83" s="102">
+      <c r="AK83" s="102">
         <v>0</v>
       </c>
-      <c r="AH83" s="102">
+      <c r="AL83" s="102">
         <v>2.5</v>
       </c>
-      <c r="AI83" s="103">
+      <c r="AM83" s="103">
         <v>7.2</v>
       </c>
-      <c r="AJ83" s="104">
+      <c r="AN83" s="104">
         <v>23.7</v>
       </c>
-      <c r="AK83" s="105">
+      <c r="AO83" s="105">
         <v>6.2</v>
       </c>
-      <c r="AL83" s="105">
+      <c r="AP83" s="105">
         <v>10.199999999999999</v>
       </c>
-      <c r="AM83" s="138">
-        <f>AJ83+AK83-AL83</f>
+      <c r="AQ83" s="138">
+        <f>AN83+AO83-AP83</f>
         <v>19.7</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:43" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="59">
         <v>43343</v>
       </c>
@@ -37643,23 +38674,23 @@
         <v>20.100000000000001</v>
       </c>
       <c r="S84" s="71">
-        <f t="shared" ref="S84" si="23">B84+G84+K84+O84</f>
+        <f t="shared" ref="S84" si="24">B84+G84+K84+O84</f>
         <v>366.3</v>
       </c>
       <c r="T84" s="72">
-        <f t="shared" ref="T84" si="24">C84+H84+L84+P84</f>
+        <f t="shared" ref="T84" si="25">C84+H84+L84+P84</f>
         <v>26.5</v>
       </c>
       <c r="U84" s="72">
-        <f t="shared" ref="U84" si="25">D84+I84+M84+Q84</f>
+        <f t="shared" ref="U84" si="26">D84+I84+M84+Q84</f>
         <v>35.099999999999994</v>
       </c>
       <c r="V84" s="72">
-        <f t="shared" ref="V84" si="26">E84+J84+N84+R84</f>
+        <f t="shared" ref="V84" si="27">E84+J84+N84+R84</f>
         <v>357.70000000000005</v>
       </c>
       <c r="W84" s="73">
-        <f t="shared" ref="W84" si="27">V84-V83</f>
+        <f t="shared" ref="W84" si="28">V84-V83</f>
         <v>-8.5999999999999659</v>
       </c>
       <c r="X84" s="116">
@@ -37683,67 +38714,134 @@
         <v>1870</v>
       </c>
       <c r="AD84" s="97">
-        <f>90+60</f>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AE84" s="97">
-        <f>AC84-AD84-F84</f>
+        <v>60</v>
+      </c>
+      <c r="AF84" s="191">
+        <f t="shared" si="22"/>
         <v>-30</v>
       </c>
-      <c r="AF84" s="101">
-        <f>AI83</f>
+      <c r="AG84" s="257">
+        <v>1970</v>
+      </c>
+      <c r="AH84" s="258">
+        <v>2020</v>
+      </c>
+      <c r="AI84" s="258">
+        <v>1900</v>
+      </c>
+      <c r="AJ84" s="101">
+        <f>AM83</f>
         <v>7.2</v>
       </c>
-      <c r="AG84" s="102">
+      <c r="AK84" s="102">
         <v>0</v>
       </c>
-      <c r="AH84" s="102">
+      <c r="AL84" s="102">
         <v>1.7</v>
       </c>
-      <c r="AI84" s="103">
-        <f>AF84+AG84-AH84</f>
+      <c r="AM84" s="103">
+        <f>AJ84+AK84-AL84</f>
         <v>5.5</v>
       </c>
-      <c r="AJ84" s="139">
-        <f>AM83</f>
+      <c r="AN84" s="139">
+        <f>AQ83</f>
         <v>19.7</v>
       </c>
-      <c r="AK84" s="105">
+      <c r="AO84" s="105">
         <v>6.5</v>
       </c>
-      <c r="AL84" s="118">
+      <c r="AP84" s="118">
         <v>6.9</v>
       </c>
-      <c r="AM84" s="106">
+      <c r="AQ84" s="106">
         <v>19.3</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A85" s="59">
         <v>43350</v>
       </c>
+      <c r="B85" s="108">
+        <f>E84</f>
+        <v>122.3</v>
+      </c>
+      <c r="C85" s="119">
+        <v>13.4</v>
+      </c>
+      <c r="D85" s="119">
+        <v>14.7</v>
+      </c>
+      <c r="E85" s="108">
+        <f>B85+C85-D85</f>
+        <v>120.99999999999999</v>
+      </c>
       <c r="F85" s="120">
         <v>1770</v>
       </c>
+      <c r="G85" s="104">
+        <f>J84</f>
+        <v>157</v>
+      </c>
+      <c r="H85" s="33">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I85" s="33">
+        <v>17</v>
+      </c>
+      <c r="J85" s="106">
+        <f>G85+H85-I85</f>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="K85" s="110">
+        <f>N84</f>
+        <v>58.300000000000004</v>
+      </c>
+      <c r="L85" s="122">
+        <v>9.4</v>
+      </c>
+      <c r="M85" s="122">
+        <v>10.8</v>
+      </c>
+      <c r="N85" s="112">
+        <f>K85+L85-M85</f>
+        <v>56.900000000000006</v>
+      </c>
+      <c r="O85" s="113">
+        <f>R84</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P85" s="125">
+        <v>5.9</v>
+      </c>
+      <c r="Q85" s="125">
+        <v>11.7</v>
+      </c>
+      <c r="R85" s="115">
+        <f>O85+P85-Q85</f>
+        <v>14.3</v>
+      </c>
       <c r="S85" s="71">
-        <f t="shared" ref="S85" si="28">B85+G85+K85+O85</f>
-        <v>0</v>
+        <f t="shared" ref="S85" si="29">B85+G85+K85+O85</f>
+        <v>357.70000000000005</v>
       </c>
       <c r="T85" s="72">
-        <f t="shared" ref="T85" si="29">C85+H85+L85+P85</f>
-        <v>0</v>
+        <f t="shared" ref="T85" si="30">C85+H85+L85+P85</f>
+        <v>38.5</v>
       </c>
       <c r="U85" s="72">
-        <f t="shared" ref="U85" si="30">D85+I85+M85+Q85</f>
-        <v>0</v>
+        <f t="shared" ref="U85" si="31">D85+I85+M85+Q85</f>
+        <v>54.2</v>
       </c>
       <c r="V85" s="72">
-        <f t="shared" ref="V85" si="31">E85+J85+N85+R85</f>
-        <v>0</v>
+        <f t="shared" ref="V85" si="32">E85+J85+N85+R85</f>
+        <v>342.00000000000006</v>
       </c>
       <c r="W85" s="73">
-        <f t="shared" ref="W85" si="32">V85-V84</f>
-        <v>-357.70000000000005</v>
+        <f t="shared" ref="W85" si="33">V85-V84</f>
+        <v>-15.699999999999989</v>
       </c>
       <c r="X85" s="35">
         <f>AA84</f>
@@ -37767,51 +38865,150 @@
         <v>1900</v>
       </c>
       <c r="AD85" s="97">
-        <f>90+61</f>
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AE85" s="97">
-        <f t="shared" ref="AE85:AE86" si="33">AC85-AD85-F85</f>
+        <v>61</v>
+      </c>
+      <c r="AF85" s="191">
+        <f>AC85-AD85-F85-AE85</f>
         <v>-21</v>
       </c>
-      <c r="AF85" s="29">
-        <f>AI84</f>
+      <c r="AG85" s="259">
+        <v>2083</v>
+      </c>
+      <c r="AH85" s="260">
+        <v>2000</v>
+      </c>
+      <c r="AI85" s="260">
+        <v>1900</v>
+      </c>
+      <c r="AJ85" s="29">
+        <f>AM84</f>
         <v>5.5</v>
       </c>
-      <c r="AG85" s="30">
+      <c r="AK85" s="30">
         <v>6.3</v>
       </c>
-      <c r="AH85" s="30">
+      <c r="AL85" s="30">
         <v>2.8</v>
       </c>
-      <c r="AI85" s="103">
-        <f>AF85+AG85-AH85</f>
+      <c r="AM85" s="103">
+        <f>AJ85+AK85-AL85</f>
         <v>9</v>
       </c>
-      <c r="AJ85" s="139">
-        <f>AM84</f>
+      <c r="AN85" s="139">
+        <f>AQ84</f>
         <v>19.3</v>
       </c>
-      <c r="AK85" s="33">
+      <c r="AO85" s="33">
         <v>3.5</v>
       </c>
-      <c r="AL85" s="33">
+      <c r="AP85" s="33">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AM85" s="183">
-        <f>AJ85+AK85-AL85</f>
+      <c r="AQ85" s="183">
+        <f>AN85+AO85-AP85</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="AD86" s="97"/>
-      <c r="AE86" s="97"/>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A86" s="59">
+        <v>43357</v>
+      </c>
+      <c r="S86" s="71">
+        <f t="shared" ref="S86" si="34">B86+G86+K86+O86</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="72">
+        <f t="shared" ref="T86" si="35">C86+H86+L86+P86</f>
+        <v>0</v>
+      </c>
+      <c r="U86" s="72">
+        <f t="shared" ref="U86" si="36">D86+I86+M86+Q86</f>
+        <v>0</v>
+      </c>
+      <c r="V86" s="72">
+        <f t="shared" ref="V86" si="37">E86+J86+N86+R86</f>
+        <v>0</v>
+      </c>
+      <c r="W86" s="73">
+        <f t="shared" ref="W86" si="38">V86-V85</f>
+        <v>-342.00000000000006</v>
+      </c>
+      <c r="X86" s="194">
+        <f>AA85</f>
+        <v>77.59999999999998</v>
+      </c>
+      <c r="Y86" s="36">
+        <v>14.5</v>
+      </c>
+      <c r="Z86" s="36">
+        <v>37.6</v>
+      </c>
+      <c r="AA86" s="195">
+        <f>X86+Y86-Z86</f>
+        <v>54.499999999999979</v>
+      </c>
+      <c r="AB86" s="78">
+        <f t="shared" si="15"/>
+        <v>-23.1</v>
+      </c>
+      <c r="AC86" s="37">
+        <v>1920</v>
+      </c>
+      <c r="AD86" s="97">
+        <v>90</v>
+      </c>
+      <c r="AE86" s="97">
+        <v>62</v>
+      </c>
+      <c r="AF86" s="191">
+        <f>AC86-AD86-F86-AE86</f>
+        <v>1768</v>
+      </c>
+      <c r="AG86" s="259">
+        <v>2019</v>
+      </c>
+      <c r="AH86" s="260">
+        <v>2000</v>
+      </c>
+      <c r="AI86" s="260">
+        <v>1900</v>
+      </c>
+      <c r="AJ86" s="193">
+        <f>AM85</f>
+        <v>9</v>
+      </c>
+      <c r="AK86" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="AM86" s="103">
+        <f>AJ86+AK86-AL86</f>
+        <v>6.2</v>
+      </c>
+      <c r="AN86" s="139">
+        <f>AQ85</f>
+        <v>14.5</v>
+      </c>
+      <c r="AO86" s="33">
+        <v>7</v>
+      </c>
+      <c r="AP86" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="AQ86" s="183">
+        <f>AN86+AO86-AP86</f>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="A1:A2"/>
@@ -37819,7 +39016,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37834,10 +39031,10 @@
   <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S70" sqref="S70"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37859,49 +39056,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="228" t="s">
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="229"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231" t="s">
+      <c r="L1" s="237"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234" t="s">
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="235"/>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="235"/>
-      <c r="AH1" s="235"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -37998,7 +39195,7 @@
         <v>46</v>
       </c>
       <c r="AG2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH2" s="25" t="s">
         <v>48</v>
@@ -44195,7 +45392,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44205,61 +45402,61 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="184" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="C1" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="D1" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="F1" s="244" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="236" t="s">
+      <c r="G1" s="245"/>
+      <c r="H1" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="237"/>
-      <c r="H1" s="236" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="237"/>
+      <c r="I1" s="245"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="186" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="C2" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="G2" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="187" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="187" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="187" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="187" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="187" t="s">
-        <v>66</v>
-      </c>
       <c r="I2" s="187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="187">
         <v>6900.7</v>
@@ -44288,7 +45485,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="187">
         <v>3569</v>
@@ -44317,7 +45514,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="187">
         <v>21800</v>
@@ -44346,7 +45543,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="187">
         <v>327.60000000000002</v>
@@ -44375,7 +45572,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="186" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="187">
         <v>29028.3</v>
@@ -44404,7 +45601,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="186" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="187">
         <v>17820</v>
@@ -44433,7 +45630,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="187">
         <v>12100</v>
@@ -44462,7 +45659,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="187">
         <v>4350</v>
@@ -44491,7 +45688,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="187">
         <v>1230</v>
@@ -44520,7 +45717,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="186" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="187">
         <v>140</v>
@@ -44549,7 +45746,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="187">
         <v>2.2999999999999998</v>
@@ -44578,7 +45775,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="187">
         <v>17822.3</v>
@@ -44607,7 +45804,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="187">
         <v>11206</v>
@@ -44635,17 +45832,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="240"/>
+      <c r="A16" s="246" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -44669,54 +45866,54 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="249" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="249" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="241" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="241" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="241" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="241" t="s">
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="241" t="s">
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="249" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="241" t="s">
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="242"/>
-      <c r="U1" s="98" t="s">
+      <c r="V1" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="241" t="s">
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="249"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="98" t="s">
         <v>85</v>
-      </c>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="241"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="98" t="s">
-        <v>86</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>28</v>
@@ -44728,63 +45925,63 @@
         <v>16</v>
       </c>
       <c r="G2" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="I2" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="J2" s="98" t="s">
         <v>89</v>
-      </c>
-      <c r="J2" s="98" t="s">
-        <v>90</v>
       </c>
       <c r="K2" s="98" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="98" t="s">
         <v>91</v>
-      </c>
-      <c r="M2" s="98" t="s">
-        <v>92</v>
       </c>
       <c r="N2" s="98" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="Q2" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="R2" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="S2" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="T2" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="98" t="s">
+      <c r="U2" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="98" t="s">
+      <c r="V2" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="98" t="s">
+      <c r="W2" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="98" t="s">
+      <c r="X2" s="98" t="s">
         <v>101</v>
-      </c>
-      <c r="X2" s="98" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="99">
         <v>827.55</v>
@@ -44848,7 +46045,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="99">
         <v>844.94</v>
@@ -44912,7 +46109,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="99">
         <v>839.48</v>
@@ -44976,7 +46173,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="99">
         <v>815.08</v>
@@ -45040,7 +46237,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="99">
         <v>742.98</v>

--- a/report/CornData.xlsx
+++ b/report/CornData.xlsx
@@ -1536,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2128,13 +2128,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2349,6 +2351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2964,8 +2967,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1875742032"/>
-        <c:axId val="-1875745840"/>
+        <c:axId val="-312453408"/>
+        <c:axId val="-312451776"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3550,11 +3553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-1875740944"/>
-        <c:axId val="-1875748016"/>
+        <c:axId val="-312441440"/>
+        <c:axId val="-312449056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1875742032"/>
+        <c:axId val="-312453408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,7 +3600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875745840"/>
+        <c:crossAx val="-312451776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3605,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1875745840"/>
+        <c:axId val="-312451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -3657,12 +3660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875742032"/>
+        <c:crossAx val="-312453408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1875748016"/>
+        <c:axId val="-312449056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,12 +3702,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875740944"/>
+        <c:crossAx val="-312441440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1875740944"/>
+        <c:axId val="-312441440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1875748016"/>
+        <c:crossAx val="-312449056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3731,6 +3734,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3851,7 +3855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4771,8 +4774,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1875738224"/>
-        <c:axId val="-1875750736"/>
+        <c:axId val="-312448512"/>
+        <c:axId val="-312450688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5203,11 +5206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1875744752"/>
-        <c:axId val="-1875749104"/>
+        <c:axId val="-312447424"/>
+        <c:axId val="-312447968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1875738224"/>
+        <c:axId val="-312448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875750736"/>
+        <c:crossAx val="-312450688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5255,7 +5258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1875750736"/>
+        <c:axId val="-312450688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,12 +5306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875738224"/>
+        <c:crossAx val="-312448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1875749104"/>
+        <c:axId val="-312447968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -5343,12 +5346,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875744752"/>
+        <c:crossAx val="-312447424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1875744752"/>
+        <c:axId val="-312447424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,7 +5361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1875749104"/>
+        <c:crossAx val="-312447968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5375,7 +5378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5501,7 +5503,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5983,8 +5984,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1875739312"/>
-        <c:axId val="-1875738768"/>
+        <c:axId val="-312446336"/>
+        <c:axId val="-312443616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6415,11 +6416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1961258624"/>
-        <c:axId val="-1875737136"/>
+        <c:axId val="-312440352"/>
+        <c:axId val="-312439264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1875739312"/>
+        <c:axId val="-312446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,7 +6460,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875738768"/>
+        <c:crossAx val="-312443616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6467,7 +6468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1875738768"/>
+        <c:axId val="-312443616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,12 +6516,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1875739312"/>
+        <c:crossAx val="-312446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1875737136"/>
+        <c:axId val="-312439264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -6555,12 +6556,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1961258624"/>
+        <c:crossAx val="-312440352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1961258624"/>
+        <c:axId val="-312440352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1875737136"/>
+        <c:crossAx val="-312439264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6586,7 +6587,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6704,7 +6704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7624,8 +7623,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1802804640"/>
-        <c:axId val="-1802806816"/>
+        <c:axId val="-312439808"/>
+        <c:axId val="-397855392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8056,11 +8055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1802804096"/>
-        <c:axId val="-1802803008"/>
+        <c:axId val="-238810800"/>
+        <c:axId val="-238806992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1802804640"/>
+        <c:axId val="-312439808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8100,7 +8099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802806816"/>
+        <c:crossAx val="-397855392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8108,7 +8107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1802806816"/>
+        <c:axId val="-397855392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8156,12 +8155,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802804640"/>
+        <c:crossAx val="-312439808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1802803008"/>
+        <c:axId val="-238806992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,12 +8194,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802804096"/>
+        <c:crossAx val="-238810800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1802804096"/>
+        <c:axId val="-238810800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8210,7 +8209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1802803008"/>
+        <c:crossAx val="-238806992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8226,7 +8225,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8336,7 +8334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8698,8 +8695,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1802803552"/>
-        <c:axId val="-1802811712"/>
+        <c:axId val="-238813520"/>
+        <c:axId val="-238812976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9130,11 +9127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1802799744"/>
-        <c:axId val="-1802800832"/>
+        <c:axId val="-238820592"/>
+        <c:axId val="-238806448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1802803552"/>
+        <c:axId val="-238813520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,7 +9171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802811712"/>
+        <c:crossAx val="-238812976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9182,7 +9179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1802811712"/>
+        <c:axId val="-238812976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9230,12 +9227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802803552"/>
+        <c:crossAx val="-238813520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1802800832"/>
+        <c:axId val="-238806448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9269,12 +9266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1802799744"/>
+        <c:crossAx val="-238820592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1802799744"/>
+        <c:axId val="-238820592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9284,7 +9281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1802800832"/>
+        <c:crossAx val="-238806448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9300,7 +9297,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12601,13 +12597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1512"/>
+  <dimension ref="A1:X1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1511" sqref="D1511"/>
+      <selection pane="bottomRight" activeCell="B1512" sqref="B1512:D1513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27125,6 +27121,20 @@
         <v>1540</v>
       </c>
     </row>
+    <row r="1513" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1513" s="165">
+        <v>43362</v>
+      </c>
+      <c r="B1513" s="166">
+        <v>1770</v>
+      </c>
+      <c r="C1513" s="166">
+        <v>1755</v>
+      </c>
+      <c r="D1513" s="158">
+        <v>1920</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27134,12 +27144,4141 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="218">
+        <v>36800</v>
+      </c>
+      <c r="B1">
+        <f>WEEKNUM(A1)</f>
+        <v>41</v>
+      </c>
+      <c r="C1" s="218">
+        <v>36891</v>
+      </c>
+      <c r="D1">
+        <f>C1-A1</f>
+        <v>91</v>
+      </c>
+      <c r="E1">
+        <f>WEEKNUM(C1)</f>
+        <v>54</v>
+      </c>
+      <c r="F1">
+        <f>E1-B1</f>
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="218">
+        <f>$H$5+I1*7</f>
+        <v>37172</v>
+      </c>
+      <c r="K1">
+        <f>WEEKNUM(J1)</f>
+        <v>41</v>
+      </c>
+      <c r="L1" s="218">
+        <v>36526</v>
+      </c>
+      <c r="M1">
+        <f>WEEKNUM(L1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="218">
+        <v>37165</v>
+      </c>
+      <c r="B2" s="217">
+        <f t="shared" ref="B2:B65" si="0">WEEKNUM(A2)</f>
+        <v>40</v>
+      </c>
+      <c r="C2" s="218">
+        <v>37256</v>
+      </c>
+      <c r="D2" s="217">
+        <f t="shared" ref="D2:D65" si="1">C2-A2</f>
+        <v>91</v>
+      </c>
+      <c r="E2" s="217">
+        <f t="shared" ref="E2:E65" si="2">WEEKNUM(C2)</f>
+        <v>53</v>
+      </c>
+      <c r="F2" s="217">
+        <f t="shared" ref="F2:F65" si="3">E2-B2</f>
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="218">
+        <f t="shared" ref="J2:J52" si="4">$H$5+I2*7</f>
+        <v>37179</v>
+      </c>
+      <c r="K2" s="217">
+        <f t="shared" ref="K2:K65" si="5">WEEKNUM(J2)</f>
+        <v>42</v>
+      </c>
+      <c r="L2" s="218">
+        <v>36892</v>
+      </c>
+      <c r="M2" s="217">
+        <f t="shared" ref="M2:M65" si="6">WEEKNUM(L2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="218">
+        <v>37530</v>
+      </c>
+      <c r="B3" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C3" s="218">
+        <v>37621</v>
+      </c>
+      <c r="D3" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E3" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F3" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="217">
+        <v>3</v>
+      </c>
+      <c r="J3" s="218">
+        <f t="shared" si="4"/>
+        <v>37186</v>
+      </c>
+      <c r="K3" s="217">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="L3" s="218">
+        <v>37257</v>
+      </c>
+      <c r="M3" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="218">
+        <v>37895</v>
+      </c>
+      <c r="B4" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="218">
+        <v>37986</v>
+      </c>
+      <c r="D4" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E4" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F4" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="217">
+        <v>4</v>
+      </c>
+      <c r="J4" s="218">
+        <f t="shared" si="4"/>
+        <v>37193</v>
+      </c>
+      <c r="K4" s="217">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="L4" s="218">
+        <v>37622</v>
+      </c>
+      <c r="M4" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="218">
+        <v>38261</v>
+      </c>
+      <c r="B5" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="218">
+        <v>38352</v>
+      </c>
+      <c r="D5" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E5" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H5" s="218">
+        <v>37165</v>
+      </c>
+      <c r="I5" s="217">
+        <v>5</v>
+      </c>
+      <c r="J5" s="218">
+        <f t="shared" si="4"/>
+        <v>37200</v>
+      </c>
+      <c r="K5" s="217">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="218">
+        <v>37987</v>
+      </c>
+      <c r="M5" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="218">
+        <v>38626</v>
+      </c>
+      <c r="B6" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="218">
+        <v>38717</v>
+      </c>
+      <c r="D6" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E6" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F6" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="217">
+        <v>6</v>
+      </c>
+      <c r="J6" s="218">
+        <f t="shared" si="4"/>
+        <v>37207</v>
+      </c>
+      <c r="K6" s="217">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="L6" s="218">
+        <v>38353</v>
+      </c>
+      <c r="M6" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="218">
+        <v>38991</v>
+      </c>
+      <c r="B7" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="218">
+        <v>39082</v>
+      </c>
+      <c r="D7" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E7" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F7" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="217">
+        <v>7</v>
+      </c>
+      <c r="J7" s="218">
+        <f t="shared" si="4"/>
+        <v>37214</v>
+      </c>
+      <c r="K7" s="217">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="L7" s="218">
+        <v>38718</v>
+      </c>
+      <c r="M7" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="218">
+        <v>39356</v>
+      </c>
+      <c r="B8" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="218">
+        <v>39447</v>
+      </c>
+      <c r="D8" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E8" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F8" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="217">
+        <v>8</v>
+      </c>
+      <c r="J8" s="218">
+        <f t="shared" si="4"/>
+        <v>37221</v>
+      </c>
+      <c r="K8" s="217">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="L8" s="218">
+        <v>39083</v>
+      </c>
+      <c r="M8" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="218">
+        <v>39722</v>
+      </c>
+      <c r="B9" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="218">
+        <v>39813</v>
+      </c>
+      <c r="D9" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E9" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F9" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I9" s="217">
+        <v>9</v>
+      </c>
+      <c r="J9" s="218">
+        <f t="shared" si="4"/>
+        <v>37228</v>
+      </c>
+      <c r="K9" s="217">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="L9" s="218">
+        <v>39448</v>
+      </c>
+      <c r="M9" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="218">
+        <v>40087</v>
+      </c>
+      <c r="B10" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="218">
+        <v>40178</v>
+      </c>
+      <c r="D10" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E10" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F10" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="217">
+        <v>10</v>
+      </c>
+      <c r="J10" s="218">
+        <f t="shared" si="4"/>
+        <v>37235</v>
+      </c>
+      <c r="K10" s="217">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="L10" s="218">
+        <v>39814</v>
+      </c>
+      <c r="M10" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="218">
+        <v>40452</v>
+      </c>
+      <c r="B11" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="218">
+        <v>40543</v>
+      </c>
+      <c r="D11" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F11" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="217">
+        <v>11</v>
+      </c>
+      <c r="J11" s="218">
+        <f t="shared" si="4"/>
+        <v>37242</v>
+      </c>
+      <c r="K11" s="217">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="L11" s="218">
+        <v>40179</v>
+      </c>
+      <c r="M11" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="218">
+        <v>40817</v>
+      </c>
+      <c r="B12" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="218">
+        <v>40908</v>
+      </c>
+      <c r="D12" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E12" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F12" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I12" s="217">
+        <v>12</v>
+      </c>
+      <c r="J12" s="218">
+        <f t="shared" si="4"/>
+        <v>37249</v>
+      </c>
+      <c r="K12" s="217">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="L12" s="218">
+        <v>40544</v>
+      </c>
+      <c r="M12" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="218">
+        <v>41183</v>
+      </c>
+      <c r="B13" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="218">
+        <v>41274</v>
+      </c>
+      <c r="D13" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E13" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F13" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="217">
+        <v>13</v>
+      </c>
+      <c r="J13" s="218">
+        <f t="shared" si="4"/>
+        <v>37256</v>
+      </c>
+      <c r="K13" s="217">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="L13" s="218">
+        <v>40909</v>
+      </c>
+      <c r="M13" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="218">
+        <v>41548</v>
+      </c>
+      <c r="B14" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="218">
+        <v>41639</v>
+      </c>
+      <c r="D14" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E14" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F14" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I14" s="217">
+        <v>14</v>
+      </c>
+      <c r="J14" s="218">
+        <f t="shared" si="4"/>
+        <v>37263</v>
+      </c>
+      <c r="K14" s="217">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="218">
+        <v>41275</v>
+      </c>
+      <c r="M14" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="218">
+        <v>41913</v>
+      </c>
+      <c r="B15" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="218">
+        <v>42004</v>
+      </c>
+      <c r="D15" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E15" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F15" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="217">
+        <v>15</v>
+      </c>
+      <c r="J15" s="218">
+        <f t="shared" si="4"/>
+        <v>37270</v>
+      </c>
+      <c r="K15" s="217">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="218">
+        <v>41640</v>
+      </c>
+      <c r="M15" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="218">
+        <v>42278</v>
+      </c>
+      <c r="B16" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="218">
+        <v>42369</v>
+      </c>
+      <c r="D16" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E16" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F16" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I16" s="217">
+        <v>16</v>
+      </c>
+      <c r="J16" s="218">
+        <f t="shared" si="4"/>
+        <v>37277</v>
+      </c>
+      <c r="K16" s="217">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L16" s="218">
+        <v>42005</v>
+      </c>
+      <c r="M16" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="218">
+        <v>42644</v>
+      </c>
+      <c r="B17" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="218">
+        <v>42735</v>
+      </c>
+      <c r="D17" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E17" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F17" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="217">
+        <v>17</v>
+      </c>
+      <c r="J17" s="218">
+        <f t="shared" si="4"/>
+        <v>37284</v>
+      </c>
+      <c r="K17" s="217">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="218">
+        <v>42370</v>
+      </c>
+      <c r="M17" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="218">
+        <v>43009</v>
+      </c>
+      <c r="B18" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="218">
+        <v>43100</v>
+      </c>
+      <c r="D18" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E18" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F18" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="217">
+        <v>18</v>
+      </c>
+      <c r="J18" s="218">
+        <f t="shared" si="4"/>
+        <v>37291</v>
+      </c>
+      <c r="K18" s="217">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="218">
+        <v>42736</v>
+      </c>
+      <c r="M18" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="218">
+        <v>43374</v>
+      </c>
+      <c r="B19" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C19" s="218">
+        <v>43465</v>
+      </c>
+      <c r="D19" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E19" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F19" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="217">
+        <v>19</v>
+      </c>
+      <c r="J19" s="218">
+        <f t="shared" si="4"/>
+        <v>37298</v>
+      </c>
+      <c r="K19" s="217">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L19" s="218">
+        <v>43101</v>
+      </c>
+      <c r="M19" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="218">
+        <v>43739</v>
+      </c>
+      <c r="B20" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="218">
+        <v>43830</v>
+      </c>
+      <c r="D20" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E20" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F20" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I20" s="217">
+        <v>20</v>
+      </c>
+      <c r="J20" s="218">
+        <f t="shared" si="4"/>
+        <v>37305</v>
+      </c>
+      <c r="K20" s="217">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L20" s="218">
+        <v>43466</v>
+      </c>
+      <c r="M20" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="218">
+        <v>44105</v>
+      </c>
+      <c r="B21" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="218">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E21" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="217">
+        <v>21</v>
+      </c>
+      <c r="J21" s="218">
+        <f t="shared" si="4"/>
+        <v>37312</v>
+      </c>
+      <c r="K21" s="217">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L21" s="218">
+        <v>43831</v>
+      </c>
+      <c r="M21" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="218">
+        <v>44470</v>
+      </c>
+      <c r="B22" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="218">
+        <v>44561</v>
+      </c>
+      <c r="D22" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E22" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I22" s="217">
+        <v>22</v>
+      </c>
+      <c r="J22" s="218">
+        <f t="shared" si="4"/>
+        <v>37319</v>
+      </c>
+      <c r="K22" s="217">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L22" s="218">
+        <v>44197</v>
+      </c>
+      <c r="M22" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="218">
+        <v>44835</v>
+      </c>
+      <c r="B23" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C23" s="218">
+        <v>44926</v>
+      </c>
+      <c r="D23" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E23" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F23" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I23" s="217">
+        <v>23</v>
+      </c>
+      <c r="J23" s="218">
+        <f t="shared" si="4"/>
+        <v>37326</v>
+      </c>
+      <c r="K23" s="217">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L23" s="218">
+        <v>44562</v>
+      </c>
+      <c r="M23" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="218">
+        <v>45200</v>
+      </c>
+      <c r="B24" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C24" s="218">
+        <v>45291</v>
+      </c>
+      <c r="D24" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E24" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F24" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="217">
+        <v>24</v>
+      </c>
+      <c r="J24" s="218">
+        <f t="shared" si="4"/>
+        <v>37333</v>
+      </c>
+      <c r="K24" s="217">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L24" s="218">
+        <v>44927</v>
+      </c>
+      <c r="M24" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="218">
+        <v>45566</v>
+      </c>
+      <c r="B25" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="218">
+        <v>45657</v>
+      </c>
+      <c r="D25" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E25" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F25" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I25" s="217">
+        <v>25</v>
+      </c>
+      <c r="J25" s="218">
+        <f t="shared" si="4"/>
+        <v>37340</v>
+      </c>
+      <c r="K25" s="217">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L25" s="218">
+        <v>45292</v>
+      </c>
+      <c r="M25" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="218">
+        <v>45931</v>
+      </c>
+      <c r="B26" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="218">
+        <v>46022</v>
+      </c>
+      <c r="D26" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E26" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F26" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I26" s="217">
+        <v>26</v>
+      </c>
+      <c r="J26" s="218">
+        <f t="shared" si="4"/>
+        <v>37347</v>
+      </c>
+      <c r="K26" s="217">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="L26" s="218">
+        <v>45658</v>
+      </c>
+      <c r="M26" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="218">
+        <v>46296</v>
+      </c>
+      <c r="B27" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C27" s="218">
+        <v>46387</v>
+      </c>
+      <c r="D27" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E27" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I27" s="217">
+        <v>27</v>
+      </c>
+      <c r="J27" s="218">
+        <f t="shared" si="4"/>
+        <v>37354</v>
+      </c>
+      <c r="K27" s="217">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L27" s="218">
+        <v>46023</v>
+      </c>
+      <c r="M27" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="218">
+        <v>46661</v>
+      </c>
+      <c r="B28" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="218">
+        <v>46752</v>
+      </c>
+      <c r="D28" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E28" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F28" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I28" s="217">
+        <v>28</v>
+      </c>
+      <c r="J28" s="218">
+        <f t="shared" si="4"/>
+        <v>37361</v>
+      </c>
+      <c r="K28" s="217">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="L28" s="218">
+        <v>46388</v>
+      </c>
+      <c r="M28" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="218">
+        <v>47027</v>
+      </c>
+      <c r="B29" s="217">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="218">
+        <v>47118</v>
+      </c>
+      <c r="D29" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E29" s="217">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F29" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I29" s="217">
+        <v>29</v>
+      </c>
+      <c r="J29" s="218">
+        <f t="shared" si="4"/>
+        <v>37368</v>
+      </c>
+      <c r="K29" s="217">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L29" s="218">
+        <v>46753</v>
+      </c>
+      <c r="M29" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="218">
+        <v>47392</v>
+      </c>
+      <c r="B30" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C30" s="218">
+        <v>47483</v>
+      </c>
+      <c r="D30" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E30" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F30" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I30" s="217">
+        <v>30</v>
+      </c>
+      <c r="J30" s="218">
+        <f t="shared" si="4"/>
+        <v>37375</v>
+      </c>
+      <c r="K30" s="217">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="L30" s="218">
+        <v>47119</v>
+      </c>
+      <c r="M30" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="218">
+        <v>47757</v>
+      </c>
+      <c r="B31" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C31" s="218">
+        <v>47848</v>
+      </c>
+      <c r="D31" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E31" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F31" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I31" s="217">
+        <v>31</v>
+      </c>
+      <c r="J31" s="218">
+        <f t="shared" si="4"/>
+        <v>37382</v>
+      </c>
+      <c r="K31" s="217">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L31" s="218">
+        <v>47484</v>
+      </c>
+      <c r="M31" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="218">
+        <v>48122</v>
+      </c>
+      <c r="B32" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C32" s="218">
+        <v>48213</v>
+      </c>
+      <c r="D32" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F32" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="217">
+        <v>32</v>
+      </c>
+      <c r="J32" s="218">
+        <f t="shared" si="4"/>
+        <v>37389</v>
+      </c>
+      <c r="K32" s="217">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L32" s="218">
+        <v>47849</v>
+      </c>
+      <c r="M32" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="218">
+        <v>48488</v>
+      </c>
+      <c r="B33" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="218">
+        <v>48579</v>
+      </c>
+      <c r="D33" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E33" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F33" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I33" s="217">
+        <v>33</v>
+      </c>
+      <c r="J33" s="218">
+        <f t="shared" si="4"/>
+        <v>37396</v>
+      </c>
+      <c r="K33" s="217">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L33" s="218">
+        <v>48214</v>
+      </c>
+      <c r="M33" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="218">
+        <v>48853</v>
+      </c>
+      <c r="B34" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C34" s="218">
+        <v>48944</v>
+      </c>
+      <c r="D34" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E34" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F34" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I34" s="217">
+        <v>34</v>
+      </c>
+      <c r="J34" s="218">
+        <f t="shared" si="4"/>
+        <v>37403</v>
+      </c>
+      <c r="K34" s="217">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L34" s="218">
+        <v>48580</v>
+      </c>
+      <c r="M34" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="218">
+        <v>49218</v>
+      </c>
+      <c r="B35" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="218">
+        <v>49309</v>
+      </c>
+      <c r="D35" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E35" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F35" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I35" s="217">
+        <v>35</v>
+      </c>
+      <c r="J35" s="218">
+        <f t="shared" si="4"/>
+        <v>37410</v>
+      </c>
+      <c r="K35" s="217">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L35" s="218">
+        <v>48945</v>
+      </c>
+      <c r="M35" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="218">
+        <v>49583</v>
+      </c>
+      <c r="B36" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C36" s="218">
+        <v>49674</v>
+      </c>
+      <c r="D36" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E36" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F36" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I36" s="217">
+        <v>36</v>
+      </c>
+      <c r="J36" s="218">
+        <f t="shared" si="4"/>
+        <v>37417</v>
+      </c>
+      <c r="K36" s="217">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L36" s="218">
+        <v>49310</v>
+      </c>
+      <c r="M36" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="218">
+        <v>49949</v>
+      </c>
+      <c r="B37" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C37" s="218">
+        <v>50040</v>
+      </c>
+      <c r="D37" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E37" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F37" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I37" s="217">
+        <v>37</v>
+      </c>
+      <c r="J37" s="218">
+        <f t="shared" si="4"/>
+        <v>37424</v>
+      </c>
+      <c r="K37" s="217">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L37" s="218">
+        <v>49675</v>
+      </c>
+      <c r="M37" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="218">
+        <v>50314</v>
+      </c>
+      <c r="B38" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C38" s="218">
+        <v>50405</v>
+      </c>
+      <c r="D38" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E38" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F38" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I38" s="217">
+        <v>38</v>
+      </c>
+      <c r="J38" s="218">
+        <f t="shared" si="4"/>
+        <v>37431</v>
+      </c>
+      <c r="K38" s="217">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="L38" s="218">
+        <v>50041</v>
+      </c>
+      <c r="M38" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="218">
+        <v>50679</v>
+      </c>
+      <c r="B39" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="218">
+        <v>50770</v>
+      </c>
+      <c r="D39" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E39" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F39" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I39" s="217">
+        <v>39</v>
+      </c>
+      <c r="J39" s="218">
+        <f t="shared" si="4"/>
+        <v>37438</v>
+      </c>
+      <c r="K39" s="217">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="L39" s="218">
+        <v>50406</v>
+      </c>
+      <c r="M39" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="218">
+        <v>51044</v>
+      </c>
+      <c r="B40" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C40" s="218">
+        <v>51135</v>
+      </c>
+      <c r="D40" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E40" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F40" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I40" s="217">
+        <v>40</v>
+      </c>
+      <c r="J40" s="218">
+        <f t="shared" si="4"/>
+        <v>37445</v>
+      </c>
+      <c r="K40" s="217">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L40" s="218">
+        <v>50771</v>
+      </c>
+      <c r="M40" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="218">
+        <v>51410</v>
+      </c>
+      <c r="B41" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="218">
+        <v>51501</v>
+      </c>
+      <c r="D41" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E41" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F41" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I41" s="217">
+        <v>41</v>
+      </c>
+      <c r="J41" s="218">
+        <f t="shared" si="4"/>
+        <v>37452</v>
+      </c>
+      <c r="K41" s="217">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="L41" s="218">
+        <v>51136</v>
+      </c>
+      <c r="M41" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="218">
+        <v>51775</v>
+      </c>
+      <c r="B42" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="218">
+        <v>51866</v>
+      </c>
+      <c r="D42" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E42" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F42" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I42" s="217">
+        <v>42</v>
+      </c>
+      <c r="J42" s="218">
+        <f t="shared" si="4"/>
+        <v>37459</v>
+      </c>
+      <c r="K42" s="217">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L42" s="218">
+        <v>51502</v>
+      </c>
+      <c r="M42" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="218">
+        <v>52140</v>
+      </c>
+      <c r="B43" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="218">
+        <v>52231</v>
+      </c>
+      <c r="D43" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E43" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F43" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I43" s="217">
+        <v>43</v>
+      </c>
+      <c r="J43" s="218">
+        <f t="shared" si="4"/>
+        <v>37466</v>
+      </c>
+      <c r="K43" s="217">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="L43" s="218">
+        <v>51867</v>
+      </c>
+      <c r="M43" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="218">
+        <v>52505</v>
+      </c>
+      <c r="B44" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="218">
+        <v>52596</v>
+      </c>
+      <c r="D44" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E44" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F44" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I44" s="217">
+        <v>44</v>
+      </c>
+      <c r="J44" s="218">
+        <f t="shared" si="4"/>
+        <v>37473</v>
+      </c>
+      <c r="K44" s="217">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="L44" s="218">
+        <v>52232</v>
+      </c>
+      <c r="M44" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="218">
+        <v>52871</v>
+      </c>
+      <c r="B45" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="218">
+        <v>52962</v>
+      </c>
+      <c r="D45" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E45" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F45" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I45" s="217">
+        <v>45</v>
+      </c>
+      <c r="J45" s="218">
+        <f t="shared" si="4"/>
+        <v>37480</v>
+      </c>
+      <c r="K45" s="217">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L45" s="218">
+        <v>52597</v>
+      </c>
+      <c r="M45" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="218">
+        <v>53236</v>
+      </c>
+      <c r="B46" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="218">
+        <v>53327</v>
+      </c>
+      <c r="D46" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E46" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F46" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I46" s="217">
+        <v>46</v>
+      </c>
+      <c r="J46" s="218">
+        <f t="shared" si="4"/>
+        <v>37487</v>
+      </c>
+      <c r="K46" s="217">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L46" s="218">
+        <v>52963</v>
+      </c>
+      <c r="M46" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="218">
+        <v>53601</v>
+      </c>
+      <c r="B47" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C47" s="218">
+        <v>53692</v>
+      </c>
+      <c r="D47" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E47" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F47" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I47" s="217">
+        <v>47</v>
+      </c>
+      <c r="J47" s="218">
+        <f t="shared" si="4"/>
+        <v>37494</v>
+      </c>
+      <c r="K47" s="217">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="L47" s="218">
+        <v>53328</v>
+      </c>
+      <c r="M47" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="218">
+        <v>53966</v>
+      </c>
+      <c r="B48" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="218">
+        <v>54057</v>
+      </c>
+      <c r="D48" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E48" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F48" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I48" s="217">
+        <v>48</v>
+      </c>
+      <c r="J48" s="218">
+        <f t="shared" si="4"/>
+        <v>37501</v>
+      </c>
+      <c r="K48" s="217">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L48" s="218">
+        <v>53693</v>
+      </c>
+      <c r="M48" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="218">
+        <v>54332</v>
+      </c>
+      <c r="B49" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="218">
+        <v>54423</v>
+      </c>
+      <c r="D49" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E49" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F49" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I49" s="217">
+        <v>49</v>
+      </c>
+      <c r="J49" s="218">
+        <f t="shared" si="4"/>
+        <v>37508</v>
+      </c>
+      <c r="K49" s="217">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="L49" s="218">
+        <v>54058</v>
+      </c>
+      <c r="M49" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="218">
+        <v>54697</v>
+      </c>
+      <c r="B50" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="218">
+        <v>54788</v>
+      </c>
+      <c r="D50" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E50" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F50" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I50" s="217">
+        <v>50</v>
+      </c>
+      <c r="J50" s="218">
+        <f t="shared" si="4"/>
+        <v>37515</v>
+      </c>
+      <c r="K50" s="217">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="L50" s="218">
+        <v>54424</v>
+      </c>
+      <c r="M50" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="218">
+        <v>55062</v>
+      </c>
+      <c r="B51" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C51" s="218">
+        <v>55153</v>
+      </c>
+      <c r="D51" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E51" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F51" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I51" s="217">
+        <v>51</v>
+      </c>
+      <c r="J51" s="218">
+        <f t="shared" si="4"/>
+        <v>37522</v>
+      </c>
+      <c r="K51" s="217">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="L51" s="218">
+        <v>54789</v>
+      </c>
+      <c r="M51" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="218">
+        <v>55427</v>
+      </c>
+      <c r="B52" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C52" s="218">
+        <v>55518</v>
+      </c>
+      <c r="D52" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E52" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F52" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I52" s="217">
+        <v>52</v>
+      </c>
+      <c r="J52" s="218">
+        <f t="shared" si="4"/>
+        <v>37529</v>
+      </c>
+      <c r="K52" s="217">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L52" s="218">
+        <v>55154</v>
+      </c>
+      <c r="M52" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="218">
+        <v>55793</v>
+      </c>
+      <c r="B53" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C53" s="218">
+        <v>55884</v>
+      </c>
+      <c r="D53" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E53" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F53" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I53" s="217"/>
+      <c r="J53" s="218"/>
+      <c r="K53" s="217"/>
+      <c r="L53" s="218">
+        <v>55519</v>
+      </c>
+      <c r="M53" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="218">
+        <v>56158</v>
+      </c>
+      <c r="B54" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C54" s="218">
+        <v>56249</v>
+      </c>
+      <c r="D54" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E54" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F54" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K54" s="217"/>
+      <c r="L54" s="218">
+        <v>55885</v>
+      </c>
+      <c r="M54" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="218">
+        <v>56523</v>
+      </c>
+      <c r="B55" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C55" s="218">
+        <v>56614</v>
+      </c>
+      <c r="D55" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E55" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F55" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K55" s="217"/>
+      <c r="L55" s="218">
+        <v>56250</v>
+      </c>
+      <c r="M55" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="218">
+        <v>56888</v>
+      </c>
+      <c r="B56" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C56" s="218">
+        <v>56979</v>
+      </c>
+      <c r="D56" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E56" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F56" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K56" s="217"/>
+      <c r="L56" s="218">
+        <v>56615</v>
+      </c>
+      <c r="M56" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="218">
+        <v>57254</v>
+      </c>
+      <c r="B57" s="217">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C57" s="218">
+        <v>57345</v>
+      </c>
+      <c r="D57" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E57" s="217">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F57" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K57" s="217"/>
+      <c r="L57" s="218">
+        <v>56980</v>
+      </c>
+      <c r="M57" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="218">
+        <v>57619</v>
+      </c>
+      <c r="B58" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C58" s="218">
+        <v>57710</v>
+      </c>
+      <c r="D58" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E58" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F58" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K58" s="217"/>
+      <c r="L58" s="218">
+        <v>57346</v>
+      </c>
+      <c r="M58" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="218">
+        <v>57984</v>
+      </c>
+      <c r="B59" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C59" s="218">
+        <v>58075</v>
+      </c>
+      <c r="D59" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E59" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F59" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K59" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="218">
+        <v>57711</v>
+      </c>
+      <c r="M59" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="218">
+        <v>58349</v>
+      </c>
+      <c r="B60" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C60" s="218">
+        <v>58440</v>
+      </c>
+      <c r="D60" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E60" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F60" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K60" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="218">
+        <v>58076</v>
+      </c>
+      <c r="M60" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="218">
+        <v>58715</v>
+      </c>
+      <c r="B61" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C61" s="218">
+        <v>58806</v>
+      </c>
+      <c r="D61" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E61" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F61" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K61" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="218">
+        <v>58441</v>
+      </c>
+      <c r="M61" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="218">
+        <v>59080</v>
+      </c>
+      <c r="B62" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C62" s="218">
+        <v>59171</v>
+      </c>
+      <c r="D62" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E62" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F62" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K62" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="218">
+        <v>58807</v>
+      </c>
+      <c r="M62" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="218">
+        <v>59445</v>
+      </c>
+      <c r="B63" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C63" s="218">
+        <v>59536</v>
+      </c>
+      <c r="D63" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E63" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F63" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K63" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="218">
+        <v>59172</v>
+      </c>
+      <c r="M63" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="218">
+        <v>59810</v>
+      </c>
+      <c r="B64" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C64" s="218">
+        <v>59901</v>
+      </c>
+      <c r="D64" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E64" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F64" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K64" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="218">
+        <v>59537</v>
+      </c>
+      <c r="M64" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="218">
+        <v>60176</v>
+      </c>
+      <c r="B65" s="217">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C65" s="218">
+        <v>60267</v>
+      </c>
+      <c r="D65" s="217">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E65" s="217">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F65" s="217">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K65" s="217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="218">
+        <v>59902</v>
+      </c>
+      <c r="M65" s="217">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="218">
+        <v>60541</v>
+      </c>
+      <c r="B66" s="217">
+        <f t="shared" ref="B66:B113" si="7">WEEKNUM(A66)</f>
+        <v>40</v>
+      </c>
+      <c r="C66" s="218">
+        <v>60632</v>
+      </c>
+      <c r="D66" s="217">
+        <f t="shared" ref="D66:D113" si="8">C66-A66</f>
+        <v>91</v>
+      </c>
+      <c r="E66" s="217">
+        <f t="shared" ref="E66:E113" si="9">WEEKNUM(C66)</f>
+        <v>53</v>
+      </c>
+      <c r="F66" s="217">
+        <f t="shared" ref="F66:F113" si="10">E66-B66</f>
+        <v>13</v>
+      </c>
+      <c r="K66" s="217">
+        <f t="shared" ref="K66:K96" si="11">WEEKNUM(J66)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="218">
+        <v>60268</v>
+      </c>
+      <c r="M66" s="217">
+        <f t="shared" ref="M66:M96" si="12">WEEKNUM(L66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="218">
+        <v>60906</v>
+      </c>
+      <c r="B67" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C67" s="218">
+        <v>60997</v>
+      </c>
+      <c r="D67" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E67" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F67" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K67" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="218">
+        <v>60633</v>
+      </c>
+      <c r="M67" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="218">
+        <v>61271</v>
+      </c>
+      <c r="B68" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C68" s="218">
+        <v>61362</v>
+      </c>
+      <c r="D68" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E68" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F68" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K68" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="218">
+        <v>60998</v>
+      </c>
+      <c r="M68" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="218">
+        <v>61637</v>
+      </c>
+      <c r="B69" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C69" s="218">
+        <v>61728</v>
+      </c>
+      <c r="D69" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E69" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F69" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K69" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="218">
+        <v>61363</v>
+      </c>
+      <c r="M69" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="218">
+        <v>62002</v>
+      </c>
+      <c r="B70" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C70" s="218">
+        <v>62093</v>
+      </c>
+      <c r="D70" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E70" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F70" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K70" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="218">
+        <v>61729</v>
+      </c>
+      <c r="M70" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="218">
+        <v>62367</v>
+      </c>
+      <c r="B71" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C71" s="218">
+        <v>62458</v>
+      </c>
+      <c r="D71" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E71" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F71" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K71" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="218">
+        <v>62094</v>
+      </c>
+      <c r="M71" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="218">
+        <v>62732</v>
+      </c>
+      <c r="B72" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C72" s="218">
+        <v>62823</v>
+      </c>
+      <c r="D72" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E72" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F72" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K72" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="218">
+        <v>62459</v>
+      </c>
+      <c r="M72" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="218">
+        <v>63098</v>
+      </c>
+      <c r="B73" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C73" s="218">
+        <v>63189</v>
+      </c>
+      <c r="D73" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E73" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F73" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K73" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="218">
+        <v>62824</v>
+      </c>
+      <c r="M73" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="218">
+        <v>63463</v>
+      </c>
+      <c r="B74" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C74" s="218">
+        <v>63554</v>
+      </c>
+      <c r="D74" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E74" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F74" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K74" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="218">
+        <v>63190</v>
+      </c>
+      <c r="M74" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" s="218">
+        <v>63828</v>
+      </c>
+      <c r="B75" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C75" s="218">
+        <v>63919</v>
+      </c>
+      <c r="D75" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E75" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F75" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K75" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="218">
+        <v>63555</v>
+      </c>
+      <c r="M75" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="218">
+        <v>64193</v>
+      </c>
+      <c r="B76" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C76" s="218">
+        <v>64284</v>
+      </c>
+      <c r="D76" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E76" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F76" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K76" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="218">
+        <v>63920</v>
+      </c>
+      <c r="M76" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" s="218">
+        <v>64559</v>
+      </c>
+      <c r="B77" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C77" s="218">
+        <v>64650</v>
+      </c>
+      <c r="D77" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E77" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F77" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K77" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="218">
+        <v>64285</v>
+      </c>
+      <c r="M77" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="218">
+        <v>64924</v>
+      </c>
+      <c r="B78" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C78" s="218">
+        <v>65015</v>
+      </c>
+      <c r="D78" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E78" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F78" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K78" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="218">
+        <v>64651</v>
+      </c>
+      <c r="M78" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="218">
+        <v>65289</v>
+      </c>
+      <c r="B79" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C79" s="218">
+        <v>65380</v>
+      </c>
+      <c r="D79" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E79" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F79" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K79" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="218">
+        <v>65016</v>
+      </c>
+      <c r="M79" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="218">
+        <v>65654</v>
+      </c>
+      <c r="B80" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C80" s="218">
+        <v>65745</v>
+      </c>
+      <c r="D80" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E80" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F80" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K80" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="218">
+        <v>65381</v>
+      </c>
+      <c r="M80" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="218">
+        <v>66020</v>
+      </c>
+      <c r="B81" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C81" s="218">
+        <v>66111</v>
+      </c>
+      <c r="D81" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E81" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F81" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K81" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="218">
+        <v>65746</v>
+      </c>
+      <c r="M81" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="218">
+        <v>66385</v>
+      </c>
+      <c r="B82" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C82" s="218">
+        <v>66476</v>
+      </c>
+      <c r="D82" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E82" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F82" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K82" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="218">
+        <v>66112</v>
+      </c>
+      <c r="M82" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="218">
+        <v>66750</v>
+      </c>
+      <c r="B83" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C83" s="218">
+        <v>66841</v>
+      </c>
+      <c r="D83" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E83" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F83" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K83" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="218">
+        <v>66477</v>
+      </c>
+      <c r="M83" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="218">
+        <v>67115</v>
+      </c>
+      <c r="B84" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C84" s="218">
+        <v>67206</v>
+      </c>
+      <c r="D84" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E84" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F84" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K84" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="218">
+        <v>66842</v>
+      </c>
+      <c r="M84" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="218">
+        <v>67481</v>
+      </c>
+      <c r="B85" s="217">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="C85" s="218">
+        <v>67572</v>
+      </c>
+      <c r="D85" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E85" s="217">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="F85" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K85" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="218">
+        <v>67207</v>
+      </c>
+      <c r="M85" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="218">
+        <v>67846</v>
+      </c>
+      <c r="B86" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C86" s="218">
+        <v>67937</v>
+      </c>
+      <c r="D86" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E86" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F86" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K86" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="218">
+        <v>67573</v>
+      </c>
+      <c r="M86" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="218">
+        <v>68211</v>
+      </c>
+      <c r="B87" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C87" s="218">
+        <v>68302</v>
+      </c>
+      <c r="D87" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E87" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F87" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K87" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="218">
+        <v>67938</v>
+      </c>
+      <c r="M87" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="218">
+        <v>68576</v>
+      </c>
+      <c r="B88" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C88" s="218">
+        <v>68667</v>
+      </c>
+      <c r="D88" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E88" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F88" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K88" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="218">
+        <v>68303</v>
+      </c>
+      <c r="M88" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="218">
+        <v>68942</v>
+      </c>
+      <c r="B89" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C89" s="218">
+        <v>69033</v>
+      </c>
+      <c r="D89" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E89" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F89" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K89" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="218">
+        <v>68668</v>
+      </c>
+      <c r="M89" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="218">
+        <v>69307</v>
+      </c>
+      <c r="B90" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C90" s="218">
+        <v>69398</v>
+      </c>
+      <c r="D90" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E90" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F90" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K90" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="218">
+        <v>69034</v>
+      </c>
+      <c r="M90" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="218">
+        <v>69672</v>
+      </c>
+      <c r="B91" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C91" s="218">
+        <v>69763</v>
+      </c>
+      <c r="D91" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E91" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F91" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K91" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="218">
+        <v>69399</v>
+      </c>
+      <c r="M91" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="218">
+        <v>70037</v>
+      </c>
+      <c r="B92" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C92" s="218">
+        <v>70128</v>
+      </c>
+      <c r="D92" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E92" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F92" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K92" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="218">
+        <v>69764</v>
+      </c>
+      <c r="M92" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="218">
+        <v>70403</v>
+      </c>
+      <c r="B93" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C93" s="218">
+        <v>70494</v>
+      </c>
+      <c r="D93" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E93" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F93" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K93" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="218">
+        <v>70129</v>
+      </c>
+      <c r="M93" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="218">
+        <v>70768</v>
+      </c>
+      <c r="B94" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C94" s="218">
+        <v>70859</v>
+      </c>
+      <c r="D94" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E94" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F94" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K94" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="218">
+        <v>70495</v>
+      </c>
+      <c r="M94" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="218">
+        <v>71133</v>
+      </c>
+      <c r="B95" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C95" s="218">
+        <v>71224</v>
+      </c>
+      <c r="D95" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E95" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F95" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K95" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="218">
+        <v>70860</v>
+      </c>
+      <c r="M95" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="218">
+        <v>71498</v>
+      </c>
+      <c r="B96" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C96" s="218">
+        <v>71589</v>
+      </c>
+      <c r="D96" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E96" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F96" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K96" s="217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="218">
+        <v>71225</v>
+      </c>
+      <c r="M96" s="217">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="218">
+        <v>71864</v>
+      </c>
+      <c r="B97" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C97" s="218">
+        <v>71955</v>
+      </c>
+      <c r="D97" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E97" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F97" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="218">
+        <v>72229</v>
+      </c>
+      <c r="B98" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C98" s="218">
+        <v>72320</v>
+      </c>
+      <c r="D98" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F98" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="218">
+        <v>72594</v>
+      </c>
+      <c r="B99" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C99" s="218">
+        <v>72685</v>
+      </c>
+      <c r="D99" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E99" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F99" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="218">
+        <v>72959</v>
+      </c>
+      <c r="B100" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C100" s="218">
+        <v>73050</v>
+      </c>
+      <c r="D100" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E100" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F100" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="218">
+        <v>73324</v>
+      </c>
+      <c r="B101" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C101" s="218">
+        <v>73415</v>
+      </c>
+      <c r="D101" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E101" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F101" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="218">
+        <v>73689</v>
+      </c>
+      <c r="B102" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C102" s="218">
+        <v>73780</v>
+      </c>
+      <c r="D102" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E102" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F102" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="218">
+        <v>74054</v>
+      </c>
+      <c r="B103" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C103" s="218">
+        <v>74145</v>
+      </c>
+      <c r="D103" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E103" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F103" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="218">
+        <v>74419</v>
+      </c>
+      <c r="B104" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C104" s="218">
+        <v>74510</v>
+      </c>
+      <c r="D104" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E104" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F104" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="218">
+        <v>74785</v>
+      </c>
+      <c r="B105" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C105" s="218">
+        <v>74876</v>
+      </c>
+      <c r="D105" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E105" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F105" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="218">
+        <v>75150</v>
+      </c>
+      <c r="B106" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C106" s="218">
+        <v>75241</v>
+      </c>
+      <c r="D106" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E106" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F106" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="218">
+        <v>75515</v>
+      </c>
+      <c r="B107" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C107" s="218">
+        <v>75606</v>
+      </c>
+      <c r="D107" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E107" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F107" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="218">
+        <v>75880</v>
+      </c>
+      <c r="B108" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C108" s="218">
+        <v>75971</v>
+      </c>
+      <c r="D108" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E108" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F108" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="218">
+        <v>76246</v>
+      </c>
+      <c r="B109" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C109" s="218">
+        <v>76337</v>
+      </c>
+      <c r="D109" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E109" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F109" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="218">
+        <v>76611</v>
+      </c>
+      <c r="B110" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C110" s="218">
+        <v>76702</v>
+      </c>
+      <c r="D110" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E110" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F110" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="218">
+        <v>76976</v>
+      </c>
+      <c r="B111" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C111" s="218">
+        <v>77067</v>
+      </c>
+      <c r="D111" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E111" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F111" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="218">
+        <v>77341</v>
+      </c>
+      <c r="B112" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C112" s="218">
+        <v>77432</v>
+      </c>
+      <c r="D112" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E112" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F112" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="218">
+        <v>77707</v>
+      </c>
+      <c r="B113" s="217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C113" s="218">
+        <v>77798</v>
+      </c>
+      <c r="D113" s="217">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="E113" s="217">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="F113" s="217">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27271,7 +31410,7 @@
         <f>LOOKUP(2,1/(价格!X:X&lt;&gt;0),价格!X:X)</f>
         <v>1740</v>
       </c>
-      <c r="K2" s="218" t="s">
+      <c r="K2" s="220" t="s">
         <v>138</v>
       </c>
       <c r="L2" s="140" t="s">
@@ -27333,7 +31472,7 @@
       </c>
       <c r="H3" s="145"/>
       <c r="I3" s="146"/>
-      <c r="K3" s="218"/>
+      <c r="K3" s="220"/>
       <c r="L3" s="140" t="s">
         <v>33</v>
       </c>
@@ -27397,7 +31536,7 @@
       </c>
       <c r="H4" s="147"/>
       <c r="I4" s="148"/>
-      <c r="K4" s="218"/>
+      <c r="K4" s="220"/>
       <c r="L4" s="140" t="s">
         <v>34</v>
       </c>
@@ -27465,7 +31604,7 @@
       <c r="I5" s="135">
         <v>70</v>
       </c>
-      <c r="K5" s="218" t="s">
+      <c r="K5" s="220" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="140" t="s">
@@ -27537,7 +31676,7 @@
         <f t="shared" si="2"/>
         <v>1810</v>
       </c>
-      <c r="K6" s="218"/>
+      <c r="K6" s="220"/>
       <c r="L6" s="140" t="s">
         <v>36</v>
       </c>
@@ -27607,7 +31746,7 @@
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
         <v>1770</v>
       </c>
-      <c r="K7" s="218"/>
+      <c r="K7" s="220"/>
       <c r="L7" s="140" t="s">
         <v>37</v>
       </c>
@@ -27623,7 +31762,7 @@
         <f>INDEX(深加工饲料厂库存!G:G,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>13</v>
       </c>
-      <c r="P7" s="218" t="s">
+      <c r="P7" s="220" t="s">
         <v>157</v>
       </c>
       <c r="Q7" s="135" t="s">
@@ -27697,7 +31836,7 @@
         <f>INDEX(深加工饲料厂库存!H:H,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>13</v>
       </c>
-      <c r="P8" s="218"/>
+      <c r="P8" s="220"/>
       <c r="Q8" s="135" t="s">
         <v>155</v>
       </c>
@@ -27716,7 +31855,7 @@
       <c r="U8" s="135"/>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K9" s="218" t="s">
+      <c r="K9" s="220" t="s">
         <v>142</v>
       </c>
       <c r="L9" s="140" t="s">
@@ -27734,7 +31873,7 @@
         <f>INDEX(深加工饲料厂库存!I:I,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>10</v>
       </c>
-      <c r="P9" s="218"/>
+      <c r="P9" s="220"/>
       <c r="Q9" s="135" t="s">
         <v>156</v>
       </c>
@@ -27770,7 +31909,7 @@
       </c>
       <c r="F10" s="151"/>
       <c r="G10" s="151"/>
-      <c r="K10" s="218"/>
+      <c r="K10" s="220"/>
       <c r="L10" s="140" t="s">
         <v>40</v>
       </c>
@@ -27786,7 +31925,7 @@
         <f>INDEX(深加工饲料厂库存!J:J,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P10" s="218" t="s">
+      <c r="P10" s="220" t="s">
         <v>166</v>
       </c>
       <c r="Q10" s="135" t="s">
@@ -27824,7 +31963,7 @@
       </c>
       <c r="F11" s="151"/>
       <c r="G11" s="151"/>
-      <c r="K11" s="218"/>
+      <c r="K11" s="220"/>
       <c r="L11" s="140" t="s">
         <v>41</v>
       </c>
@@ -27840,7 +31979,7 @@
         <f>INDEX(深加工饲料厂库存!K:K,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P11" s="218"/>
+      <c r="P11" s="220"/>
       <c r="Q11" s="135" t="s">
         <v>164</v>
       </c>
@@ -27876,7 +32015,7 @@
       </c>
       <c r="F12" s="151"/>
       <c r="G12" s="151"/>
-      <c r="K12" s="218" t="s">
+      <c r="K12" s="220" t="s">
         <v>143</v>
       </c>
       <c r="L12" s="140" t="s">
@@ -27894,7 +32033,7 @@
         <f>INDEX(深加工饲料厂库存!L:L,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>10</v>
       </c>
-      <c r="P12" s="218"/>
+      <c r="P12" s="220"/>
       <c r="Q12" s="135" t="s">
         <v>165</v>
       </c>
@@ -27933,7 +32072,7 @@
       </c>
       <c r="F13" s="151"/>
       <c r="G13" s="151"/>
-      <c r="K13" s="218"/>
+      <c r="K13" s="220"/>
       <c r="L13" s="140" t="s">
         <v>43</v>
       </c>
@@ -27949,7 +32088,7 @@
         <f>INDEX(深加工饲料厂库存!M:M,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>10</v>
       </c>
-      <c r="P13" s="218"/>
+      <c r="P13" s="220"/>
       <c r="Q13" s="135" t="s">
         <v>148</v>
       </c>
@@ -27989,7 +32128,7 @@
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="151"/>
-      <c r="K14" s="218"/>
+      <c r="K14" s="220"/>
       <c r="L14" s="140" t="s">
         <v>44</v>
       </c>
@@ -28005,7 +32144,7 @@
         <f>INDEX(深加工饲料厂库存!N:N,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P14" s="218" t="s">
+      <c r="P14" s="220" t="s">
         <v>162</v>
       </c>
       <c r="Q14" s="135" t="s">
@@ -28047,7 +32186,7 @@
       </c>
       <c r="F15" s="151"/>
       <c r="G15" s="151"/>
-      <c r="K15" s="218"/>
+      <c r="K15" s="220"/>
       <c r="L15" s="140" t="s">
         <v>45</v>
       </c>
@@ -28063,7 +32202,7 @@
         <f>INDEX(深加工饲料厂库存!O:O,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="218"/>
+      <c r="P15" s="220"/>
       <c r="Q15" s="135" t="s">
         <v>150</v>
       </c>
@@ -28103,7 +32242,7 @@
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="151"/>
-      <c r="K16" s="218"/>
+      <c r="K16" s="220"/>
       <c r="L16" s="140" t="s">
         <v>46</v>
       </c>
@@ -28119,7 +32258,7 @@
         <f>INDEX(深加工饲料厂库存!P:P,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>10</v>
       </c>
-      <c r="P16" s="218"/>
+      <c r="P16" s="220"/>
       <c r="Q16" s="135" t="s">
         <v>158</v>
       </c>
@@ -28163,7 +32302,7 @@
         <f>INDEX(深加工饲料厂库存!Q:Q,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P17" s="218"/>
+      <c r="P17" s="220"/>
       <c r="Q17" s="135" t="s">
         <v>159</v>
       </c>
@@ -28189,7 +32328,7 @@
       <c r="E18" s="151"/>
       <c r="F18" s="151"/>
       <c r="G18" s="151"/>
-      <c r="P18" s="218"/>
+      <c r="P18" s="220"/>
       <c r="Q18" s="135" t="s">
         <v>160</v>
       </c>
@@ -28215,7 +32354,7 @@
       <c r="E19" s="151"/>
       <c r="F19" s="151"/>
       <c r="G19" s="151"/>
-      <c r="P19" s="218"/>
+      <c r="P19" s="220"/>
       <c r="Q19" s="135" t="s">
         <v>149</v>
       </c>
@@ -28241,7 +32380,7 @@
       <c r="E20" s="216"/>
       <c r="F20" s="216"/>
       <c r="G20" s="216"/>
-      <c r="P20" s="218"/>
+      <c r="P20" s="220"/>
       <c r="Q20" s="135" t="s">
         <v>161</v>
       </c>
@@ -28269,7 +32408,7 @@
       <c r="G21" s="216"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="217"/>
+      <c r="A22" s="221"/>
       <c r="B22" s="152"/>
       <c r="C22" s="216"/>
       <c r="D22" s="216"/>
@@ -28278,7 +32417,7 @@
       <c r="G22" s="216"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="217"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="152"/>
       <c r="C23" s="216"/>
       <c r="D23" s="216"/>
@@ -28287,7 +32426,7 @@
       <c r="G23" s="216"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="217"/>
+      <c r="A24" s="221"/>
       <c r="B24" s="152"/>
       <c r="C24" s="216"/>
       <c r="D24" s="216"/>
@@ -28296,7 +32435,7 @@
       <c r="G24" s="216"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="217"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="152"/>
       <c r="C25" s="216"/>
       <c r="D25" s="216"/>
@@ -28305,7 +32444,7 @@
       <c r="G25" s="216"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="217"/>
+      <c r="A26" s="221"/>
       <c r="B26" s="152"/>
       <c r="C26" s="216"/>
       <c r="D26" s="216"/>
@@ -28373,37 +32512,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="224" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223" t="s">
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="224" t="s">
+      <c r="G1" s="225"/>
+      <c r="H1" s="226" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="224"/>
-      <c r="J1" s="225" t="s">
+      <c r="I1" s="226"/>
+      <c r="J1" s="227" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="225"/>
-      <c r="L1" s="226" t="s">
+      <c r="K1" s="227"/>
+      <c r="L1" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="226"/>
-      <c r="N1" s="220" t="s">
+      <c r="M1" s="228"/>
+      <c r="N1" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="160" t="s">
@@ -28537,10 +32676,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AB72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86:T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28579,67 +32718,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A1" s="239"/>
-      <c r="B1" s="246" t="s">
+      <c r="A1" s="241"/>
+      <c r="B1" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="240" t="s">
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="243" t="s">
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="233" t="s">
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="236" t="s">
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="249" t="s">
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="251"/>
-      <c r="AD1" s="252" t="s">
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="252"/>
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="253"/>
+      <c r="AD1" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="253"/>
-      <c r="AJ1" s="227" t="s">
+      <c r="AE1" s="255"/>
+      <c r="AF1" s="255"/>
+      <c r="AJ1" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="228"/>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="229"/>
-      <c r="AN1" s="230" t="s">
+      <c r="AK1" s="230"/>
+      <c r="AL1" s="230"/>
+      <c r="AM1" s="231"/>
+      <c r="AN1" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="232"/>
+      <c r="AO1" s="233"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="234"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A2" s="239"/>
+      <c r="A2" s="241"/>
       <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
@@ -39541,49 +43680,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="227" t="s">
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="257" t="s">
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="258"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="260" t="s">
+      <c r="L1" s="260"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263" t="s">
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
-      <c r="U1" s="264"/>
-      <c r="V1" s="264"/>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="264"/>
-      <c r="AE1" s="264"/>
-      <c r="AF1" s="264"/>
-      <c r="AG1" s="264"/>
-      <c r="AH1" s="264"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="266"/>
+      <c r="AA1" s="266"/>
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="266"/>
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="266"/>
+      <c r="AG1" s="266"/>
+      <c r="AH1" s="266"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -46349,14 +50488,14 @@
       <c r="E1" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="265" t="s">
+      <c r="F1" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="266"/>
-      <c r="H1" s="265" t="s">
+      <c r="G1" s="268"/>
+      <c r="H1" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="266"/>
+      <c r="I1" s="268"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="183" t="s">
@@ -46765,17 +50904,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="269" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="269"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -46799,52 +50938,52 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="270" t="s">
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="270" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="270" t="s">
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="272" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="270" t="s">
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="271"/>
-      <c r="S1" s="271"/>
-      <c r="T1" s="271"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
       <c r="U1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="270" t="s">
+      <c r="V1" s="272" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="270"/>
-      <c r="B2" s="270"/>
+      <c r="A2" s="272"/>
+      <c r="B2" s="272"/>
       <c r="C2" s="98" t="s">
         <v>85</v>
       </c>

--- a/report/CornData.xlsx
+++ b/report/CornData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11190" tabRatio="680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11190" tabRatio="680" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="6" r:id="rId1"/>
@@ -72,7 +72,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>最高、最低价的平均值，一般收购季与锦州价差5-15，拍卖季受汽运优势，一般会低于锦州港20-30元</t>
+          <t>10月后采用新粮(700容)主流价，5月后用陈粮最高、最低价的平均值，一般收购季与锦州价差5-15，拍卖季受汽运优势，一般会低于锦州港20-30元</t>
         </r>
       </text>
     </comment>
@@ -87,6 +87,58 @@
             <charset val="134"/>
           </rPr>
           <t>最高、最低价均值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1521" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+17水</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1521" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+17水</t>
         </r>
       </text>
     </comment>
@@ -126,6 +178,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂无绝对价差替代标准，以前可能比玉米便宜、现在可能与玉米同价就会有替代，高粱没有霉变、可开信用证等优势</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG78" authorId="0" shapeId="0">
       <text>
         <r>
@@ -157,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="250">
   <si>
     <t>周初库存</t>
   </si>
@@ -1058,7 +1136,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>寿光金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸城兴贸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1689,7 +1771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2288,6 +2370,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2948,11 +3061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1350028848"/>
-        <c:axId val="-1350031024"/>
+        <c:axId val="-1361807680"/>
+        <c:axId val="-1361803328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1350028848"/>
+        <c:axId val="-1361807680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350031024"/>
+        <c:crossAx val="-1361803328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1350031024"/>
+        <c:axId val="-1361803328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -3041,7 +3154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1350028848"/>
+        <c:crossAx val="-1361807680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3268,7 +3381,7 @@
               <c:f>[0]!PortWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42722</c:v>
                 </c:pt>
@@ -3526,6 +3639,15 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,7 +3657,7 @@
               <c:f>[0]!NorthCarryout</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>346</c:v>
                 </c:pt>
@@ -3790,6 +3912,15 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>312.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>310.10000000000008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>302.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>308.10000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,8 +3934,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1350026128"/>
-        <c:axId val="-1350032112"/>
+        <c:axId val="-1361806592"/>
+        <c:axId val="-1361811488"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3862,7 +3993,7 @@
               <c:f>[0]!PortWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42722</c:v>
                 </c:pt>
@@ -4120,6 +4251,15 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,7 +4269,7 @@
               <c:f>[0]!NorthCarryoutChange</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="1">
                   <c:v>-24.699999999999989</c:v>
                 </c:pt>
@@ -4381,6 +4521,15 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-9.8000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.1999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.9000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.8999999999999773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4395,11 +4544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-1350025040"/>
-        <c:axId val="-1350025584"/>
+        <c:axId val="-1361801152"/>
+        <c:axId val="-1361814752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1350026128"/>
+        <c:axId val="-1361806592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350032112"/>
+        <c:crossAx val="-1361811488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1350032112"/>
+        <c:axId val="-1361811488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -4502,12 +4651,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350026128"/>
+        <c:crossAx val="-1361806592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1350025584"/>
+        <c:axId val="-1361814752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,12 +4693,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350025040"/>
+        <c:crossAx val="-1361801152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1350025040"/>
+        <c:axId val="-1361801152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1350025584"/>
+        <c:crossAx val="-1361814752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4781,7 +4930,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -4970,6 +5119,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,7 +5137,7 @@
               <c:f>[0]!dflr_hlj</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>178</c:v>
                 </c:pt>
@@ -5168,6 +5326,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>150.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5225,7 +5392,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -5414,6 +5581,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5423,7 +5599,7 @@
               <c:f>[0]!dflr_jl</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>58</c:v>
                 </c:pt>
@@ -5612,6 +5788,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>109.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,8 +5812,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1350035376"/>
-        <c:axId val="-1350033744"/>
+        <c:axId val="-1361805504"/>
+        <c:axId val="-1361801696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5662,7 +5847,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -5851,6 +6036,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,7 +6054,7 @@
               <c:f>[0]!dfkgl_db</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>86.02</c:v>
                 </c:pt>
@@ -6049,6 +6243,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>86.47</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>86.47</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>88.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6065,11 +6268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1350034288"/>
-        <c:axId val="-1350034832"/>
+        <c:axId val="-1464901776"/>
+        <c:axId val="-1361810400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1350035376"/>
+        <c:axId val="-1361805504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6109,7 +6312,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350033744"/>
+        <c:crossAx val="-1361801696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6117,7 +6320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1350033744"/>
+        <c:axId val="-1361801696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6165,12 +6368,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350035376"/>
+        <c:crossAx val="-1361805504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1350034832"/>
+        <c:axId val="-1361810400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -6205,12 +6408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1350034288"/>
+        <c:crossAx val="-1464901776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1350034288"/>
+        <c:axId val="-1464901776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,7 +6423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1350034832"/>
+        <c:crossAx val="-1361810400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6447,7 +6650,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -6636,6 +6839,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,7 +6857,7 @@
               <c:f>[0]!dflr_sd</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>-44</c:v>
                 </c:pt>
@@ -6834,6 +7046,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>132.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6849,8 +7070,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1351757696"/>
-        <c:axId val="-1171806144"/>
+        <c:axId val="-1286471024"/>
+        <c:axId val="-1286460688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6884,7 +7105,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -7073,6 +7294,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,7 +7312,7 @@
               <c:f>[0]!dfkgl_sd</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>73.89</c:v>
                 </c:pt>
@@ -7271,6 +7501,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>78.89</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>80.59</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.569999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,11 +7526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1171809408"/>
-        <c:axId val="-1171798528"/>
+        <c:axId val="-1286459600"/>
+        <c:axId val="-1286465040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1351757696"/>
+        <c:axId val="-1286471024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7331,7 +7570,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171806144"/>
+        <c:crossAx val="-1286460688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7339,7 +7578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1171806144"/>
+        <c:axId val="-1286460688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7387,12 +7626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1351757696"/>
+        <c:crossAx val="-1286471024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1171798528"/>
+        <c:axId val="-1286465040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -7427,12 +7666,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171809408"/>
+        <c:crossAx val="-1286459600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1171809408"/>
+        <c:axId val="-1286459600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7442,7 +7681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1171798528"/>
+        <c:crossAx val="-1286465040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7660,7 +7899,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -7849,6 +8088,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7858,7 +8106,7 @@
               <c:f>[0]!jjlr_hlj</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>305</c:v>
                 </c:pt>
@@ -8047,6 +8295,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8104,7 +8361,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -8293,6 +8550,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8302,7 +8568,7 @@
               <c:f>[0]!jjlr_jl</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>172</c:v>
                 </c:pt>
@@ -8491,6 +8757,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8506,8 +8781,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1171796352"/>
-        <c:axId val="-1171797440"/>
+        <c:axId val="-1286456880"/>
+        <c:axId val="-1286456336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8541,7 +8816,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -8730,6 +9005,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8739,7 +9023,7 @@
               <c:f>[0]!jjkgl_db</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>35.19</c:v>
                 </c:pt>
@@ -8928,6 +9212,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59.58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8944,11 +9237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1171807776"/>
-        <c:axId val="-1171808320"/>
+        <c:axId val="-1286467760"/>
+        <c:axId val="-1286455792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1171796352"/>
+        <c:axId val="-1286456880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8988,7 +9281,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171797440"/>
+        <c:crossAx val="-1286456336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8996,7 +9289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1171797440"/>
+        <c:axId val="-1286456336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9044,12 +9337,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171796352"/>
+        <c:crossAx val="-1286456880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1171808320"/>
+        <c:axId val="-1286455792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9083,12 +9376,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171807776"/>
+        <c:crossAx val="-1286467760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1171807776"/>
+        <c:axId val="-1286467760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9098,7 +9391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1171808320"/>
+        <c:crossAx val="-1286455792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9308,7 +9601,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -9497,6 +9790,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9506,7 +9808,7 @@
               <c:f>[0]!jjlr_hn</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="40">
                   <c:v>-307</c:v>
                 </c:pt>
@@ -9575,6 +9877,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9590,8 +9901,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1171797984"/>
-        <c:axId val="-1171805056"/>
+        <c:axId val="-1286459056"/>
+        <c:axId val="-1282082560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9625,7 +9936,7 @@
               <c:f>[0]!DeepWeekTS</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>42930</c:v>
                 </c:pt>
@@ -9814,6 +10125,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43364</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43378</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9823,7 +10143,7 @@
               <c:f>[0]!jjkgl_hn</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44.6</c:v>
                 </c:pt>
@@ -10012,6 +10332,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>55.95</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>57.86</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10028,11 +10357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1171803968"/>
-        <c:axId val="-1171806688"/>
+        <c:axId val="-1282085824"/>
+        <c:axId val="-1282084192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1171797984"/>
+        <c:axId val="-1286459056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10072,7 +10401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171805056"/>
+        <c:crossAx val="-1282082560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10080,7 +10409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1171805056"/>
+        <c:axId val="-1282082560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10128,12 +10457,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171797984"/>
+        <c:crossAx val="-1286459056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1171806688"/>
+        <c:axId val="-1282084192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10167,12 +10496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171803968"/>
+        <c:crossAx val="-1282085824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1171803968"/>
+        <c:axId val="-1282085824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,7 +10511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1171806688"/>
+        <c:crossAx val="-1282084192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -13962,6 +14291,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351119</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="4019550"/>
+          <a:ext cx="10447619" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14252,13 +14619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1519"/>
+  <dimension ref="A1:AA1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1502" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1521" sqref="C1521"/>
+      <selection pane="bottomRight" activeCell="A1529" sqref="A1529:XFD1529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14282,10 +14649,12 @@
     <col min="20" max="20" width="9" style="138"/>
     <col min="21" max="21" width="9" style="136"/>
     <col min="22" max="22" width="9" style="138"/>
-    <col min="23" max="16384" width="9" style="136"/>
+    <col min="23" max="24" width="9" style="136"/>
+    <col min="25" max="25" width="2.125" style="136" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="136"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B1" s="134" t="s">
         <v>167</v>
       </c>
@@ -14355,8 +14724,14 @@
       <c r="X1" s="136" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1" s="136" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA1" s="136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="133">
         <v>41122</v>
       </c>
@@ -14364,7 +14739,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="133">
         <v>41123</v>
       </c>
@@ -14375,7 +14750,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="133">
         <v>41124</v>
       </c>
@@ -14383,7 +14758,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="133">
         <v>41127</v>
       </c>
@@ -14391,7 +14766,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="133">
         <v>41128</v>
       </c>
@@ -14399,7 +14774,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="133">
         <v>41129</v>
       </c>
@@ -14407,32 +14782,32 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="133">
         <v>41130</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="133">
         <v>41131</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="133">
         <v>41134</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="133">
         <v>41135</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="133">
         <v>41136</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="133">
         <v>41137</v>
       </c>
@@ -14443,7 +14818,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="133">
         <v>41138</v>
       </c>
@@ -14454,12 +14829,12 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="133">
         <v>41141</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="133">
         <v>41142</v>
       </c>
@@ -28929,6 +29304,278 @@
       </c>
       <c r="V1519" s="138">
         <v>1700</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1520" s="140">
+        <v>43381</v>
+      </c>
+      <c r="B1520" s="134">
+        <v>1785</v>
+      </c>
+      <c r="C1520" s="134">
+        <v>1780</v>
+      </c>
+      <c r="D1520" s="134">
+        <v>1910</v>
+      </c>
+      <c r="F1520" s="136">
+        <v>1600</v>
+      </c>
+      <c r="H1520" s="138">
+        <v>1580</v>
+      </c>
+      <c r="K1520" s="138">
+        <v>1610</v>
+      </c>
+      <c r="L1520" s="136">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1521" s="140">
+        <v>43382</v>
+      </c>
+      <c r="B1521" s="134">
+        <v>1775</v>
+      </c>
+      <c r="C1521" s="134">
+        <v>1770</v>
+      </c>
+      <c r="D1521" s="134">
+        <v>1910</v>
+      </c>
+      <c r="E1521" s="135">
+        <v>62</v>
+      </c>
+      <c r="G1521" s="137">
+        <v>160</v>
+      </c>
+      <c r="I1521" s="136">
+        <v>1630</v>
+      </c>
+      <c r="J1521" s="137">
+        <v>160</v>
+      </c>
+      <c r="N1521" s="138">
+        <v>1550</v>
+      </c>
+      <c r="P1521" s="137">
+        <v>125</v>
+      </c>
+      <c r="S1521" s="139">
+        <v>125</v>
+      </c>
+      <c r="Z1521" s="136">
+        <v>1840</v>
+      </c>
+      <c r="AA1521" s="136">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1522" s="140">
+        <v>43383</v>
+      </c>
+      <c r="B1522" s="134">
+        <v>1765</v>
+      </c>
+      <c r="C1522" s="134">
+        <v>1760</v>
+      </c>
+      <c r="D1522" s="134">
+        <v>1910</v>
+      </c>
+      <c r="Z1522" s="136">
+        <v>1840</v>
+      </c>
+      <c r="AA1522" s="136">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1523" s="140">
+        <v>43384</v>
+      </c>
+      <c r="B1523" s="134">
+        <v>1760</v>
+      </c>
+      <c r="C1523" s="134">
+        <v>1760</v>
+      </c>
+      <c r="D1523" s="134">
+        <v>1910</v>
+      </c>
+      <c r="Z1523" s="136">
+        <v>1844</v>
+      </c>
+      <c r="AA1523" s="136">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1524" s="140">
+        <v>43385</v>
+      </c>
+      <c r="B1524" s="134">
+        <v>1760</v>
+      </c>
+      <c r="C1524" s="134">
+        <v>1760</v>
+      </c>
+      <c r="D1524" s="134">
+        <v>1905</v>
+      </c>
+      <c r="Z1524" s="136">
+        <v>1860</v>
+      </c>
+      <c r="AA1524" s="136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1525" s="133">
+        <v>43388</v>
+      </c>
+      <c r="B1525" s="134">
+        <v>1770</v>
+      </c>
+      <c r="C1525" s="134">
+        <v>1770</v>
+      </c>
+      <c r="D1525" s="134">
+        <v>1900</v>
+      </c>
+      <c r="H1525" s="138">
+        <v>1580</v>
+      </c>
+      <c r="K1525" s="138">
+        <v>1610</v>
+      </c>
+      <c r="L1525" s="136">
+        <v>1540</v>
+      </c>
+      <c r="N1525" s="138">
+        <v>1550</v>
+      </c>
+      <c r="V1525" s="138">
+        <v>1700</v>
+      </c>
+      <c r="Z1525" s="136">
+        <v>1900</v>
+      </c>
+      <c r="AA1525" s="136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1526" s="133">
+        <v>43389</v>
+      </c>
+      <c r="B1526" s="134">
+        <v>1780</v>
+      </c>
+      <c r="C1526" s="134">
+        <v>1780</v>
+      </c>
+      <c r="D1526" s="134">
+        <v>1910</v>
+      </c>
+      <c r="E1526" s="135">
+        <v>70</v>
+      </c>
+      <c r="G1526" s="137">
+        <v>160</v>
+      </c>
+      <c r="J1526" s="137">
+        <v>160</v>
+      </c>
+      <c r="P1526" s="137">
+        <v>125</v>
+      </c>
+      <c r="S1526" s="139">
+        <v>125</v>
+      </c>
+      <c r="Z1526" s="136">
+        <v>1900</v>
+      </c>
+      <c r="AA1526" s="136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1527" s="133">
+        <v>43390</v>
+      </c>
+      <c r="B1527" s="134">
+        <v>1790</v>
+      </c>
+      <c r="C1527" s="134">
+        <v>1790</v>
+      </c>
+      <c r="D1527" s="134">
+        <v>1920</v>
+      </c>
+      <c r="F1527" s="136">
+        <v>1560</v>
+      </c>
+      <c r="K1527" s="138">
+        <v>1630</v>
+      </c>
+      <c r="Q1527" s="138">
+        <v>1630</v>
+      </c>
+      <c r="R1527" s="136">
+        <v>1670</v>
+      </c>
+      <c r="V1527" s="138">
+        <v>1700</v>
+      </c>
+      <c r="Z1527" s="136">
+        <v>1910</v>
+      </c>
+      <c r="AA1527" s="136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1528" s="133">
+        <v>43391</v>
+      </c>
+      <c r="B1528" s="134">
+        <v>1800</v>
+      </c>
+      <c r="C1528" s="134">
+        <v>1800</v>
+      </c>
+      <c r="D1528" s="134">
+        <v>1920</v>
+      </c>
+      <c r="Z1528" s="136">
+        <v>1930</v>
+      </c>
+      <c r="AA1528" s="136">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1529" s="133">
+        <v>43392</v>
+      </c>
+      <c r="B1529" s="134">
+        <v>1800</v>
+      </c>
+      <c r="C1529" s="134">
+        <v>1810</v>
+      </c>
+      <c r="D1529" s="134">
+        <v>1925</v>
+      </c>
+      <c r="Z1529" s="136">
+        <v>1940</v>
+      </c>
+      <c r="AA1529" s="136">
+        <v>1940</v>
       </c>
     </row>
   </sheetData>
@@ -29154,12 +29801,12 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="195" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="195" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="9.625" style="195" customWidth="1"/>
     <col min="10" max="10" width="9" style="195"/>
     <col min="11" max="11" width="11.75" style="195" bestFit="1" customWidth="1"/>
@@ -29175,7 +29822,7 @@
     <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="193">
         <f ca="1">TODAY()</f>
-        <v>43372</v>
+        <v>43392</v>
       </c>
       <c r="B1" s="194" t="s">
         <v>107</v>
@@ -29212,11 +29859,11 @@
       </c>
       <c r="N1" s="197">
         <f>INDEX(深加工饲料厂库存!A:A,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>43367</v>
+        <v>43379</v>
       </c>
       <c r="O1" s="197">
         <f>INDEX(深加工饲料厂库存!A:A,COUNTA(深加工饲料厂库存!A:A)-1)</f>
-        <v>43360</v>
+        <v>43367</v>
       </c>
       <c r="P1" s="196" t="s">
         <v>147</v>
@@ -29229,11 +29876,11 @@
       </c>
       <c r="S1" s="197">
         <f>INDEX(深加工饲料厂库存!A:A,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>43367</v>
+        <v>43379</v>
       </c>
       <c r="T1" s="197">
         <f>INDEX(深加工饲料厂库存!A:A,COUNTA(深加工饲料厂库存!A:A)-1)</f>
-        <v>43360</v>
+        <v>43367</v>
       </c>
       <c r="U1" s="196" t="s">
         <v>196</v>
@@ -29249,11 +29896,11 @@
       </c>
       <c r="C2" s="199">
         <f>LOOKUP(2,1/(价格!I:I&lt;&gt;0),价格!I:I)</f>
-        <v>1570</v>
+        <v>1630</v>
       </c>
       <c r="D2" s="199">
         <f>LOOKUP(2,1/(价格!L:L&lt;&gt;0),价格!L:L)</f>
-        <v>1580</v>
+        <v>1540</v>
       </c>
       <c r="E2" s="199">
         <f>LOOKUP(2,1/(价格!O:O&lt;&gt;0),价格!O:O)</f>
@@ -29261,7 +29908,7 @@
       </c>
       <c r="F2" s="199">
         <f>LOOKUP(2,1/(价格!R:R&lt;&gt;0),价格!R:R)</f>
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="G2" s="199">
         <f>LOOKUP(2,1/(价格!U:U&lt;&gt;0),价格!U:U)</f>
@@ -29275,7 +29922,7 @@
         <f>LOOKUP(2,1/(价格!X:X&lt;&gt;0),价格!X:X)</f>
         <v>1740</v>
       </c>
-      <c r="K2" s="228" t="s">
+      <c r="K2" s="239" t="s">
         <v>138</v>
       </c>
       <c r="L2" s="200" t="s">
@@ -29293,7 +29940,7 @@
         <f>INDEX(深加工饲料厂库存!B:B,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P2" s="228" t="s">
+      <c r="P2" s="239" t="s">
         <v>153</v>
       </c>
       <c r="Q2" s="199" t="s">
@@ -29337,7 +29984,7 @@
       </c>
       <c r="H3" s="204"/>
       <c r="I3" s="205"/>
-      <c r="K3" s="228"/>
+      <c r="K3" s="239"/>
       <c r="L3" s="200" t="s">
         <v>33</v>
       </c>
@@ -29353,7 +30000,7 @@
         <f>INDEX(深加工饲料厂库存!C:C,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>17</v>
       </c>
-      <c r="P3" s="228"/>
+      <c r="P3" s="239"/>
       <c r="Q3" s="199" t="s">
         <v>149</v>
       </c>
@@ -29381,15 +30028,15 @@
       </c>
       <c r="C4" s="203">
         <f>LOOKUP(2,1/(价格!K:K&lt;&gt;0),价格!K:K)</f>
-        <v>1640</v>
-      </c>
-      <c r="D4" s="203" t="str">
+        <v>1630</v>
+      </c>
+      <c r="D4" s="203">
         <f>LOOKUP(2,1/(价格!N:N&lt;&gt;0),价格!N:N)</f>
-        <v>停收</v>
+        <v>1550</v>
       </c>
       <c r="E4" s="203">
         <f>LOOKUP(2,1/(价格!Q:Q&lt;&gt;0),价格!Q:Q)</f>
-        <v>1550</v>
+        <v>1630</v>
       </c>
       <c r="F4" s="203">
         <f>LOOKUP(2,1/(价格!T:T&lt;&gt;0),价格!T:T)</f>
@@ -29401,7 +30048,7 @@
       </c>
       <c r="H4" s="206"/>
       <c r="I4" s="207"/>
-      <c r="K4" s="228"/>
+      <c r="K4" s="239"/>
       <c r="L4" s="200" t="s">
         <v>34</v>
       </c>
@@ -29417,7 +30064,7 @@
         <f>INDEX(深加工饲料厂库存!D:D,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="228"/>
+      <c r="P4" s="239"/>
       <c r="Q4" s="199" t="s">
         <v>150</v>
       </c>
@@ -29457,11 +30104,11 @@
       </c>
       <c r="F5" s="199">
         <f>LOOKUP(2,1/(价格!S:S&lt;&gt;0),价格!S:S)-30</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G5" s="199">
         <f>F5-30</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H5" s="199">
         <v>70</v>
@@ -29469,7 +30116,7 @@
       <c r="I5" s="199">
         <v>70</v>
       </c>
-      <c r="K5" s="228" t="s">
+      <c r="K5" s="239" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="200" t="s">
@@ -29487,7 +30134,7 @@
         <f>INDEX(深加工饲料厂库存!E:E,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>12</v>
       </c>
-      <c r="P5" s="228"/>
+      <c r="P5" s="239"/>
       <c r="Q5" s="199" t="s">
         <v>151</v>
       </c>
@@ -29515,11 +30162,11 @@
       </c>
       <c r="C6" s="199">
         <f t="shared" ref="C6:I6" si="2">C2+C5</f>
-        <v>1730</v>
+        <v>1790</v>
       </c>
       <c r="D6" s="199">
         <f t="shared" si="2"/>
-        <v>1790</v>
+        <v>1750</v>
       </c>
       <c r="E6" s="199">
         <f t="shared" si="2"/>
@@ -29527,11 +30174,11 @@
       </c>
       <c r="F6" s="199">
         <f t="shared" si="2"/>
-        <v>1740</v>
+        <v>1765</v>
       </c>
       <c r="G6" s="199">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="H6" s="199">
         <f t="shared" si="2"/>
@@ -29541,7 +30188,7 @@
         <f t="shared" si="2"/>
         <v>1810</v>
       </c>
-      <c r="K6" s="228"/>
+      <c r="K6" s="239"/>
       <c r="L6" s="200" t="s">
         <v>36</v>
       </c>
@@ -29557,7 +30204,7 @@
         <f>INDEX(深加工饲料厂库存!F:F,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="228"/>
+      <c r="P6" s="239"/>
       <c r="Q6" s="199" t="s">
         <v>152</v>
       </c>
@@ -29581,37 +30228,37 @@
       </c>
       <c r="B7" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="C7" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="199">
         <f>LOOKUP(2,1/(价格!$C:$C&lt;&gt;0),价格!$C:$C)</f>
-        <v>1745</v>
+        <v>1810</v>
       </c>
       <c r="E7" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="199">
         <f>LOOKUP(2,1/(价格!$C:$C&lt;&gt;0),价格!$C:$C)</f>
-        <v>1745</v>
+        <v>1810</v>
       </c>
       <c r="G7" s="199">
         <f>LOOKUP(2,1/(价格!$C:$C&lt;&gt;0),价格!$C:$C)</f>
-        <v>1745</v>
+        <v>1810</v>
       </c>
       <c r="H7" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="I7" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
-      </c>
-      <c r="K7" s="228"/>
+        <v>1800</v>
+      </c>
+      <c r="K7" s="239"/>
       <c r="L7" s="200" t="s">
         <v>37</v>
       </c>
@@ -29627,7 +30274,7 @@
         <f>INDEX(深加工饲料厂库存!G:G,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>14</v>
       </c>
-      <c r="P7" s="228" t="s">
+      <c r="P7" s="239" t="s">
         <v>157</v>
       </c>
       <c r="Q7" s="199" t="s">
@@ -29653,35 +30300,35 @@
       </c>
       <c r="B8" s="208">
         <f>B7-B6</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C8" s="208">
         <f t="shared" ref="C8:I8" si="3">C7-C6</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D8" s="208">
         <f t="shared" si="3"/>
-        <v>-45</v>
+        <v>60</v>
       </c>
       <c r="E8" s="208">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F8" s="208">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G8" s="208">
         <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>5</v>
       </c>
       <c r="H8" s="208">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8" s="208">
         <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="K8" s="199" t="s">
         <v>141</v>
@@ -29701,7 +30348,7 @@
         <f>INDEX(深加工饲料厂库存!H:H,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>12</v>
       </c>
-      <c r="P8" s="228"/>
+      <c r="P8" s="239"/>
       <c r="Q8" s="199" t="s">
         <v>155</v>
       </c>
@@ -29720,7 +30367,7 @@
       <c r="U8" s="199"/>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K9" s="228" t="s">
+      <c r="K9" s="239" t="s">
         <v>142</v>
       </c>
       <c r="L9" s="200" t="s">
@@ -29728,17 +30375,17 @@
       </c>
       <c r="M9" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="N9" s="199">
         <f>INDEX(深加工饲料厂库存!I:I,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" s="199">
         <f>INDEX(深加工饲料厂库存!I:I,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P9" s="228"/>
+      <c r="P9" s="239"/>
       <c r="Q9" s="199" t="s">
         <v>156</v>
       </c>
@@ -29774,23 +30421,23 @@
       </c>
       <c r="F10" s="209"/>
       <c r="G10" s="209"/>
-      <c r="K10" s="228"/>
+      <c r="K10" s="239"/>
       <c r="L10" s="200" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="N10" s="199">
         <f>INDEX(深加工饲料厂库存!J:J,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" s="199">
         <f>INDEX(深加工饲料厂库存!J:J,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P10" s="228" t="s">
+      <c r="P10" s="239" t="s">
         <v>166</v>
       </c>
       <c r="Q10" s="199" t="s">
@@ -29828,7 +30475,7 @@
       </c>
       <c r="F11" s="209"/>
       <c r="G11" s="209"/>
-      <c r="K11" s="228"/>
+      <c r="K11" s="239"/>
       <c r="L11" s="200" t="s">
         <v>41</v>
       </c>
@@ -29844,7 +30491,7 @@
         <f>INDEX(深加工饲料厂库存!K:K,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P11" s="228"/>
+      <c r="P11" s="239"/>
       <c r="Q11" s="199" t="s">
         <v>164</v>
       </c>
@@ -29880,7 +30527,7 @@
       </c>
       <c r="F12" s="209"/>
       <c r="G12" s="209"/>
-      <c r="K12" s="228" t="s">
+      <c r="K12" s="239" t="s">
         <v>143</v>
       </c>
       <c r="L12" s="200" t="s">
@@ -29888,17 +30535,17 @@
       </c>
       <c r="M12" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="N12" s="199">
         <f>INDEX(深加工饲料厂库存!L:L,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" s="199">
         <f>INDEX(深加工饲料厂库存!L:L,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P12" s="228"/>
+      <c r="P12" s="239"/>
       <c r="Q12" s="199" t="s">
         <v>165</v>
       </c>
@@ -29929,30 +30576,30 @@
       </c>
       <c r="D13" s="199">
         <f>G5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" s="199">
         <v>80</v>
       </c>
       <c r="F13" s="209"/>
       <c r="G13" s="209"/>
-      <c r="K13" s="228"/>
+      <c r="K13" s="239"/>
       <c r="L13" s="200" t="s">
         <v>43</v>
       </c>
       <c r="M13" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="N13" s="199">
         <f>INDEX(深加工饲料厂库存!M:M,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" s="199">
         <f>INDEX(深加工饲料厂库存!M:M,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P13" s="228"/>
+      <c r="P13" s="239"/>
       <c r="Q13" s="199" t="s">
         <v>148</v>
       </c>
@@ -29984,7 +30631,7 @@
       </c>
       <c r="D14" s="199">
         <f t="shared" si="5"/>
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="E14" s="199">
         <f t="shared" si="5"/>
@@ -29992,23 +30639,23 @@
       </c>
       <c r="F14" s="209"/>
       <c r="G14" s="209"/>
-      <c r="K14" s="228"/>
+      <c r="K14" s="239"/>
       <c r="L14" s="200" t="s">
         <v>44</v>
       </c>
       <c r="M14" s="201">
         <f>(N14-O14)/O14</f>
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="N14" s="199">
         <f>INDEX(深加工饲料厂库存!N:N,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O14" s="199">
         <f>INDEX(深加工饲料厂库存!N:N,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P14" s="228" t="s">
+      <c r="P14" s="239" t="s">
         <v>162</v>
       </c>
       <c r="Q14" s="199" t="s">
@@ -30034,23 +30681,23 @@
       </c>
       <c r="B15" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="C15" s="199">
         <f>LOOKUP(2,1/(价格!$C:$C&lt;&gt;0),价格!$C:$C)</f>
-        <v>1745</v>
+        <v>1810</v>
       </c>
       <c r="D15" s="199">
         <f>LOOKUP(2,1/(价格!$C:$C&lt;&gt;0),价格!$C:$C)</f>
-        <v>1745</v>
+        <v>1810</v>
       </c>
       <c r="E15" s="199">
         <f>LOOKUP(2,1/(价格!$B:$B&lt;&gt;0),价格!$B:$B)</f>
-        <v>1770</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="209"/>
       <c r="G15" s="209"/>
-      <c r="K15" s="228"/>
+      <c r="K15" s="239"/>
       <c r="L15" s="200" t="s">
         <v>45</v>
       </c>
@@ -30066,7 +30713,7 @@
         <f>INDEX(深加工饲料厂库存!O:O,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="228"/>
+      <c r="P15" s="239"/>
       <c r="Q15" s="199" t="s">
         <v>150</v>
       </c>
@@ -30090,39 +30737,39 @@
       </c>
       <c r="B16" s="208">
         <f>B15-B14</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C16" s="208">
         <f t="shared" ref="C16:E16" si="6">C15-C14</f>
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D16" s="208">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E16" s="208">
         <f t="shared" si="6"/>
-        <v>-41</v>
+        <v>-11</v>
       </c>
       <c r="F16" s="209"/>
       <c r="G16" s="209"/>
-      <c r="K16" s="228"/>
+      <c r="K16" s="239"/>
       <c r="L16" s="200" t="s">
         <v>46</v>
       </c>
       <c r="M16" s="201">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="N16" s="199">
         <f>INDEX(深加工饲料厂库存!P:P,COUNTA(深加工饲料厂库存!A:A))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O16" s="199">
         <f>INDEX(深加工饲料厂库存!P:P,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>9</v>
       </c>
-      <c r="P16" s="228"/>
+      <c r="P16" s="239"/>
       <c r="Q16" s="199" t="s">
         <v>158</v>
       </c>
@@ -30166,7 +30813,7 @@
         <f>INDEX(深加工饲料厂库存!Q:Q,COUNTA(深加工饲料厂库存!A:A)-1)</f>
         <v>8</v>
       </c>
-      <c r="P17" s="228"/>
+      <c r="P17" s="239"/>
       <c r="Q17" s="199" t="s">
         <v>159</v>
       </c>
@@ -30192,7 +30839,7 @@
       <c r="E18" s="209"/>
       <c r="F18" s="209"/>
       <c r="G18" s="209"/>
-      <c r="P18" s="228"/>
+      <c r="P18" s="239"/>
       <c r="Q18" s="199" t="s">
         <v>160</v>
       </c>
@@ -30218,7 +30865,7 @@
       <c r="E19" s="209"/>
       <c r="F19" s="209"/>
       <c r="G19" s="209"/>
-      <c r="P19" s="228"/>
+      <c r="P19" s="239"/>
       <c r="Q19" s="199" t="s">
         <v>149</v>
       </c>
@@ -30244,7 +30891,7 @@
       <c r="E20" s="209"/>
       <c r="F20" s="209"/>
       <c r="G20" s="209"/>
-      <c r="P20" s="228"/>
+      <c r="P20" s="239"/>
       <c r="Q20" s="199" t="s">
         <v>161</v>
       </c>
@@ -30282,7 +30929,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="229"/>
+      <c r="A22" s="240"/>
       <c r="B22" s="212"/>
       <c r="C22" s="209"/>
       <c r="D22" s="209"/>
@@ -30303,7 +30950,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="229"/>
+      <c r="A23" s="240"/>
       <c r="B23" s="212"/>
       <c r="C23" s="209"/>
       <c r="D23" s="209"/>
@@ -30324,7 +30971,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="229"/>
+      <c r="A24" s="240"/>
       <c r="B24" s="212"/>
       <c r="C24" s="209"/>
       <c r="D24" s="209"/>
@@ -30345,7 +30992,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="229"/>
+      <c r="A25" s="240"/>
       <c r="B25" s="212"/>
       <c r="C25" s="209"/>
       <c r="D25" s="209"/>
@@ -30354,7 +31001,7 @@
       <c r="G25" s="209"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="229"/>
+      <c r="A26" s="240"/>
       <c r="B26" s="212"/>
       <c r="C26" s="209"/>
       <c r="D26" s="209"/>
@@ -30404,7 +31051,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A3" sqref="A3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30423,37 +31070,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="242" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="231"/>
-      <c r="D1" s="232" t="s">
+      <c r="C1" s="242"/>
+      <c r="D1" s="243" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="233" t="s">
+      <c r="E1" s="243"/>
+      <c r="F1" s="244" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="233"/>
-      <c r="H1" s="234" t="s">
+      <c r="G1" s="244"/>
+      <c r="H1" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="234"/>
-      <c r="J1" s="235" t="s">
+      <c r="I1" s="245"/>
+      <c r="J1" s="246" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="235"/>
-      <c r="L1" s="236" t="s">
+      <c r="K1" s="246"/>
+      <c r="L1" s="247" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="236"/>
-      <c r="N1" s="230" t="s">
+      <c r="M1" s="247"/>
+      <c r="N1" s="241" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="136" t="s">
@@ -30586,11 +31233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="AK9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF3" activeCellId="6" sqref="A3:A24 B3:B24 Z3:Z24 AH3:AH24 AP3:AP24 AX3:AX24 BF3:BF24"/>
+      <selection pane="bottomRight" activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30608,7 +31255,8 @@
     <col min="19" max="23" width="3.375" style="226" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.375" style="80" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.625" style="221" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="4.5" style="215" customWidth="1"/>
+    <col min="26" max="26" width="4.5" style="215" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="4.5" style="215" customWidth="1"/>
     <col min="32" max="32" width="4.5" style="80" customWidth="1"/>
     <col min="33" max="33" width="11.625" style="221" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.5" style="215" customWidth="1"/>
@@ -30635,95 +31283,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:135" x14ac:dyDescent="0.15">
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="248" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="238" t="s">
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="237" t="s">
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="248" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="239" t="s">
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="250" t="s">
         <v>222</v>
       </c>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="237" t="s">
+      <c r="Z1" s="251"/>
+      <c r="AA1" s="251"/>
+      <c r="AB1" s="251"/>
+      <c r="AC1" s="251"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="248" t="s">
         <v>228</v>
       </c>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237" t="s">
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="248"/>
+      <c r="AK1" s="248"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="248"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248" t="s">
         <v>223</v>
       </c>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237" t="s">
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248" t="s">
         <v>224</v>
       </c>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237" t="s">
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
+      <c r="BB1" s="248"/>
+      <c r="BC1" s="248"/>
+      <c r="BD1" s="248"/>
+      <c r="BE1" s="248" t="s">
         <v>225</v>
       </c>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
-      <c r="BH1" s="237"/>
-      <c r="BI1" s="237"/>
-      <c r="BJ1" s="237"/>
-      <c r="BK1" s="237"/>
-      <c r="BL1" s="237"/>
-      <c r="BM1" s="237" t="s">
+      <c r="BF1" s="248"/>
+      <c r="BG1" s="248"/>
+      <c r="BH1" s="248"/>
+      <c r="BI1" s="248"/>
+      <c r="BJ1" s="248"/>
+      <c r="BK1" s="248"/>
+      <c r="BL1" s="248"/>
+      <c r="BM1" s="248" t="s">
         <v>229</v>
       </c>
-      <c r="BN1" s="237"/>
-      <c r="BO1" s="237"/>
-      <c r="BP1" s="237"/>
-      <c r="BQ1" s="237"/>
-      <c r="BR1" s="237"/>
-      <c r="BS1" s="237"/>
-      <c r="BT1" s="237"/>
+      <c r="BN1" s="248"/>
+      <c r="BO1" s="248"/>
+      <c r="BP1" s="248"/>
+      <c r="BQ1" s="248"/>
+      <c r="BR1" s="248"/>
+      <c r="BS1" s="248"/>
+      <c r="BT1" s="248"/>
     </row>
     <row r="2" spans="1:135" x14ac:dyDescent="0.15">
       <c r="A2" s="227" t="s">
@@ -30750,9 +31398,6 @@
       <c r="H2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="214" t="s">
-        <v>248</v>
-      </c>
       <c r="J2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30774,9 +31419,6 @@
       <c r="P2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="214" t="s">
-        <v>248</v>
-      </c>
       <c r="R2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30798,9 +31440,6 @@
       <c r="X2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="Y2" s="221" t="s">
-        <v>248</v>
-      </c>
       <c r="Z2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30822,9 +31461,6 @@
       <c r="AF2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="AG2" s="221" t="s">
-        <v>248</v>
-      </c>
       <c r="AH2" s="220" t="s">
         <v>244</v>
       </c>
@@ -30846,9 +31482,6 @@
       <c r="AN2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="AO2" s="221" t="s">
-        <v>248</v>
-      </c>
       <c r="AP2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30870,9 +31503,6 @@
       <c r="AV2" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="AW2" s="221" t="s">
-        <v>248</v>
-      </c>
       <c r="AX2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30894,9 +31524,6 @@
       <c r="BD2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="BE2" s="221" t="s">
-        <v>248</v>
-      </c>
       <c r="BF2" s="220" t="s">
         <v>237</v>
       </c>
@@ -30917,9 +31544,6 @@
       </c>
       <c r="BL2" s="80" t="s">
         <v>236</v>
-      </c>
-      <c r="BM2" s="214" t="s">
-        <v>248</v>
       </c>
       <c r="BN2" s="220" t="s">
         <v>237</v>
@@ -30947,34 +31571,13 @@
       <c r="A3" s="227">
         <v>43419</v>
       </c>
-      <c r="B3" s="216">
-        <f t="shared" ref="B3:H18" si="0">AVERAGE(Z3,AH3,AP3,AX3,BF3)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="D3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="H3" s="216">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
       <c r="J3" s="220"/>
       <c r="R3" s="220"/>
       <c r="Z3" s="220"/>
@@ -31017,7 +31620,7 @@
         <v>43426</v>
       </c>
       <c r="B4" s="216">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:H18" si="0">AVERAGE(Z4,AH4,AP4,AX4,BF4)</f>
         <v>0.18</v>
       </c>
       <c r="C4" s="216">
@@ -32458,31 +33061,31 @@
       </c>
       <c r="B10" s="216">
         <f t="shared" si="0"/>
-        <v>0.5033333333333333</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C10" s="216">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D10" s="216">
         <f t="shared" si="0"/>
-        <v>0.52666666666666673</v>
+        <v>0.53</v>
       </c>
       <c r="E10" s="216">
         <f t="shared" si="0"/>
-        <v>0.42666666666666669</v>
+        <v>0.43799999999999989</v>
       </c>
       <c r="F10" s="216">
         <f t="shared" si="0"/>
-        <v>0.29000000000000004</v>
+        <v>0.315</v>
       </c>
       <c r="G10" s="216">
         <f t="shared" si="0"/>
-        <v>0.38666666666666666</v>
+        <v>0.42400000000000004</v>
       </c>
       <c r="H10" s="216">
         <f t="shared" si="0"/>
-        <v>0.39666666666666667</v>
+        <v>0.42699999999999994</v>
       </c>
       <c r="I10" s="218"/>
       <c r="J10" s="219"/>
@@ -32525,21 +33128,63 @@
         <v>0.34</v>
       </c>
       <c r="AG10" s="222"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="216"/>
-      <c r="AJ10" s="216"/>
-      <c r="AK10" s="216"/>
-      <c r="AL10" s="216"/>
-      <c r="AM10" s="216"/>
-      <c r="AN10" s="217"/>
+      <c r="AH10" s="219">
+        <f>(AH9+AH11)/2</f>
+        <v>0.47</v>
+      </c>
+      <c r="AI10" s="219">
+        <f t="shared" ref="AI10:AN10" si="1">(AI9+AI11)/2</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AJ10" s="219">
+        <f t="shared" si="1"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AK10" s="219">
+        <f t="shared" si="1"/>
+        <v>0.435</v>
+      </c>
+      <c r="AL10" s="219">
+        <f t="shared" si="1"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AM10" s="219">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="AN10" s="219">
+        <f t="shared" si="1"/>
+        <v>0.44499999999999995</v>
+      </c>
       <c r="AO10" s="222"/>
-      <c r="AP10" s="219"/>
-      <c r="AQ10" s="216"/>
-      <c r="AR10" s="216"/>
-      <c r="AS10" s="216"/>
-      <c r="AT10" s="216"/>
-      <c r="AU10" s="216"/>
-      <c r="AV10" s="217"/>
+      <c r="AP10" s="219">
+        <f>(AP11+AP9)/2</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="AQ10" s="219">
+        <f t="shared" ref="AQ10:AV10" si="2">(AQ11+AQ9)/2</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AR10" s="219">
+        <f t="shared" si="2"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AS10" s="219">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AT10" s="219">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="AU10" s="219">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AV10" s="219">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="AW10" s="222">
         <v>42736</v>
       </c>
@@ -33146,31 +33791,31 @@
       </c>
       <c r="B13" s="216">
         <f t="shared" si="0"/>
-        <v>0.71750000000000003</v>
+        <v>0.67133333333333334</v>
       </c>
       <c r="C13" s="216">
         <f t="shared" si="0"/>
-        <v>0.59250000000000003</v>
+        <v>0.56733333333333336</v>
       </c>
       <c r="D13" s="216">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="E13" s="216">
         <f t="shared" si="0"/>
-        <v>0.61750000000000005</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="F13" s="216">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G13" s="216">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="H13" s="216">
         <f t="shared" si="0"/>
-        <v>0.54749999999999999</v>
+        <v>0.5193333333333332</v>
       </c>
       <c r="I13" s="218"/>
       <c r="J13" s="219"/>
@@ -33189,13 +33834,34 @@
       <c r="W13" s="216"/>
       <c r="X13" s="217"/>
       <c r="Y13" s="222"/>
-      <c r="Z13" s="219"/>
-      <c r="AA13" s="219"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="219"/>
-      <c r="AF13" s="217"/>
+      <c r="Z13" s="229">
+        <f>Z12+(Z15-Z12)/3</f>
+        <v>0.48666666666666669</v>
+      </c>
+      <c r="AA13" s="229">
+        <f t="shared" ref="AA13:AE13" si="3">AA12+(AA15-AA12)/3</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AB13" s="229">
+        <f t="shared" si="3"/>
+        <v>0.53</v>
+      </c>
+      <c r="AC13" s="229">
+        <f t="shared" si="3"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AD13" s="229">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="AE13" s="229">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="AF13" s="229">
+        <f>AF12+(AF15-AF12)/3</f>
+        <v>0.40666666666666668</v>
+      </c>
       <c r="AG13" s="222">
         <v>42028</v>
       </c>
@@ -33370,31 +34036,31 @@
       </c>
       <c r="B14" s="216">
         <f t="shared" si="0"/>
-        <v>0.75249999999999995</v>
+        <v>0.70466666666666666</v>
       </c>
       <c r="C14" s="216">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.60266666666666668</v>
       </c>
       <c r="D14" s="216">
         <f t="shared" si="0"/>
-        <v>0.77749999999999997</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E14" s="216">
         <f t="shared" si="0"/>
-        <v>0.65250000000000008</v>
+        <v>0.62399999999999989</v>
       </c>
       <c r="F14" s="216">
         <f t="shared" si="0"/>
-        <v>0.47749999999999998</v>
+        <v>0.44600000000000006</v>
       </c>
       <c r="G14" s="216">
         <f t="shared" si="0"/>
-        <v>0.58750000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H14" s="216">
         <f t="shared" si="0"/>
-        <v>0.56499999999999995</v>
+        <v>0.53466666666666662</v>
       </c>
       <c r="I14" s="218"/>
       <c r="J14" s="219"/>
@@ -33413,13 +34079,34 @@
       <c r="W14" s="216"/>
       <c r="X14" s="217"/>
       <c r="Y14" s="222"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
-      <c r="AC14" s="219"/>
-      <c r="AD14" s="219"/>
-      <c r="AE14" s="219"/>
-      <c r="AF14" s="217"/>
+      <c r="Z14" s="229">
+        <f>Z12+(Z15-Z12)/3*2</f>
+        <v>0.51333333333333342</v>
+      </c>
+      <c r="AA14" s="229">
+        <f t="shared" ref="AA14:AE14" si="4">AA12+(AA15-AA12)/3*2</f>
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="AB14" s="229">
+        <f t="shared" si="4"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="AC14" s="229">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="AD14" s="229">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
+      <c r="AE14" s="229">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AF14" s="229">
+        <f>AF12+(AF15-AF12)/3*2</f>
+        <v>0.41333333333333333</v>
+      </c>
       <c r="AG14" s="222">
         <v>42035</v>
       </c>
@@ -33594,31 +34281,31 @@
       </c>
       <c r="B15" s="216">
         <f t="shared" si="0"/>
-        <v>0.69666666666666666</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C15" s="216">
         <f t="shared" si="0"/>
-        <v>0.6133333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="D15" s="216">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>0.755</v>
       </c>
       <c r="E15" s="216">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F15" s="216">
         <f t="shared" si="0"/>
-        <v>0.46333333333333337</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G15" s="216">
         <f t="shared" si="0"/>
-        <v>0.55666666666666664</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="H15" s="216">
         <f t="shared" si="0"/>
-        <v>0.53666666666666663</v>
+        <v>0.54899999999999993</v>
       </c>
       <c r="I15" s="218"/>
       <c r="J15" s="219"/>
@@ -33685,21 +34372,63 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AO15" s="222"/>
-      <c r="AP15" s="219"/>
-      <c r="AQ15" s="216"/>
-      <c r="AR15" s="216"/>
-      <c r="AS15" s="216"/>
-      <c r="AT15" s="216"/>
-      <c r="AU15" s="216"/>
-      <c r="AV15" s="217"/>
+      <c r="AP15" s="219">
+        <f>(AP16+AP14)/2</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AQ15" s="219">
+        <f t="shared" ref="AQ15:AV15" si="5">(AQ16+AQ14)/2</f>
+        <v>0.76</v>
+      </c>
+      <c r="AR15" s="219">
+        <f t="shared" si="5"/>
+        <v>0.85</v>
+      </c>
+      <c r="AS15" s="219">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="AT15" s="219">
+        <f t="shared" si="5"/>
+        <v>0.505</v>
+      </c>
+      <c r="AU15" s="219">
+        <f t="shared" si="5"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AV15" s="219">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
       <c r="AW15" s="222"/>
-      <c r="AX15" s="219"/>
-      <c r="AY15" s="216"/>
-      <c r="AZ15" s="216"/>
-      <c r="BA15" s="216"/>
-      <c r="BB15" s="216"/>
-      <c r="BC15" s="216"/>
-      <c r="BD15" s="217"/>
+      <c r="AX15" s="219">
+        <f>(AX16+AX14)/2</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AY15" s="219">
+        <f t="shared" ref="AY15:BD15" si="6">(AY16+AY14)/2</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AZ15" s="219">
+        <f t="shared" si="6"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="BA15" s="219">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB15" s="219">
+        <f t="shared" si="6"/>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="BC15" s="219">
+        <f t="shared" si="6"/>
+        <v>0.53</v>
+      </c>
+      <c r="BD15" s="219">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
       <c r="BE15" s="222">
         <v>43135</v>
       </c>
@@ -33802,31 +34531,31 @@
       </c>
       <c r="B16" s="216">
         <f t="shared" si="0"/>
-        <v>0.72666666666666668</v>
+        <v>0.75266666666666671</v>
       </c>
       <c r="C16" s="216">
         <f t="shared" si="0"/>
-        <v>0.63666666666666671</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="D16" s="216">
         <f t="shared" si="0"/>
-        <v>0.76000000000000012</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="E16" s="216">
         <f t="shared" si="0"/>
-        <v>0.64666666666666661</v>
+        <v>0.67733333333333334</v>
       </c>
       <c r="F16" s="216">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.48266666666666663</v>
       </c>
       <c r="G16" s="216">
         <f t="shared" si="0"/>
-        <v>0.54666666666666675</v>
+        <v>0.58533333333333337</v>
       </c>
       <c r="H16" s="216">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="I16" s="218"/>
       <c r="J16" s="219"/>
@@ -33869,13 +34598,34 @@
         <v>0.47</v>
       </c>
       <c r="AG16" s="222"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="216"/>
-      <c r="AJ16" s="216"/>
-      <c r="AK16" s="216"/>
-      <c r="AL16" s="216"/>
-      <c r="AM16" s="216"/>
-      <c r="AN16" s="217"/>
+      <c r="AH16" s="229">
+        <f>AH15+(AH18-AH15)/3</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="AI16" s="229">
+        <f t="shared" ref="AI16:AN16" si="7">AI15+(AI18-AI15)/3</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AJ16" s="229">
+        <f t="shared" si="7"/>
+        <v>0.78</v>
+      </c>
+      <c r="AK16" s="229">
+        <f t="shared" si="7"/>
+        <v>0.73</v>
+      </c>
+      <c r="AL16" s="229">
+        <f t="shared" si="7"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="AM16" s="229">
+        <f t="shared" si="7"/>
+        <v>0.63</v>
+      </c>
+      <c r="AN16" s="229">
+        <f t="shared" si="7"/>
+        <v>0.59666666666666668</v>
+      </c>
       <c r="AO16" s="222">
         <v>42421</v>
       </c>
@@ -33925,13 +34675,34 @@
         <v>0.52</v>
       </c>
       <c r="BE16" s="222"/>
-      <c r="BF16" s="219"/>
-      <c r="BG16" s="216"/>
-      <c r="BH16" s="216"/>
-      <c r="BI16" s="216"/>
-      <c r="BJ16" s="216"/>
-      <c r="BK16" s="216"/>
-      <c r="BL16" s="217"/>
+      <c r="BF16" s="229">
+        <f>BF15+(BF18-BF15)/3</f>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="BG16" s="229">
+        <f t="shared" ref="BG16:BL16" si="8">BG15+(BG18-BG15)/3</f>
+        <v>0.72666666666666668</v>
+      </c>
+      <c r="BH16" s="229">
+        <f t="shared" si="8"/>
+        <v>0.88</v>
+      </c>
+      <c r="BI16" s="229">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="BJ16" s="229">
+        <f t="shared" si="8"/>
+        <v>0.52666666666666673</v>
+      </c>
+      <c r="BK16" s="229">
+        <f t="shared" si="8"/>
+        <v>0.65666666666666673</v>
+      </c>
+      <c r="BL16" s="229">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
       <c r="BM16" s="218"/>
       <c r="BN16" s="219"/>
       <c r="BO16" s="216"/>
@@ -34010,31 +34781,31 @@
       </c>
       <c r="B17" s="216">
         <f t="shared" si="0"/>
-        <v>0.77333333333333343</v>
+        <v>0.78733333333333333</v>
       </c>
       <c r="C17" s="216">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D17" s="216">
         <f t="shared" si="0"/>
-        <v>0.80333333333333334</v>
+        <v>0.82199999999999984</v>
       </c>
       <c r="E17" s="216">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
+        <v>0.70866666666666656</v>
       </c>
       <c r="F17" s="216">
         <f t="shared" si="0"/>
-        <v>0.47666666666666663</v>
+        <v>0.51133333333333331</v>
       </c>
       <c r="G17" s="216">
         <f t="shared" si="0"/>
-        <v>0.57333333333333336</v>
+        <v>0.60666666666666669</v>
       </c>
       <c r="H17" s="216">
         <f t="shared" si="0"/>
-        <v>0.56333333333333335</v>
+        <v>0.58533333333333337</v>
       </c>
       <c r="I17" s="218"/>
       <c r="J17" s="219"/>
@@ -34077,13 +34848,34 @@
         <v>0.49</v>
       </c>
       <c r="AG17" s="222"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="216"/>
-      <c r="AJ17" s="216"/>
-      <c r="AK17" s="216"/>
-      <c r="AL17" s="216"/>
-      <c r="AM17" s="216"/>
-      <c r="AN17" s="217"/>
+      <c r="AH17" s="229">
+        <f>AH15+(AH18-AH15)/3*2</f>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="AI17" s="229">
+        <f t="shared" ref="AI17:AN17" si="9">AI15+(AI18-AI15)/3*2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ17" s="229">
+        <f t="shared" si="9"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="AK17" s="229">
+        <f t="shared" si="9"/>
+        <v>0.76</v>
+      </c>
+      <c r="AL17" s="229">
+        <f t="shared" si="9"/>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="AM17" s="229">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="AN17" s="229">
+        <f t="shared" si="9"/>
+        <v>0.61333333333333329</v>
+      </c>
       <c r="AO17" s="222">
         <v>42428</v>
       </c>
@@ -34133,13 +34925,34 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="BE17" s="222"/>
-      <c r="BF17" s="219"/>
-      <c r="BG17" s="216"/>
-      <c r="BH17" s="216"/>
-      <c r="BI17" s="216"/>
-      <c r="BJ17" s="216"/>
-      <c r="BK17" s="216"/>
-      <c r="BL17" s="217"/>
+      <c r="BF17" s="229">
+        <f>BF15+(BF18-BF15)/3*2</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="BG17" s="229">
+        <f t="shared" ref="BG17:BL17" si="10">BG15+(BG18-BG15)/3*2</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="BH17" s="229">
+        <f t="shared" si="10"/>
+        <v>0.89</v>
+      </c>
+      <c r="BI17" s="229">
+        <f t="shared" si="10"/>
+        <v>0.72333333333333327</v>
+      </c>
+      <c r="BJ17" s="229">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="BK17" s="229">
+        <f t="shared" si="10"/>
+        <v>0.66333333333333333</v>
+      </c>
+      <c r="BL17" s="229">
+        <f t="shared" si="10"/>
+        <v>0.62333333333333329</v>
+      </c>
       <c r="BM17" s="218"/>
       <c r="BN17" s="219"/>
       <c r="BO17" s="216"/>
@@ -34457,31 +35270,31 @@
         <v>43538</v>
       </c>
       <c r="B19" s="216">
-        <f t="shared" ref="B19:H24" si="1">AVERAGE(Z19,AH19,AP19,AX19,BF19)</f>
+        <f t="shared" ref="B19:H21" si="11">AVERAGE(Z19,AH19,AP19,AX19,BF19)</f>
         <v>0.85400000000000009</v>
       </c>
       <c r="C19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
       <c r="D19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.89</v>
       </c>
       <c r="E19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.78999999999999981</v>
       </c>
       <c r="F19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.56600000000000006</v>
       </c>
       <c r="G19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.65599999999999992</v>
       </c>
       <c r="H19" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.63400000000000012</v>
       </c>
       <c r="I19" s="218"/>
@@ -34697,31 +35510,31 @@
         <v>43545</v>
       </c>
       <c r="B20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.88400000000000001</v>
       </c>
       <c r="C20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.80800000000000005</v>
       </c>
       <c r="D20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.91600000000000004</v>
       </c>
       <c r="E20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.83200000000000007</v>
       </c>
       <c r="F20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.60399999999999998</v>
       </c>
       <c r="G20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.68399999999999994</v>
       </c>
       <c r="H20" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.66200000000000003</v>
       </c>
       <c r="I20" s="218"/>
@@ -34937,31 +35750,31 @@
         <v>43552</v>
       </c>
       <c r="B21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="C21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.84199999999999997</v>
       </c>
       <c r="D21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.93399999999999994</v>
       </c>
       <c r="E21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.8620000000000001</v>
       </c>
       <c r="F21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.64</v>
       </c>
       <c r="G21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.71400000000000008</v>
       </c>
       <c r="H21" s="216">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.68799999999999994</v>
       </c>
       <c r="I21" s="218"/>
@@ -35176,34 +35989,13 @@
       <c r="A22" s="227">
         <v>43559</v>
       </c>
-      <c r="B22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="C22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.87</v>
-      </c>
-      <c r="D22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="E22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.89666666666666661</v>
-      </c>
-      <c r="F22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.74333333333333329</v>
-      </c>
-      <c r="H22" s="216">
-        <f t="shared" si="1"/>
-        <v>0.70666666666666667</v>
-      </c>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
       <c r="I22" s="218"/>
       <c r="J22" s="219"/>
       <c r="K22" s="216"/>
@@ -35384,34 +36176,13 @@
       <c r="A23" s="227">
         <v>43566</v>
       </c>
-      <c r="B23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="C23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.91</v>
-      </c>
-      <c r="D23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.93</v>
-      </c>
-      <c r="E23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="F23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.64</v>
-      </c>
-      <c r="G23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
-      </c>
-      <c r="H23" s="216">
-        <f t="shared" si="1"/>
-        <v>0.67</v>
-      </c>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="218"/>
       <c r="J23" s="219"/>
       <c r="K23" s="216"/>
@@ -35560,34 +36331,13 @@
       <c r="A24" s="227">
         <v>43573</v>
       </c>
-      <c r="B24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="C24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.93</v>
-      </c>
-      <c r="D24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="E24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="F24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="G24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="H24" s="216">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
+      <c r="B24" s="216"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
       <c r="I24" s="218"/>
       <c r="J24" s="219"/>
       <c r="K24" s="216"/>
@@ -38199,13 +38949,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ88"/>
+  <dimension ref="A1:AQ91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG93" sqref="AG92:AM93"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38244,67 +38994,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A1" s="253"/>
-      <c r="B1" s="260" t="s">
+      <c r="A1" s="264"/>
+      <c r="B1" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="254" t="s">
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="257" t="s">
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="247" t="s">
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="250" t="s">
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="263" t="s">
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="266" t="s">
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="267"/>
-      <c r="AF1" s="267"/>
-      <c r="AJ1" s="241" t="s">
+      <c r="AE1" s="278"/>
+      <c r="AF1" s="278"/>
+      <c r="AJ1" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="242"/>
-      <c r="AL1" s="242"/>
-      <c r="AM1" s="243"/>
-      <c r="AN1" s="244" t="s">
+      <c r="AK1" s="253"/>
+      <c r="AL1" s="253"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="255" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="245"/>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="246"/>
+      <c r="AO1" s="256"/>
+      <c r="AP1" s="256"/>
+      <c r="AQ1" s="257"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A2" s="253"/>
+      <c r="A2" s="264"/>
       <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
@@ -48701,7 +49451,7 @@
         <v>43343</v>
       </c>
       <c r="B84" s="108">
-        <f>E83</f>
+        <f t="shared" ref="B84:B90" si="24">E83</f>
         <v>125</v>
       </c>
       <c r="C84" s="108">
@@ -48711,14 +49461,14 @@
         <v>17.2</v>
       </c>
       <c r="E84" s="108">
-        <f>B84+C84-D84</f>
+        <f t="shared" ref="E84:E90" si="25">B84+C84-D84</f>
         <v>122.3</v>
       </c>
       <c r="F84" s="109">
         <v>1750</v>
       </c>
       <c r="G84" s="104">
-        <f>J83</f>
+        <f t="shared" ref="G84:G90" si="26">J83</f>
         <v>166.7</v>
       </c>
       <c r="H84" s="105">
@@ -48728,11 +49478,11 @@
         <v>14.2</v>
       </c>
       <c r="J84" s="106">
-        <f>G84+H84-I84</f>
+        <f t="shared" ref="J84:J89" si="27">G84+H84-I84</f>
         <v>157</v>
       </c>
       <c r="K84" s="110">
-        <f>N83</f>
+        <f t="shared" ref="K84:K89" si="28">N83</f>
         <v>55.5</v>
       </c>
       <c r="L84" s="111">
@@ -48742,7 +49492,7 @@
         <v>1.9</v>
       </c>
       <c r="N84" s="112">
-        <f>K84+L84-M84</f>
+        <f t="shared" ref="N84:N89" si="29">K84+L84-M84</f>
         <v>58.300000000000004</v>
       </c>
       <c r="O84" s="113">
@@ -48756,27 +49506,27 @@
         <v>1.8</v>
       </c>
       <c r="R84" s="115">
-        <f>O84+P84-Q84</f>
+        <f t="shared" ref="R84:R90" si="30">O84+P84-Q84</f>
         <v>20.100000000000001</v>
       </c>
       <c r="S84" s="71">
-        <f t="shared" ref="S84" si="24">B84+G84+K84+O84</f>
+        <f t="shared" ref="S84" si="31">B84+G84+K84+O84</f>
         <v>366.3</v>
       </c>
       <c r="T84" s="72">
-        <f t="shared" ref="T84" si="25">C84+H84+L84+P84</f>
+        <f t="shared" ref="T84" si="32">C84+H84+L84+P84</f>
         <v>26.5</v>
       </c>
       <c r="U84" s="72">
-        <f t="shared" ref="U84" si="26">D84+I84+M84+Q84</f>
+        <f t="shared" ref="U84" si="33">D84+I84+M84+Q84</f>
         <v>35.099999999999994</v>
       </c>
       <c r="V84" s="72">
-        <f t="shared" ref="V84" si="27">E84+J84+N84+R84</f>
+        <f t="shared" ref="V84" si="34">E84+J84+N84+R84</f>
         <v>357.70000000000005</v>
       </c>
       <c r="W84" s="73">
-        <f t="shared" ref="W84" si="28">V84-V83</f>
+        <f t="shared" ref="W84" si="35">V84-V83</f>
         <v>-8.5999999999999659</v>
       </c>
       <c r="X84" s="116">
@@ -48789,7 +49539,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="AA84" s="117">
-        <f>X84+Y84-Z84</f>
+        <f t="shared" ref="AA84:AA90" si="36">X84+Y84-Z84</f>
         <v>76.299999999999983</v>
       </c>
       <c r="AB84" s="78">
@@ -48819,7 +49569,7 @@
         <v>1900</v>
       </c>
       <c r="AJ84" s="101">
-        <f>AM83</f>
+        <f t="shared" ref="AJ84:AJ90" si="37">AM83</f>
         <v>7.2</v>
       </c>
       <c r="AK84" s="102">
@@ -48829,7 +49579,7 @@
         <v>1.7</v>
       </c>
       <c r="AM84" s="103">
-        <f>AJ84+AK84-AL84</f>
+        <f t="shared" ref="AM84:AM90" si="38">AJ84+AK84-AL84</f>
         <v>5.5</v>
       </c>
       <c r="AN84" s="131">
@@ -48851,7 +49601,7 @@
         <v>43350</v>
       </c>
       <c r="B85" s="108">
-        <f>E84</f>
+        <f t="shared" si="24"/>
         <v>122.3</v>
       </c>
       <c r="C85" s="119">
@@ -48861,14 +49611,14 @@
         <v>14.7</v>
       </c>
       <c r="E85" s="108">
-        <f>B85+C85-D85</f>
+        <f t="shared" si="25"/>
         <v>120.99999999999999</v>
       </c>
       <c r="F85" s="120">
         <v>1770</v>
       </c>
       <c r="G85" s="104">
-        <f>J84</f>
+        <f t="shared" si="26"/>
         <v>157</v>
       </c>
       <c r="H85" s="33">
@@ -48878,11 +49628,11 @@
         <v>17</v>
       </c>
       <c r="J85" s="106">
-        <f>G85+H85-I85</f>
+        <f t="shared" si="27"/>
         <v>149.80000000000001</v>
       </c>
       <c r="K85" s="110">
-        <f>N84</f>
+        <f t="shared" si="28"/>
         <v>58.300000000000004</v>
       </c>
       <c r="L85" s="122">
@@ -48892,7 +49642,7 @@
         <v>10.8</v>
       </c>
       <c r="N85" s="112">
-        <f>K85+L85-M85</f>
+        <f t="shared" si="29"/>
         <v>56.900000000000006</v>
       </c>
       <c r="O85" s="113">
@@ -48906,31 +49656,31 @@
         <v>11.7</v>
       </c>
       <c r="R85" s="115">
-        <f>O85+P85-Q85</f>
+        <f t="shared" si="30"/>
         <v>14.3</v>
       </c>
       <c r="S85" s="71">
-        <f t="shared" ref="S85" si="29">B85+G85+K85+O85</f>
+        <f t="shared" ref="S85" si="39">B85+G85+K85+O85</f>
         <v>357.70000000000005</v>
       </c>
       <c r="T85" s="72">
-        <f t="shared" ref="T85" si="30">C85+H85+L85+P85</f>
+        <f t="shared" ref="T85" si="40">C85+H85+L85+P85</f>
         <v>38.5</v>
       </c>
       <c r="U85" s="72">
-        <f t="shared" ref="U85" si="31">D85+I85+M85+Q85</f>
+        <f t="shared" ref="U85" si="41">D85+I85+M85+Q85</f>
         <v>54.2</v>
       </c>
       <c r="V85" s="72">
-        <f t="shared" ref="V85" si="32">E85+J85+N85+R85</f>
+        <f t="shared" ref="V85" si="42">E85+J85+N85+R85</f>
         <v>342.00000000000006</v>
       </c>
       <c r="W85" s="73">
-        <f t="shared" ref="W85" si="33">V85-V84</f>
+        <f t="shared" ref="W85" si="43">V85-V84</f>
         <v>-15.699999999999989</v>
       </c>
       <c r="X85" s="35">
-        <f>AA84</f>
+        <f t="shared" ref="X85:X90" si="44">AA84</f>
         <v>76.299999999999983</v>
       </c>
       <c r="Y85" s="36">
@@ -48940,7 +49690,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AA85" s="36">
-        <f>X85+Y85-Z85</f>
+        <f t="shared" si="36"/>
         <v>77.59999999999998</v>
       </c>
       <c r="AB85" s="78">
@@ -48957,7 +49707,7 @@
         <v>61</v>
       </c>
       <c r="AF85" s="163">
-        <f>AC85-AD85-F85-AE85</f>
+        <f t="shared" ref="AF85:AF90" si="45">AC85-AD85-F85-AE85</f>
         <v>-21</v>
       </c>
       <c r="AG85" s="176">
@@ -48970,7 +49720,7 @@
         <v>1900</v>
       </c>
       <c r="AJ85" s="29">
-        <f>AM84</f>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="AK85" s="30">
@@ -48980,7 +49730,7 @@
         <v>2.8</v>
       </c>
       <c r="AM85" s="103">
-        <f>AJ85+AK85-AL85</f>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="AN85" s="131">
@@ -49003,7 +49753,7 @@
         <v>43357</v>
       </c>
       <c r="B86" s="108">
-        <f>E85</f>
+        <f t="shared" si="24"/>
         <v>120.99999999999999</v>
       </c>
       <c r="C86" s="119">
@@ -49013,14 +49763,14 @@
         <v>32.5</v>
       </c>
       <c r="E86" s="108">
-        <f>B86+C86-D86</f>
+        <f t="shared" si="25"/>
         <v>109.5</v>
       </c>
       <c r="F86" s="120">
         <v>1770</v>
       </c>
       <c r="G86" s="104">
-        <f>J85</f>
+        <f t="shared" si="26"/>
         <v>149.80000000000001</v>
       </c>
       <c r="H86" s="33">
@@ -49030,11 +49780,11 @@
         <v>15.7</v>
       </c>
       <c r="J86" s="106">
-        <f>G86+H86-I86</f>
+        <f t="shared" si="27"/>
         <v>145.00000000000003</v>
       </c>
       <c r="K86" s="110">
-        <f>N85</f>
+        <f t="shared" si="28"/>
         <v>56.900000000000006</v>
       </c>
       <c r="L86" s="122">
@@ -49044,7 +49794,7 @@
         <v>10.4</v>
       </c>
       <c r="N86" s="112">
-        <f>K86+L86-M86</f>
+        <f t="shared" si="29"/>
         <v>53.500000000000007</v>
       </c>
       <c r="O86" s="113">
@@ -49058,31 +49808,31 @@
         <v>4.8</v>
       </c>
       <c r="R86" s="115">
-        <f>O86+P86-Q86</f>
+        <f t="shared" si="30"/>
         <v>14.099999999999998</v>
       </c>
       <c r="S86" s="71">
-        <f t="shared" ref="S86" si="34">B86+G86+K86+O86</f>
+        <f t="shared" ref="S86" si="46">B86+G86+K86+O86</f>
         <v>342.00000000000006</v>
       </c>
       <c r="T86" s="72">
-        <f t="shared" ref="T86" si="35">C86+H86+L86+P86</f>
+        <f t="shared" ref="T86" si="47">C86+H86+L86+P86</f>
         <v>43.5</v>
       </c>
       <c r="U86" s="72">
-        <f t="shared" ref="U86" si="36">D86+I86+M86+Q86</f>
+        <f t="shared" ref="U86" si="48">D86+I86+M86+Q86</f>
         <v>63.4</v>
       </c>
       <c r="V86" s="72">
-        <f t="shared" ref="V86" si="37">E86+J86+N86+R86</f>
+        <f t="shared" ref="V86" si="49">E86+J86+N86+R86</f>
         <v>322.10000000000008</v>
       </c>
       <c r="W86" s="73">
-        <f t="shared" ref="W86" si="38">V86-V85</f>
+        <f t="shared" ref="W86" si="50">V86-V85</f>
         <v>-19.899999999999977</v>
       </c>
       <c r="X86" s="166">
-        <f>AA85</f>
+        <f t="shared" si="44"/>
         <v>77.59999999999998</v>
       </c>
       <c r="Y86" s="36">
@@ -49092,7 +49842,7 @@
         <v>37.6</v>
       </c>
       <c r="AA86" s="167">
-        <f>X86+Y86-Z86</f>
+        <f t="shared" si="36"/>
         <v>54.499999999999979</v>
       </c>
       <c r="AB86" s="78">
@@ -49109,7 +49859,7 @@
         <v>62</v>
       </c>
       <c r="AF86" s="163">
-        <f>AC86-AD86-F86-AE86</f>
+        <f t="shared" si="45"/>
         <v>-2</v>
       </c>
       <c r="AG86" s="176">
@@ -49122,7 +49872,7 @@
         <v>1900</v>
       </c>
       <c r="AJ86" s="165">
-        <f>AM85</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="AK86" s="30">
@@ -49132,7 +49882,7 @@
         <v>2.8</v>
       </c>
       <c r="AM86" s="103">
-        <f>AJ86+AK86-AL86</f>
+        <f t="shared" si="38"/>
         <v>6.2</v>
       </c>
       <c r="AN86" s="131">
@@ -49155,7 +49905,7 @@
         <v>43364</v>
       </c>
       <c r="B87" s="108">
-        <f>E86</f>
+        <f t="shared" si="24"/>
         <v>109.5</v>
       </c>
       <c r="C87" s="119">
@@ -49165,14 +49915,14 @@
         <v>29.5</v>
       </c>
       <c r="E87" s="108">
-        <f>B87+C87-D87</f>
+        <f t="shared" si="25"/>
         <v>102.1</v>
       </c>
       <c r="F87" s="120">
         <v>1770</v>
       </c>
       <c r="G87" s="104">
-        <f>J86</f>
+        <f t="shared" si="26"/>
         <v>145.00000000000003</v>
       </c>
       <c r="H87" s="33">
@@ -49182,11 +49932,11 @@
         <v>16.5</v>
       </c>
       <c r="J87" s="106">
-        <f>G87+H87-I87</f>
+        <f t="shared" si="27"/>
         <v>139.00000000000003</v>
       </c>
       <c r="K87" s="110">
-        <f>N86</f>
+        <f t="shared" si="28"/>
         <v>53.500000000000007</v>
       </c>
       <c r="L87" s="122">
@@ -49196,7 +49946,7 @@
         <v>13.9</v>
       </c>
       <c r="N87" s="112">
-        <f>K87+L87-M87</f>
+        <f t="shared" si="29"/>
         <v>55.1</v>
       </c>
       <c r="O87" s="113">
@@ -49210,31 +49960,31 @@
         <v>4.5</v>
       </c>
       <c r="R87" s="115">
-        <f>O87+P87-Q87</f>
+        <f t="shared" si="30"/>
         <v>16.099999999999998</v>
       </c>
       <c r="S87" s="71">
-        <f t="shared" ref="S87" si="39">B87+G87+K87+O87</f>
+        <f t="shared" ref="S87:S89" si="51">B87+G87+K87+O87</f>
         <v>322.10000000000008</v>
       </c>
       <c r="T87" s="72">
-        <f t="shared" ref="T87" si="40">C87+H87+L87+P87</f>
+        <f t="shared" ref="T87:T88" si="52">C87+H87+L87+P87</f>
         <v>54.6</v>
       </c>
       <c r="U87" s="72">
-        <f t="shared" ref="U87" si="41">D87+I87+M87+Q87</f>
+        <f t="shared" ref="U87:U88" si="53">D87+I87+M87+Q87</f>
         <v>64.400000000000006</v>
       </c>
       <c r="V87" s="72">
-        <f t="shared" ref="V87" si="42">E87+J87+N87+R87</f>
+        <f t="shared" ref="V87:V88" si="54">E87+J87+N87+R87</f>
         <v>312.30000000000007</v>
       </c>
       <c r="W87" s="73">
-        <f t="shared" ref="W87" si="43">V87-V86</f>
+        <f t="shared" ref="W87:W89" si="55">V87-V86</f>
         <v>-9.8000000000000114</v>
       </c>
       <c r="X87" s="190">
-        <f>AA86</f>
+        <f t="shared" si="44"/>
         <v>54.499999999999979</v>
       </c>
       <c r="Y87" s="36">
@@ -49244,11 +49994,11 @@
         <v>19.7</v>
       </c>
       <c r="AA87" s="191">
-        <f>X87+Y87-Z87</f>
+        <f t="shared" si="36"/>
         <v>75.09999999999998</v>
       </c>
       <c r="AB87" s="78">
-        <f t="shared" ref="AB87" si="44">AA87-AA86</f>
+        <f t="shared" ref="AB87:AB89" si="56">AA87-AA86</f>
         <v>20.6</v>
       </c>
       <c r="AC87" s="192">
@@ -49261,7 +50011,7 @@
         <v>62</v>
       </c>
       <c r="AF87" s="163">
-        <f>AC87-AD87-F87-AE87</f>
+        <f t="shared" si="45"/>
         <v>-2</v>
       </c>
       <c r="AG87" s="168">
@@ -49274,7 +50024,7 @@
         <v>1900</v>
       </c>
       <c r="AJ87" s="189">
-        <f>AM86</f>
+        <f t="shared" si="37"/>
         <v>6.2</v>
       </c>
       <c r="AK87" s="30">
@@ -49284,7 +50034,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AM87" s="103">
-        <f>AJ87+AK87-AL87</f>
+        <f t="shared" si="38"/>
         <v>5.5000000000000009</v>
       </c>
       <c r="AN87" s="131">
@@ -49305,6 +50055,459 @@
     <row r="88" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A88" s="59">
         <v>43371</v>
+      </c>
+      <c r="B88" s="108">
+        <f t="shared" si="24"/>
+        <v>102.1</v>
+      </c>
+      <c r="C88" s="119">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D88" s="119">
+        <v>29.8</v>
+      </c>
+      <c r="E88" s="119">
+        <f t="shared" si="25"/>
+        <v>105.00000000000001</v>
+      </c>
+      <c r="F88" s="120">
+        <v>1770</v>
+      </c>
+      <c r="G88" s="104">
+        <f t="shared" si="26"/>
+        <v>139.00000000000003</v>
+      </c>
+      <c r="H88" s="33">
+        <v>10.8</v>
+      </c>
+      <c r="I88" s="33">
+        <v>11.8</v>
+      </c>
+      <c r="J88" s="34">
+        <f t="shared" si="27"/>
+        <v>138.00000000000003</v>
+      </c>
+      <c r="K88" s="110">
+        <f t="shared" si="28"/>
+        <v>55.1</v>
+      </c>
+      <c r="L88" s="122">
+        <v>15.1</v>
+      </c>
+      <c r="M88" s="122">
+        <v>18.2</v>
+      </c>
+      <c r="N88" s="123">
+        <f t="shared" si="29"/>
+        <v>52</v>
+      </c>
+      <c r="O88" s="113">
+        <f t="shared" ref="O88:O89" si="57">R87</f>
+        <v>16.099999999999998</v>
+      </c>
+      <c r="P88" s="125">
+        <v>0.3</v>
+      </c>
+      <c r="Q88" s="125">
+        <v>1.3</v>
+      </c>
+      <c r="R88" s="126">
+        <f t="shared" si="30"/>
+        <v>15.099999999999998</v>
+      </c>
+      <c r="S88" s="71">
+        <f t="shared" si="51"/>
+        <v>312.30000000000007</v>
+      </c>
+      <c r="T88" s="39">
+        <f t="shared" si="52"/>
+        <v>58.9</v>
+      </c>
+      <c r="U88" s="39">
+        <f t="shared" si="53"/>
+        <v>61.099999999999994</v>
+      </c>
+      <c r="V88" s="39">
+        <f t="shared" si="54"/>
+        <v>310.10000000000008</v>
+      </c>
+      <c r="W88" s="73">
+        <f t="shared" si="55"/>
+        <v>-2.1999999999999886</v>
+      </c>
+      <c r="X88" s="231">
+        <f t="shared" si="44"/>
+        <v>75.09999999999998</v>
+      </c>
+      <c r="Y88" s="36">
+        <v>34.6</v>
+      </c>
+      <c r="Z88" s="36">
+        <v>30.2</v>
+      </c>
+      <c r="AA88" s="232">
+        <f t="shared" si="36"/>
+        <v>79.499999999999986</v>
+      </c>
+      <c r="AB88" s="78">
+        <f t="shared" si="56"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="AC88" s="37">
+        <v>1930</v>
+      </c>
+      <c r="AD88" s="97">
+        <v>90</v>
+      </c>
+      <c r="AE88" s="97">
+        <v>62</v>
+      </c>
+      <c r="AF88" s="163">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="AG88" s="168">
+        <v>2106</v>
+      </c>
+      <c r="AH88" s="169">
+        <v>2010</v>
+      </c>
+      <c r="AI88" s="169">
+        <v>1915</v>
+      </c>
+      <c r="AJ88" s="228">
+        <f t="shared" si="37"/>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="AK88" s="30">
+        <v>5</v>
+      </c>
+      <c r="AL88" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="AM88" s="103">
+        <f t="shared" si="38"/>
+        <v>7.6</v>
+      </c>
+      <c r="AN88" s="131">
+        <f>AQ87</f>
+        <v>7.9</v>
+      </c>
+      <c r="AO88" s="33">
+        <v>12.3</v>
+      </c>
+      <c r="AP88" s="33">
+        <v>4</v>
+      </c>
+      <c r="AQ88" s="155">
+        <f>AN88+AO88-AP88</f>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A89" s="128">
+        <v>43378</v>
+      </c>
+      <c r="B89" s="108">
+        <f t="shared" si="24"/>
+        <v>105.00000000000001</v>
+      </c>
+      <c r="C89" s="119">
+        <v>34.4</v>
+      </c>
+      <c r="D89" s="119">
+        <v>38.9</v>
+      </c>
+      <c r="E89" s="119">
+        <f t="shared" si="25"/>
+        <v>100.5</v>
+      </c>
+      <c r="F89" s="120">
+        <v>1775</v>
+      </c>
+      <c r="G89" s="104">
+        <f t="shared" si="26"/>
+        <v>138.00000000000003</v>
+      </c>
+      <c r="H89" s="33">
+        <v>20.5</v>
+      </c>
+      <c r="I89" s="33">
+        <v>26.5</v>
+      </c>
+      <c r="J89" s="34">
+        <f t="shared" si="27"/>
+        <v>132.00000000000003</v>
+      </c>
+      <c r="K89" s="110">
+        <f t="shared" si="28"/>
+        <v>52</v>
+      </c>
+      <c r="L89" s="122">
+        <v>9.6</v>
+      </c>
+      <c r="M89" s="122">
+        <v>6</v>
+      </c>
+      <c r="N89" s="123">
+        <f t="shared" si="29"/>
+        <v>55.6</v>
+      </c>
+      <c r="O89" s="113">
+        <f t="shared" si="57"/>
+        <v>15.099999999999998</v>
+      </c>
+      <c r="P89" s="125">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q89" s="125">
+        <v>3.2</v>
+      </c>
+      <c r="R89" s="126">
+        <f t="shared" si="30"/>
+        <v>14.099999999999998</v>
+      </c>
+      <c r="S89" s="71">
+        <f t="shared" si="51"/>
+        <v>310.10000000000008</v>
+      </c>
+      <c r="T89" s="233">
+        <f t="shared" ref="T89" si="58">C89+H89+L89+P89</f>
+        <v>66.7</v>
+      </c>
+      <c r="U89" s="233">
+        <f t="shared" ref="U89" si="59">D89+I89+M89+Q89</f>
+        <v>74.600000000000009</v>
+      </c>
+      <c r="V89" s="233">
+        <f t="shared" ref="V89" si="60">E89+J89+N89+R89</f>
+        <v>302.20000000000005</v>
+      </c>
+      <c r="W89" s="73">
+        <f t="shared" si="55"/>
+        <v>-7.9000000000000341</v>
+      </c>
+      <c r="X89" s="35">
+        <f t="shared" si="44"/>
+        <v>79.499999999999986</v>
+      </c>
+      <c r="Y89" s="232">
+        <v>11.6</v>
+      </c>
+      <c r="Z89" s="232">
+        <v>29</v>
+      </c>
+      <c r="AA89" s="36">
+        <f t="shared" si="36"/>
+        <v>62.09999999999998</v>
+      </c>
+      <c r="AB89" s="78">
+        <f t="shared" si="56"/>
+        <v>-17.400000000000006</v>
+      </c>
+      <c r="AC89" s="37">
+        <v>1910</v>
+      </c>
+      <c r="AD89" s="97">
+        <v>90</v>
+      </c>
+      <c r="AE89" s="97">
+        <v>62</v>
+      </c>
+      <c r="AF89" s="163">
+        <f t="shared" si="45"/>
+        <v>-17</v>
+      </c>
+      <c r="AG89" s="168">
+        <v>2101</v>
+      </c>
+      <c r="AH89" s="169">
+        <v>2010</v>
+      </c>
+      <c r="AI89" s="169">
+        <v>1915</v>
+      </c>
+      <c r="AJ89" s="230">
+        <f t="shared" si="37"/>
+        <v>7.6</v>
+      </c>
+      <c r="AK89" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="AL89" s="30">
+        <v>2.7</v>
+      </c>
+      <c r="AM89" s="103">
+        <f t="shared" si="38"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="AN89" s="131">
+        <f t="shared" ref="AN89:AN90" si="61">AQ88</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="AO89" s="33">
+        <v>6</v>
+      </c>
+      <c r="AQ89" s="155">
+        <f t="shared" ref="AQ89:AQ90" si="62">AN89+AO89-AP89</f>
+        <v>22.200000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A90" s="128">
+        <v>43385</v>
+      </c>
+      <c r="B90" s="108">
+        <f t="shared" si="24"/>
+        <v>100.5</v>
+      </c>
+      <c r="C90" s="119">
+        <v>16.7</v>
+      </c>
+      <c r="D90" s="119">
+        <v>10.5</v>
+      </c>
+      <c r="E90" s="119">
+        <f t="shared" si="25"/>
+        <v>106.7</v>
+      </c>
+      <c r="F90" s="120">
+        <v>1760</v>
+      </c>
+      <c r="G90" s="104">
+        <f t="shared" si="26"/>
+        <v>132.00000000000003</v>
+      </c>
+      <c r="H90" s="33">
+        <v>10.9</v>
+      </c>
+      <c r="I90" s="33">
+        <v>16.5</v>
+      </c>
+      <c r="J90" s="238">
+        <f t="shared" ref="J90" si="63">G90+H90-I90</f>
+        <v>126.40000000000003</v>
+      </c>
+      <c r="K90" s="110">
+        <f t="shared" ref="K90" si="64">N89</f>
+        <v>55.6</v>
+      </c>
+      <c r="L90" s="122">
+        <v>12.6</v>
+      </c>
+      <c r="M90" s="122">
+        <v>11.3</v>
+      </c>
+      <c r="N90" s="123">
+        <f t="shared" ref="N90" si="65">K90+L90-M90</f>
+        <v>56.900000000000006</v>
+      </c>
+      <c r="O90" s="113">
+        <f t="shared" ref="O90" si="66">R89</f>
+        <v>14.099999999999998</v>
+      </c>
+      <c r="P90" s="125">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q90" s="125">
+        <v>5.8</v>
+      </c>
+      <c r="R90" s="126">
+        <f t="shared" si="30"/>
+        <v>18.099999999999998</v>
+      </c>
+      <c r="S90" s="71">
+        <f t="shared" ref="S90" si="67">B90+G90+K90+O90</f>
+        <v>302.20000000000005</v>
+      </c>
+      <c r="T90" s="235">
+        <f t="shared" ref="T90" si="68">C90+H90+L90+P90</f>
+        <v>50</v>
+      </c>
+      <c r="U90" s="235">
+        <f t="shared" ref="U90" si="69">D90+I90+M90+Q90</f>
+        <v>44.099999999999994</v>
+      </c>
+      <c r="V90" s="235">
+        <f t="shared" ref="V90" si="70">E90+J90+N90+R90</f>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="W90" s="73">
+        <f t="shared" ref="W90" si="71">V90-V89</f>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="X90" s="236">
+        <f t="shared" si="44"/>
+        <v>62.09999999999998</v>
+      </c>
+      <c r="Y90" s="36">
+        <v>49.3</v>
+      </c>
+      <c r="Z90" s="36">
+        <v>29.1</v>
+      </c>
+      <c r="AA90" s="36">
+        <f t="shared" si="36"/>
+        <v>82.299999999999983</v>
+      </c>
+      <c r="AB90" s="78">
+        <f t="shared" ref="AB90" si="72">AA90-AA89</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="AC90" s="237">
+        <v>1905</v>
+      </c>
+      <c r="AD90" s="97">
+        <v>90</v>
+      </c>
+      <c r="AE90" s="97">
+        <v>70</v>
+      </c>
+      <c r="AF90" s="163">
+        <f t="shared" si="45"/>
+        <v>-15</v>
+      </c>
+      <c r="AG90" s="168">
+        <v>2125</v>
+      </c>
+      <c r="AH90" s="169">
+        <v>2010</v>
+      </c>
+      <c r="AI90" s="169">
+        <v>1915</v>
+      </c>
+      <c r="AJ90" s="234">
+        <f t="shared" si="37"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="AK90" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AL90" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="AM90" s="103">
+        <f t="shared" si="38"/>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="AN90" s="131">
+        <f t="shared" si="61"/>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="AO90" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AP90" s="33">
+        <v>6.3</v>
+      </c>
+      <c r="AQ90" s="155">
+        <f t="shared" si="62"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A91" s="128">
+        <v>43392</v>
       </c>
     </row>
   </sheetData>
@@ -49330,13 +50533,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH65"/>
+  <dimension ref="A1:AH68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49358,49 +50561,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="B1" s="268" t="s">
+      <c r="B1" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="241" t="s">
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="271" t="s">
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="272"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="274" t="s">
+      <c r="L1" s="283"/>
+      <c r="M1" s="284"/>
+      <c r="N1" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="239" t="s">
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="240"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="251"/>
+      <c r="AA1" s="251"/>
+      <c r="AB1" s="251"/>
+      <c r="AC1" s="251"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -55749,6 +56952,165 @@
       </c>
       <c r="Q65" s="24">
         <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="81">
+        <v>43371</v>
+      </c>
+      <c r="B66" s="4">
+        <v>71.63</v>
+      </c>
+      <c r="C66" s="5">
+        <v>86.47</v>
+      </c>
+      <c r="D66" s="5">
+        <v>78.31</v>
+      </c>
+      <c r="E66" s="6">
+        <v>52.63</v>
+      </c>
+      <c r="F66" s="10">
+        <v>129</v>
+      </c>
+      <c r="G66" s="11">
+        <v>102</v>
+      </c>
+      <c r="H66" s="11">
+        <v>151</v>
+      </c>
+      <c r="I66" s="11">
+        <v>109.9</v>
+      </c>
+      <c r="J66" s="12">
+        <v>107.6</v>
+      </c>
+      <c r="K66" s="16">
+        <v>61.5</v>
+      </c>
+      <c r="L66" s="17">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="M66" s="18">
+        <v>57.86</v>
+      </c>
+      <c r="N66" s="22">
+        <v>840</v>
+      </c>
+      <c r="O66" s="23">
+        <v>575</v>
+      </c>
+      <c r="P66" s="23">
+        <v>331</v>
+      </c>
+      <c r="Q66" s="24">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="81">
+        <v>43378</v>
+      </c>
+      <c r="B67" s="4">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C67" s="5">
+        <v>86.47</v>
+      </c>
+      <c r="D67" s="5">
+        <v>80.59</v>
+      </c>
+      <c r="E67" s="6">
+        <v>72.87</v>
+      </c>
+      <c r="F67" s="10">
+        <v>142</v>
+      </c>
+      <c r="G67" s="11">
+        <v>109.2</v>
+      </c>
+      <c r="H67" s="11">
+        <v>151</v>
+      </c>
+      <c r="I67" s="11">
+        <v>131.5</v>
+      </c>
+      <c r="J67" s="12">
+        <v>112.5</v>
+      </c>
+      <c r="K67" s="16">
+        <v>63.29</v>
+      </c>
+      <c r="L67" s="17">
+        <v>71.61</v>
+      </c>
+      <c r="M67" s="18">
+        <v>61.78</v>
+      </c>
+      <c r="N67" s="22">
+        <v>840</v>
+      </c>
+      <c r="O67" s="23">
+        <v>618</v>
+      </c>
+      <c r="P67" s="23">
+        <v>408</v>
+      </c>
+      <c r="Q67" s="24">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="81">
+        <v>43385</v>
+      </c>
+      <c r="B68" s="4">
+        <v>77.33</v>
+      </c>
+      <c r="C68" s="5">
+        <v>88.53</v>
+      </c>
+      <c r="D68" s="5">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="E68" s="6">
+        <v>72.87</v>
+      </c>
+      <c r="F68" s="10">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="G68" s="11">
+        <v>128</v>
+      </c>
+      <c r="H68" s="11">
+        <v>161</v>
+      </c>
+      <c r="I68" s="11">
+        <v>165</v>
+      </c>
+      <c r="J68" s="12">
+        <v>132.5</v>
+      </c>
+      <c r="K68" s="16">
+        <v>63.74</v>
+      </c>
+      <c r="L68" s="17">
+        <v>71.17</v>
+      </c>
+      <c r="M68" s="18">
+        <v>66.56</v>
+      </c>
+      <c r="N68" s="22">
+        <v>925</v>
+      </c>
+      <c r="O68" s="23">
+        <v>618</v>
+      </c>
+      <c r="P68" s="23">
+        <v>420</v>
+      </c>
+      <c r="Q68" s="24">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -55767,10 +57129,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF19" sqref="T6:AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56267,6 +57629,104 @@
         <v>55</v>
       </c>
     </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A6" s="133">
+        <v>43379</v>
+      </c>
+      <c r="B6" s="136">
+        <v>8</v>
+      </c>
+      <c r="C6" s="136">
+        <v>17</v>
+      </c>
+      <c r="D6" s="136">
+        <v>8</v>
+      </c>
+      <c r="E6" s="136">
+        <v>12</v>
+      </c>
+      <c r="F6" s="136">
+        <v>9</v>
+      </c>
+      <c r="G6" s="136">
+        <v>14</v>
+      </c>
+      <c r="H6" s="136">
+        <v>12</v>
+      </c>
+      <c r="I6" s="136">
+        <v>8</v>
+      </c>
+      <c r="J6" s="136">
+        <v>8</v>
+      </c>
+      <c r="K6" s="136">
+        <v>9</v>
+      </c>
+      <c r="L6" s="136">
+        <v>7</v>
+      </c>
+      <c r="M6" s="136">
+        <v>8</v>
+      </c>
+      <c r="N6" s="136">
+        <v>7</v>
+      </c>
+      <c r="O6" s="136">
+        <v>8</v>
+      </c>
+      <c r="P6" s="136">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="187">
+        <v>8</v>
+      </c>
+      <c r="R6" s="188">
+        <v>115</v>
+      </c>
+      <c r="S6" s="136">
+        <v>45</v>
+      </c>
+      <c r="T6" s="136">
+        <v>45</v>
+      </c>
+      <c r="U6" s="136">
+        <v>50</v>
+      </c>
+      <c r="V6" s="136">
+        <v>5.5</v>
+      </c>
+      <c r="W6" s="136">
+        <v>30</v>
+      </c>
+      <c r="X6" s="136">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="136">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="136">
+        <v>70</v>
+      </c>
+      <c r="AH6" s="136">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="136">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="136">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="136">
+        <v>55</v>
+      </c>
+      <c r="AL6" s="136">
+        <v>110</v>
+      </c>
+      <c r="AM6" s="136">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56278,7 +57738,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56302,14 +57762,14 @@
       <c r="E1" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="277" t="s">
+      <c r="F1" s="288" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="278"/>
-      <c r="H1" s="277" t="s">
+      <c r="G1" s="289"/>
+      <c r="H1" s="288" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="278"/>
+      <c r="I1" s="289"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="158" t="s">
@@ -56718,17 +58178,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="279" t="s">
+      <c r="A16" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="280"/>
-      <c r="C16" s="280"/>
-      <c r="D16" s="280"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="280"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="281"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -56745,59 +58205,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="282" t="s">
+      <c r="C1" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="282" t="s">
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="282" t="s">
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="293" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="282" t="s">
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="293" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="283"/>
-      <c r="P1" s="283"/>
-      <c r="Q1" s="282" t="s">
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="283"/>
-      <c r="S1" s="283"/>
-      <c r="T1" s="283"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
+      <c r="T1" s="294"/>
       <c r="U1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="282" t="s">
+      <c r="V1" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="283"/>
-      <c r="X1" s="283"/>
+      <c r="W1" s="294"/>
+      <c r="X1" s="294"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="282"/>
-      <c r="B2" s="282"/>
+      <c r="A2" s="293"/>
+      <c r="B2" s="293"/>
       <c r="C2" s="98" t="s">
         <v>85</v>
       </c>
